--- a/2.开发管理/营销管理平台开发计划.xlsx
+++ b/2.开发管理/营销管理平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\2.开发管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C666C-5F78-4B44-A07F-51BFDB5A5937}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D51EAE-2445-40A8-9B1A-FA8F96E88780}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="247">
   <si>
     <t>优先级</t>
   </si>
@@ -998,6 +998,10 @@
   </si>
   <si>
     <t>对接流程引擎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻兰、柯程文</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1223,13 +1227,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,9 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,26 +1269,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,8 +1554,8 @@
   <dimension ref="A1:O725"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
+      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1574,22 +1578,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1639,16 +1643,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1686,10 +1690,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1725,10 +1729,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1764,10 +1768,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1801,10 +1805,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1838,10 +1842,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1875,10 +1879,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1912,10 +1916,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1938,10 +1942,10 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1964,12 +1968,12 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2005,10 +2009,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2031,10 +2035,10 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2057,10 +2061,10 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2083,10 +2087,10 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2109,10 +2113,10 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2135,10 +2139,10 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2161,12 +2165,12 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2191,10 +2195,10 @@
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2217,10 +2221,10 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
@@ -2243,10 +2247,10 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2269,10 +2273,10 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2295,10 +2299,10 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2321,10 +2325,10 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2347,14 +2351,14 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2379,10 +2383,10 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2405,10 +2409,10 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2431,10 +2435,10 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
@@ -2457,10 +2461,10 @@
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
@@ -2483,10 +2487,10 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
@@ -2509,10 +2513,10 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="2" t="s">
         <v>26</v>
       </c>
@@ -2535,12 +2539,12 @@
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2565,10 +2569,10 @@
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2591,10 +2595,10 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2617,10 +2621,10 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2643,10 +2647,10 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2" t="s">
         <v>18</v>
       </c>
@@ -2669,10 +2673,10 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
@@ -2695,10 +2699,10 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="27"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2721,12 +2725,12 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2751,10 +2755,10 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2777,10 +2781,10 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
@@ -2803,10 +2807,10 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
@@ -2829,10 +2833,10 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2855,10 +2859,10 @@
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2881,10 +2885,10 @@
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="2" t="s">
         <v>26</v>
       </c>
@@ -2907,10 +2911,10 @@
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="7" t="s">
         <v>37</v>
       </c>
@@ -2933,12 +2937,12 @@
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2963,10 +2967,10 @@
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="27"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
@@ -2989,10 +2993,10 @@
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="2" t="s">
         <v>14</v>
       </c>
@@ -3015,10 +3019,10 @@
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
@@ -3041,10 +3045,10 @@
       <c r="O51" s="5"/>
     </row>
     <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="27"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="2" t="s">
         <v>41</v>
       </c>
@@ -3067,10 +3071,10 @@
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3093,10 +3097,10 @@
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="27"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="2" t="s">
         <v>26</v>
       </c>
@@ -3119,12 +3123,12 @@
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -3149,10 +3153,10 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
@@ -3175,10 +3179,10 @@
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
@@ -3201,10 +3205,10 @@
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="27"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
@@ -3227,10 +3231,10 @@
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="2" t="s">
         <v>18</v>
       </c>
@@ -3253,10 +3257,10 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="27"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
@@ -3279,10 +3283,10 @@
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="2" t="s">
         <v>26</v>
       </c>
@@ -3305,12 +3309,12 @@
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3335,10 +3339,10 @@
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -3361,10 +3365,10 @@
       <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="27"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="2" t="s">
         <v>14</v>
       </c>
@@ -3387,10 +3391,10 @@
       <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="2" t="s">
         <v>15</v>
       </c>
@@ -3413,10 +3417,10 @@
       <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="27"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="2" t="s">
         <v>18</v>
       </c>
@@ -3439,10 +3443,10 @@
       <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="2" t="s">
         <v>19</v>
       </c>
@@ -3465,10 +3469,10 @@
       <c r="O67" s="5"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="27"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="2" t="s">
         <v>26</v>
       </c>
@@ -3491,14 +3495,14 @@
       <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -3521,10 +3525,10 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="27"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="7" t="s">
         <v>13</v>
       </c>
@@ -3545,12 +3549,12 @@
       <c r="O70" s="5"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -3573,10 +3577,10 @@
       <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="7" t="s">
         <v>57</v>
       </c>
@@ -3597,12 +3601,12 @@
       <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -3625,10 +3629,10 @@
       <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="7" t="s">
         <v>57</v>
       </c>
@@ -3649,12 +3653,12 @@
       <c r="O74" s="5"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="22" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -3677,10 +3681,10 @@
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="7" t="s">
         <v>57</v>
       </c>
@@ -3701,12 +3705,12 @@
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -3729,10 +3733,10 @@
       <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="27"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="7" t="s">
         <v>57</v>
       </c>
@@ -3753,12 +3757,12 @@
       <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -3781,10 +3785,10 @@
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="27"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="7" t="s">
         <v>57</v>
       </c>
@@ -3805,12 +3809,12 @@
       <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31" t="s">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -3819,7 +3823,7 @@
       <c r="F81" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="37">
+      <c r="G81" s="21">
         <v>43439</v>
       </c>
       <c r="H81" s="14">
@@ -3837,10 +3841,10 @@
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="7" t="s">
         <v>70</v>
       </c>
@@ -3861,10 +3865,10 @@
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="7" t="s">
         <v>81</v>
       </c>
@@ -3887,10 +3891,10 @@
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="20" t="s">
         <v>79</v>
       </c>
@@ -3913,17 +3917,17 @@
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="32"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G85" s="37">
+      <c r="G85" s="21">
         <v>43439</v>
       </c>
       <c r="H85" s="14">
@@ -3941,10 +3945,10 @@
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="7" t="s">
         <v>72</v>
       </c>
@@ -3967,10 +3971,10 @@
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="7" t="s">
         <v>73</v>
       </c>
@@ -3991,16 +3995,16 @@
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -4023,10 +4027,10 @@
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="7" t="s">
         <v>93</v>
       </c>
@@ -4047,10 +4051,10 @@
       <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="7" t="s">
         <v>94</v>
       </c>
@@ -4071,10 +4075,10 @@
       <c r="O90" s="5"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="7" t="s">
         <v>95</v>
       </c>
@@ -4095,10 +4099,10 @@
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="7" t="s">
         <v>96</v>
       </c>
@@ -4119,10 +4123,10 @@
       <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="7" t="s">
         <v>97</v>
       </c>
@@ -4143,10 +4147,10 @@
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="7" t="s">
         <v>98</v>
       </c>
@@ -4169,17 +4173,17 @@
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="20" t="s">
         <v>100</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G95" s="37">
+      <c r="G95" s="21">
         <v>43439</v>
       </c>
       <c r="H95" s="14">
@@ -4197,10 +4201,10 @@
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="20" t="s">
         <v>244</v>
       </c>
@@ -4221,10 +4225,10 @@
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="7" t="s">
         <v>102</v>
       </c>
@@ -4247,14 +4251,14 @@
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D98" s="33"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="2" t="s">
         <v>107</v>
       </c>
@@ -4277,10 +4281,10 @@
       <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="33"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="7" t="s">
         <v>108</v>
       </c>
@@ -4303,10 +4307,10 @@
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="33"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="7" t="s">
         <v>109</v>
       </c>
@@ -4327,12 +4331,12 @@
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D101" s="27"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="7" t="s">
         <v>111</v>
       </c>
@@ -4353,10 +4357,10 @@
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="7" t="s">
         <v>113</v>
       </c>
@@ -4379,14 +4383,14 @@
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31" t="s">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="27"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="7" t="s">
         <v>117</v>
       </c>
@@ -4407,10 +4411,10 @@
       <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="27"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="7" t="s">
         <v>118</v>
       </c>
@@ -4431,14 +4435,14 @@
       <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31" t="s">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="27"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="7" t="s">
         <v>120</v>
       </c>
@@ -4459,10 +4463,10 @@
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="27"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="7" t="s">
         <v>13</v>
       </c>
@@ -4483,12 +4487,12 @@
       <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31" t="s">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="27"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="7" t="s">
         <v>120</v>
       </c>
@@ -4509,10 +4513,10 @@
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="27"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="7" t="s">
         <v>13</v>
       </c>
@@ -4533,12 +4537,12 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31" t="s">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="27"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="7" t="s">
         <v>120</v>
       </c>
@@ -4559,10 +4563,10 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="31"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="27"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="7" t="s">
         <v>13</v>
       </c>
@@ -4583,14 +4587,14 @@
       <c r="O110" s="5"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31" t="s">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="27"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="7" t="s">
         <v>120</v>
       </c>
@@ -4611,10 +4615,10 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="27"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="7" t="s">
         <v>18</v>
       </c>
@@ -4635,10 +4639,10 @@
       <c r="O112" s="5"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="27"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="7" t="s">
         <v>125</v>
       </c>
@@ -4659,12 +4663,12 @@
       <c r="O113" s="5"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="31"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31" t="s">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="7" t="s">
         <v>120</v>
       </c>
@@ -4685,10 +4689,10 @@
       <c r="O114" s="5"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="27"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="7" t="s">
         <v>18</v>
       </c>
@@ -4709,10 +4713,10 @@
       <c r="O115" s="5"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="27"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="7" t="s">
         <v>125</v>
       </c>
@@ -4733,8 +4737,8 @@
       <c r="O116" s="5"/>
     </row>
     <row r="117" spans="1:15" ht="33" x14ac:dyDescent="0.15">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -4745,7 +4749,7 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="37">
+      <c r="G117" s="21">
         <v>43439</v>
       </c>
       <c r="H117" s="14">
@@ -4763,8 +4767,8 @@
       <c r="O117" s="5"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="5" t="s">
         <v>131</v>
       </c>
@@ -4787,7 +4791,7 @@
       <c r="O118" s="5"/>
     </row>
     <row r="119" spans="1:15" ht="33" x14ac:dyDescent="0.15">
-      <c r="A119" s="31"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="6" t="s">
         <v>130</v>
       </c>
@@ -4815,16 +4819,16 @@
       <c r="O119" s="5"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D120" s="27"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="7" t="s">
         <v>117</v>
       </c>
@@ -4845,10 +4849,10 @@
       <c r="O120" s="5"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A121" s="31"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="27"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="7" t="s">
         <v>18</v>
       </c>
@@ -4869,10 +4873,10 @@
       <c r="O121" s="5"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="27"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="7" t="s">
         <v>125</v>
       </c>
@@ -4893,12 +4897,12 @@
       <c r="O122" s="5"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31" t="s">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="7" t="s">
         <v>117</v>
       </c>
@@ -4919,10 +4923,10 @@
       <c r="O123" s="5"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="27"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="7" t="s">
         <v>18</v>
       </c>
@@ -4943,10 +4947,10 @@
       <c r="O124" s="5"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="27"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="7" t="s">
         <v>125</v>
       </c>
@@ -4967,14 +4971,14 @@
       <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A126" s="31"/>
-      <c r="B126" s="31" t="s">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="27"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="7" t="s">
         <v>117</v>
       </c>
@@ -4995,10 +4999,10 @@
       <c r="O126" s="5"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="27"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="22"/>
       <c r="E127" s="20" t="s">
         <v>138</v>
       </c>
@@ -5019,10 +5023,10 @@
       <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="27"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="7" t="s">
         <v>13</v>
       </c>
@@ -5043,12 +5047,12 @@
       <c r="O128" s="5"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31" t="s">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D129" s="27"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="7" t="s">
         <v>117</v>
       </c>
@@ -5069,10 +5073,10 @@
       <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A130" s="31"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="27"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="7" t="s">
         <v>13</v>
       </c>
@@ -5093,12 +5097,12 @@
       <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A131" s="31"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="31" t="s">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D131" s="27"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="7" t="s">
         <v>117</v>
       </c>
@@ -5119,10 +5123,10 @@
       <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A132" s="31"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="27"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="22"/>
       <c r="E132" s="7" t="s">
         <v>13</v>
       </c>
@@ -5143,14 +5147,14 @@
       <c r="O132" s="5"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31" t="s">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="27"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="7" t="s">
         <v>117</v>
       </c>
@@ -5171,10 +5175,10 @@
       <c r="O133" s="5"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="27"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="7" t="s">
         <v>13</v>
       </c>
@@ -5195,10 +5199,10 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="27"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="7" t="s">
         <v>18</v>
       </c>
@@ -5219,10 +5223,10 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="27"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="7" t="s">
         <v>125</v>
       </c>
@@ -5243,10 +5247,10 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A137" s="31"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="27"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="7" t="s">
         <v>143</v>
       </c>
@@ -5267,10 +5271,10 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="27"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="20" t="s">
         <v>245</v>
       </c>
@@ -5291,10 +5295,10 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="1:15" ht="33" x14ac:dyDescent="0.15">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="27"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="7" t="s">
         <v>144</v>
       </c>
@@ -5315,12 +5319,12 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31" t="s">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="7" t="s">
         <v>145</v>
       </c>
@@ -5341,10 +5345,10 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="27"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="7" t="s">
         <v>109</v>
       </c>
@@ -5365,12 +5369,12 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31" t="s">
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D142" s="27"/>
+      <c r="D142" s="22"/>
       <c r="E142" s="7" t="s">
         <v>146</v>
       </c>
@@ -5391,10 +5395,10 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="27"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="7" t="s">
         <v>113</v>
       </c>
@@ -5415,14 +5419,14 @@
       <c r="O143" s="5"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31" t="s">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="27"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="7" t="s">
         <v>117</v>
       </c>
@@ -5443,10 +5447,10 @@
       <c r="O144" s="5"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A145" s="31"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="27"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="7" t="s">
         <v>13</v>
       </c>
@@ -5467,10 +5471,10 @@
       <c r="O145" s="5"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="27"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="7" t="s">
         <v>151</v>
       </c>
@@ -5491,10 +5495,10 @@
       <c r="O146" s="5"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="27"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="7" t="s">
         <v>152</v>
       </c>
@@ -5515,10 +5519,10 @@
       <c r="O147" s="5"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="27"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="22"/>
       <c r="E148" s="7" t="s">
         <v>153</v>
       </c>
@@ -5539,10 +5543,10 @@
       <c r="O148" s="5"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="27"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="7" t="s">
         <v>154</v>
       </c>
@@ -5563,8 +5567,8 @@
       <c r="O149" s="5"/>
     </row>
     <row r="150" spans="1:15" ht="33" x14ac:dyDescent="0.15">
-      <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="5" t="s">
         <v>155</v>
       </c>
@@ -5589,14 +5593,14 @@
       <c r="O150" s="5"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31" t="s">
+      <c r="A151" s="23"/>
+      <c r="B151" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D151" s="27"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="7" t="s">
         <v>159</v>
       </c>
@@ -5617,10 +5621,10 @@
       <c r="O151" s="5"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="27"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="22"/>
       <c r="E152" s="20" t="s">
         <v>160</v>
       </c>
@@ -5643,10 +5647,10 @@
       <c r="O152" s="5"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="27"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="22"/>
       <c r="E153" s="20" t="s">
         <v>162</v>
       </c>
@@ -5667,10 +5671,10 @@
       <c r="O153" s="5"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="27"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="7" t="s">
         <v>163</v>
       </c>
@@ -5691,12 +5695,12 @@
       <c r="O154" s="5"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31" t="s">
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="27"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="7" t="s">
         <v>120</v>
       </c>
@@ -5717,10 +5721,10 @@
       <c r="O155" s="5"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A156" s="31"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="27"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="7" t="s">
         <v>165</v>
       </c>
@@ -5741,10 +5745,10 @@
       <c r="O156" s="5"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="29" t="s">
         <v>167</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -5771,8 +5775,8 @@
       <c r="O157" s="5"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
@@ -5795,8 +5799,8 @@
       <c r="O158" s="5"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A159" s="25"/>
-      <c r="B159" s="25"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
@@ -5819,8 +5823,8 @@
       <c r="O159" s="5"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
@@ -5843,8 +5847,8 @@
       <c r="O160" s="5"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A161" s="25"/>
-      <c r="B161" s="26"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
@@ -5867,8 +5871,8 @@
       <c r="O161" s="5"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A162" s="25"/>
-      <c r="B162" s="24" t="s">
+      <c r="A162" s="30"/>
+      <c r="B162" s="29" t="s">
         <v>170</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -5895,8 +5899,8 @@
       <c r="O162" s="5"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
       <c r="E163" s="20" t="s">
@@ -5919,8 +5923,8 @@
       <c r="O163" s="5"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
@@ -5943,8 +5947,8 @@
       <c r="O164" s="5"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A165" s="25"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
@@ -5967,8 +5971,8 @@
       <c r="O165" s="5"/>
     </row>
     <row r="166" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A166" s="25"/>
-      <c r="B166" s="26"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7" t="s">
@@ -5991,8 +5995,8 @@
       <c r="O166" s="5"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A167" s="25"/>
-      <c r="B167" s="24" t="s">
+      <c r="A167" s="30"/>
+      <c r="B167" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -6019,8 +6023,8 @@
       <c r="O167" s="5"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7" t="s">
@@ -6043,8 +6047,8 @@
       <c r="O168" s="5"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7" t="s">
@@ -6067,8 +6071,8 @@
       <c r="O169" s="5"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A170" s="25"/>
-      <c r="B170" s="26"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="31"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
@@ -6091,8 +6095,8 @@
       <c r="O170" s="5"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A171" s="25"/>
-      <c r="B171" s="28" t="s">
+      <c r="A171" s="30"/>
+      <c r="B171" s="32" t="s">
         <v>179</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -6117,8 +6121,8 @@
       <c r="O171" s="5"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A172" s="25"/>
-      <c r="B172" s="29"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="5" t="s">
         <v>181</v>
       </c>
@@ -6141,8 +6145,8 @@
       <c r="O172" s="5"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A173" s="26"/>
-      <c r="B173" s="30"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="34"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -6161,16 +6165,16 @@
       <c r="O173" s="5"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A174" s="24" t="s">
+      <c r="A174" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="21"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="7" t="s">
         <v>117</v>
       </c>
@@ -6191,10 +6195,10 @@
       <c r="O174" s="5"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="30"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="36"/>
       <c r="E175" s="7" t="s">
         <v>18</v>
       </c>
@@ -6215,10 +6219,10 @@
       <c r="O175" s="5"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="22"/>
+      <c r="A176" s="30"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="36"/>
       <c r="E176" s="7" t="s">
         <v>125</v>
       </c>
@@ -6239,10 +6243,10 @@
       <c r="O176" s="5"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="36"/>
       <c r="E177" s="7" t="s">
         <v>169</v>
       </c>
@@ -6263,10 +6267,10 @@
       <c r="O177" s="5"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="22"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="36"/>
       <c r="E178" s="7" t="s">
         <v>185</v>
       </c>
@@ -6287,10 +6291,10 @@
       <c r="O178" s="5"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="23"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="37"/>
       <c r="E179" s="7" t="s">
         <v>186</v>
       </c>
@@ -6311,12 +6315,12 @@
       <c r="O179" s="5"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="24" t="s">
+      <c r="A180" s="30"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D180" s="21"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="7" t="s">
         <v>117</v>
       </c>
@@ -6337,10 +6341,10 @@
       <c r="O180" s="5"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="22"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="7" t="s">
         <v>18</v>
       </c>
@@ -6361,10 +6365,10 @@
       <c r="O181" s="5"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="22"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="36"/>
       <c r="E182" s="7" t="s">
         <v>125</v>
       </c>
@@ -6385,10 +6389,10 @@
       <c r="O182" s="5"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="22"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="36"/>
       <c r="E183" s="7" t="s">
         <v>188</v>
       </c>
@@ -6409,10 +6413,10 @@
       <c r="O183" s="5"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="22"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="36"/>
       <c r="E184" s="7" t="s">
         <v>189</v>
       </c>
@@ -6433,10 +6437,10 @@
       <c r="O184" s="5"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="22"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="36"/>
       <c r="E185" s="7" t="s">
         <v>190</v>
       </c>
@@ -6457,10 +6461,10 @@
       <c r="O185" s="5"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="22"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="36"/>
       <c r="E186" s="7" t="s">
         <v>191</v>
       </c>
@@ -6481,10 +6485,10 @@
       <c r="O186" s="5"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="22"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="36"/>
       <c r="E187" s="7" t="s">
         <v>192</v>
       </c>
@@ -6505,10 +6509,10 @@
       <c r="O187" s="5"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="22"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="36"/>
       <c r="E188" s="7" t="s">
         <v>193</v>
       </c>
@@ -6529,10 +6533,10 @@
       <c r="O188" s="5"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="23"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="37"/>
       <c r="E189" s="7" t="s">
         <v>13</v>
       </c>
@@ -6553,12 +6557,12 @@
       <c r="O189" s="5"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="24" t="s">
+      <c r="A190" s="30"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D190" s="21"/>
+      <c r="D190" s="35"/>
       <c r="E190" s="7" t="s">
         <v>117</v>
       </c>
@@ -6579,10 +6583,10 @@
       <c r="O190" s="5"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A191" s="25"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="22"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="36"/>
       <c r="E191" s="7" t="s">
         <v>18</v>
       </c>
@@ -6603,10 +6607,10 @@
       <c r="O191" s="5"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="22"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="36"/>
       <c r="E192" s="7" t="s">
         <v>125</v>
       </c>
@@ -6627,10 +6631,10 @@
       <c r="O192" s="5"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="22"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="36"/>
       <c r="E193" s="7" t="s">
         <v>169</v>
       </c>
@@ -6651,10 +6655,10 @@
       <c r="O193" s="5"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A194" s="25"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="23"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="37"/>
       <c r="E194" s="7" t="s">
         <v>13</v>
       </c>
@@ -6675,12 +6679,12 @@
       <c r="O194" s="5"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="24" t="s">
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D195" s="21"/>
+      <c r="D195" s="35"/>
       <c r="E195" s="7" t="s">
         <v>117</v>
       </c>
@@ -6701,10 +6705,10 @@
       <c r="O195" s="5"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="30"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="36"/>
       <c r="E196" s="7" t="s">
         <v>18</v>
       </c>
@@ -6725,10 +6729,10 @@
       <c r="O196" s="5"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="36"/>
       <c r="E197" s="7" t="s">
         <v>125</v>
       </c>
@@ -6749,10 +6753,10 @@
       <c r="O197" s="5"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A198" s="25"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="36"/>
       <c r="E198" s="7" t="s">
         <v>169</v>
       </c>
@@ -6773,10 +6777,10 @@
       <c r="O198" s="5"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A199" s="25"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="23"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="37"/>
       <c r="E199" s="7" t="s">
         <v>13</v>
       </c>
@@ -6797,12 +6801,12 @@
       <c r="O199" s="5"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="24" t="s">
+      <c r="A200" s="30"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D200" s="21"/>
+      <c r="D200" s="35"/>
       <c r="E200" s="7" t="s">
         <v>117</v>
       </c>
@@ -6823,10 +6827,10 @@
       <c r="O200" s="5"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A201" s="25"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="36"/>
       <c r="E201" s="7" t="s">
         <v>18</v>
       </c>
@@ -6847,10 +6851,10 @@
       <c r="O201" s="5"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A202" s="25"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="30"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="36"/>
       <c r="E202" s="7" t="s">
         <v>125</v>
       </c>
@@ -6871,10 +6875,10 @@
       <c r="O202" s="5"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A203" s="25"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="36"/>
       <c r="E203" s="7" t="s">
         <v>169</v>
       </c>
@@ -6895,10 +6899,10 @@
       <c r="O203" s="5"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="23"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="37"/>
       <c r="E204" s="7" t="s">
         <v>13</v>
       </c>
@@ -6919,12 +6923,12 @@
       <c r="O204" s="5"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A205" s="25"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="24" t="s">
+      <c r="A205" s="30"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D205" s="21"/>
+      <c r="D205" s="35"/>
       <c r="E205" s="7" t="s">
         <v>117</v>
       </c>
@@ -6945,10 +6949,10 @@
       <c r="O205" s="5"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="36"/>
       <c r="E206" s="7" t="s">
         <v>18</v>
       </c>
@@ -6969,10 +6973,10 @@
       <c r="O206" s="5"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="36"/>
       <c r="E207" s="7" t="s">
         <v>125</v>
       </c>
@@ -6993,10 +6997,10 @@
       <c r="O207" s="5"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="36"/>
       <c r="E208" s="7" t="s">
         <v>169</v>
       </c>
@@ -7017,10 +7021,10 @@
       <c r="O208" s="5"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="23"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="37"/>
       <c r="E209" s="7" t="s">
         <v>13</v>
       </c>
@@ -7041,12 +7045,12 @@
       <c r="O209" s="5"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="24" t="s">
+      <c r="A210" s="30"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D210" s="21"/>
+      <c r="D210" s="35"/>
       <c r="E210" s="7" t="s">
         <v>117</v>
       </c>
@@ -7067,10 +7071,10 @@
       <c r="O210" s="5"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A211" s="25"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="22"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="36"/>
       <c r="E211" s="7" t="s">
         <v>18</v>
       </c>
@@ -7091,10 +7095,10 @@
       <c r="O211" s="5"/>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="22"/>
+      <c r="A212" s="30"/>
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="36"/>
       <c r="E212" s="7" t="s">
         <v>125</v>
       </c>
@@ -7115,10 +7119,10 @@
       <c r="O212" s="5"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A213" s="25"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="22"/>
+      <c r="A213" s="30"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="36"/>
       <c r="E213" s="7" t="s">
         <v>169</v>
       </c>
@@ -7139,10 +7143,10 @@
       <c r="O213" s="5"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="23"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="37"/>
       <c r="E214" s="7" t="s">
         <v>13</v>
       </c>
@@ -7163,12 +7167,12 @@
       <c r="O214" s="5"/>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="24" t="s">
+      <c r="A215" s="30"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D215" s="21"/>
+      <c r="D215" s="35"/>
       <c r="E215" s="7" t="s">
         <v>117</v>
       </c>
@@ -7189,10 +7193,10 @@
       <c r="O215" s="5"/>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="22"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="36"/>
       <c r="E216" s="7" t="s">
         <v>18</v>
       </c>
@@ -7213,10 +7217,10 @@
       <c r="O216" s="5"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="22"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="36"/>
       <c r="E217" s="7" t="s">
         <v>125</v>
       </c>
@@ -7237,10 +7241,10 @@
       <c r="O217" s="5"/>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="22"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="36"/>
       <c r="E218" s="7" t="s">
         <v>169</v>
       </c>
@@ -7261,10 +7265,10 @@
       <c r="O218" s="5"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A219" s="25"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="23"/>
+      <c r="A219" s="30"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="37"/>
       <c r="E219" s="7" t="s">
         <v>13</v>
       </c>
@@ -7285,7 +7289,7 @@
       <c r="O219" s="5"/>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A220" s="25"/>
+      <c r="A220" s="30"/>
       <c r="B220" s="5" t="s">
         <v>200</v>
       </c>
@@ -7297,17 +7301,19 @@
         <v>117</v>
       </c>
       <c r="F220" s="5"/>
-      <c r="G220" s="37">
-        <v>43439</v>
+      <c r="G220" s="21">
+        <v>43442</v>
       </c>
       <c r="H220" s="14">
         <v>2</v>
       </c>
       <c r="I220" s="17">
         <f t="shared" si="4"/>
-        <v>43440</v>
-      </c>
-      <c r="J220" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
@@ -7315,7 +7321,7 @@
       <c r="O220" s="5"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A221" s="25"/>
+      <c r="A221" s="30"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="7"/>
@@ -7323,17 +7329,19 @@
         <v>202</v>
       </c>
       <c r="F221" s="5"/>
-      <c r="G221" s="37">
-        <v>43439</v>
+      <c r="G221" s="21">
+        <v>43442</v>
       </c>
       <c r="H221" s="14">
         <v>3</v>
       </c>
       <c r="I221" s="17">
         <f t="shared" si="4"/>
-        <v>43441</v>
-      </c>
-      <c r="J221" s="5"/>
+        <v>43444</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
@@ -7341,7 +7349,7 @@
       <c r="O221" s="5"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A222" s="25"/>
+      <c r="A222" s="30"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="7"/>
@@ -7349,17 +7357,19 @@
         <v>177</v>
       </c>
       <c r="F222" s="5"/>
-      <c r="G222" s="37">
-        <v>43439</v>
+      <c r="G222" s="21">
+        <v>43442</v>
       </c>
       <c r="H222" s="14">
         <v>3</v>
       </c>
       <c r="I222" s="17">
         <f t="shared" si="4"/>
-        <v>43441</v>
-      </c>
-      <c r="J222" s="5"/>
+        <v>43444</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
@@ -7367,7 +7377,7 @@
       <c r="O222" s="5"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A223" s="25"/>
+      <c r="A223" s="30"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="7"/>
@@ -7375,15 +7385,19 @@
         <v>178</v>
       </c>
       <c r="F223" s="5"/>
-      <c r="G223" s="18"/>
+      <c r="G223" s="21">
+        <v>43442</v>
+      </c>
       <c r="H223" s="14">
         <v>2</v>
       </c>
       <c r="I223" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J223" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
@@ -7391,7 +7405,7 @@
       <c r="O223" s="5"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A224" s="25"/>
+      <c r="A224" s="30"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="7"/>
@@ -7399,15 +7413,19 @@
         <v>13</v>
       </c>
       <c r="F224" s="5"/>
-      <c r="G224" s="18"/>
+      <c r="G224" s="21">
+        <v>43442</v>
+      </c>
       <c r="H224" s="14">
         <v>3</v>
       </c>
       <c r="I224" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J224" s="5"/>
+        <v>43444</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
@@ -7415,21 +7433,25 @@
       <c r="O224" s="5"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A225" s="25"/>
+      <c r="A225" s="30"/>
       <c r="B225" s="5"/>
       <c r="E225" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F225" s="5"/>
-      <c r="G225" s="18"/>
+      <c r="G225" s="21">
+        <v>43442</v>
+      </c>
       <c r="H225" s="14">
         <v>2</v>
       </c>
       <c r="I225" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J225" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
@@ -7437,21 +7459,25 @@
       <c r="O225" s="5"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A226" s="25"/>
+      <c r="A226" s="30"/>
       <c r="B226" s="5"/>
       <c r="E226" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F226" s="5"/>
-      <c r="G226" s="18"/>
+      <c r="G226" s="21">
+        <v>43442</v>
+      </c>
       <c r="H226" s="14">
         <v>2</v>
       </c>
       <c r="I226" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J226" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
@@ -7459,21 +7485,25 @@
       <c r="O226" s="5"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A227" s="25"/>
+      <c r="A227" s="30"/>
       <c r="B227" s="5"/>
       <c r="E227" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F227" s="5"/>
-      <c r="G227" s="18"/>
+      <c r="G227" s="21">
+        <v>43442</v>
+      </c>
       <c r="H227" s="14">
         <v>2</v>
       </c>
       <c r="I227" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J227" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
@@ -7481,21 +7511,25 @@
       <c r="O227" s="5"/>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A228" s="25"/>
+      <c r="A228" s="30"/>
       <c r="B228" s="5"/>
       <c r="E228" s="7" t="s">
         <v>207</v>
       </c>
       <c r="F228" s="5"/>
-      <c r="G228" s="18"/>
+      <c r="G228" s="21">
+        <v>43442</v>
+      </c>
       <c r="H228" s="14">
         <v>2</v>
       </c>
       <c r="I228" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J228" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
@@ -7503,7 +7537,7 @@
       <c r="O228" s="5"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A229" s="25"/>
+      <c r="A229" s="30"/>
       <c r="B229" s="5"/>
       <c r="E229" s="20" t="s">
         <v>245</v>
@@ -7525,7 +7559,7 @@
       <c r="O229" s="5"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A230" s="25"/>
+      <c r="A230" s="30"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="7"/>
@@ -7533,15 +7567,19 @@
         <v>208</v>
       </c>
       <c r="F230" s="5"/>
-      <c r="G230" s="18"/>
+      <c r="G230" s="21">
+        <v>43442</v>
+      </c>
       <c r="H230" s="14">
         <v>2</v>
       </c>
       <c r="I230" s="17">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J230" s="5"/>
+        <v>43443</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
@@ -7549,7 +7587,7 @@
       <c r="O230" s="5"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A231" s="25"/>
+      <c r="A231" s="30"/>
       <c r="C231" s="5" t="s">
         <v>203</v>
       </c>
@@ -7567,7 +7605,7 @@
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A232" s="25"/>
+      <c r="A232" s="30"/>
       <c r="C232" s="5"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7" t="s">
@@ -7583,7 +7621,7 @@
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A233" s="25"/>
+      <c r="A233" s="30"/>
       <c r="C233" s="5"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7" t="s">
@@ -7598,7 +7636,7 @@
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A234" s="25"/>
+      <c r="A234" s="30"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="7"/>
@@ -7614,7 +7652,7 @@
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A235" s="25"/>
+      <c r="A235" s="30"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="7"/>
@@ -7630,7 +7668,7 @@
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A236" s="25"/>
+      <c r="A236" s="30"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="7"/>
@@ -7646,7 +7684,7 @@
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A237" s="25"/>
+      <c r="A237" s="30"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="7"/>
@@ -7662,7 +7700,7 @@
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A238" s="25"/>
+      <c r="A238" s="30"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="7"/>
@@ -7678,7 +7716,7 @@
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A239" s="25"/>
+      <c r="A239" s="30"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="7"/>
@@ -7694,7 +7732,7 @@
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A240" s="25"/>
+      <c r="A240" s="30"/>
       <c r="B240" s="5" t="s">
         <v>209</v>
       </c>
@@ -7714,7 +7752,7 @@
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A241" s="25"/>
+      <c r="A241" s="30"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
         <v>211</v>
@@ -7732,7 +7770,7 @@
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A242" s="25"/>
+      <c r="A242" s="30"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
         <v>209</v>
@@ -7750,7 +7788,7 @@
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A243" s="25"/>
+      <c r="A243" s="30"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="7"/>
@@ -7766,7 +7804,7 @@
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A244" s="25"/>
+      <c r="A244" s="30"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="7"/>
@@ -7782,7 +7820,7 @@
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A245" s="25"/>
+      <c r="A245" s="30"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="7"/>
@@ -7798,7 +7836,7 @@
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A246" s="25"/>
+      <c r="A246" s="30"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="7"/>
@@ -7814,7 +7852,7 @@
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A247" s="25"/>
+      <c r="A247" s="30"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="7"/>
@@ -7830,7 +7868,7 @@
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A248" s="25"/>
+      <c r="A248" s="30"/>
       <c r="B248" s="5" t="s">
         <v>213</v>
       </c>
@@ -7850,7 +7888,7 @@
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A249" s="25"/>
+      <c r="A249" s="30"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
         <v>215</v>
@@ -7868,7 +7906,7 @@
       </c>
     </row>
     <row r="250" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A250" s="25"/>
+      <c r="A250" s="30"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="7"/>
@@ -7884,7 +7922,7 @@
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A251" s="25"/>
+      <c r="A251" s="30"/>
       <c r="B251" s="5" t="s">
         <v>219</v>
       </c>
@@ -7904,7 +7942,7 @@
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A252" s="25"/>
+      <c r="A252" s="30"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="7"/>
@@ -7920,7 +7958,7 @@
       </c>
     </row>
     <row r="253" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="25"/>
+      <c r="A253" s="30"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="7"/>
@@ -7943,7 +7981,7 @@
       <c r="O253" s="5"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A254" s="25"/>
+      <c r="A254" s="30"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="7"/>
@@ -7966,7 +8004,7 @@
       <c r="O254" s="5"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A255" s="25"/>
+      <c r="A255" s="30"/>
       <c r="B255" s="5"/>
       <c r="C255" s="10" t="s">
         <v>161</v>
@@ -7992,7 +8030,7 @@
       <c r="O255" s="5"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A256" s="25"/>
+      <c r="A256" s="30"/>
       <c r="B256" s="5"/>
       <c r="C256" s="10" t="s">
         <v>127</v>
@@ -8018,7 +8056,7 @@
       <c r="O256" s="5"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A257" s="25"/>
+      <c r="A257" s="30"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5" t="s">
         <v>223</v>
@@ -8044,7 +8082,7 @@
       <c r="O257" s="5"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A258" s="25"/>
+      <c r="A258" s="30"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="7"/>
@@ -8068,7 +8106,7 @@
       <c r="O258" s="5"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A259" s="25"/>
+      <c r="A259" s="30"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="7"/>
@@ -8092,7 +8130,7 @@
       <c r="O259" s="5"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A260" s="25"/>
+      <c r="A260" s="30"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="7"/>
@@ -8116,7 +8154,7 @@
       <c r="O260" s="5"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A261" s="25"/>
+      <c r="A261" s="30"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="7"/>
@@ -8140,7 +8178,7 @@
       <c r="O261" s="5"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A262" s="25"/>
+      <c r="A262" s="30"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="7"/>
@@ -8164,7 +8202,7 @@
       <c r="O262" s="5"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A263" s="25"/>
+      <c r="A263" s="30"/>
       <c r="B263" s="5"/>
       <c r="C263" s="10" t="s">
         <v>127</v>
@@ -8190,7 +8228,7 @@
       <c r="O263" s="5"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A264" s="26"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="5"/>
       <c r="C264" s="10" t="s">
         <v>229</v>
@@ -15619,6 +15657,95 @@
   </sheetData>
   <autoFilter ref="B2:O12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="113">
+    <mergeCell ref="D215:D219"/>
+    <mergeCell ref="B174:B219"/>
+    <mergeCell ref="A174:A264"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="C180:C189"/>
+    <mergeCell ref="D180:D189"/>
+    <mergeCell ref="C190:C194"/>
+    <mergeCell ref="D190:D194"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="D195:D199"/>
+    <mergeCell ref="C200:C204"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="C205:C209"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="C215:C219"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="D151:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="A157:A173"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="A120:A156"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A88:A119"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A3:A87"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:C97"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D88:D97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
     <mergeCell ref="D26:D32"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -15643,95 +15770,6 @@
     <mergeCell ref="D81:D87"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D88:D97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A88:A119"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A3:A87"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:C97"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D151:D154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="A157:A173"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="A120:A156"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="D215:D219"/>
-    <mergeCell ref="B174:B219"/>
-    <mergeCell ref="A174:A264"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="C180:C189"/>
-    <mergeCell ref="D180:D189"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="D190:D194"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="D195:D199"/>
-    <mergeCell ref="C200:C204"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="C205:C209"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="C215:C219"/>
-    <mergeCell ref="D210:D214"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/营销管理平台开发计划.xlsx
+++ b/2.开发管理/营销管理平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\2.开发管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF276FC-EC60-4F54-880A-AE3C698565CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB11BE0-8D59-4101-8B31-B0D97BEE8B51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,36 +1122,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,31 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +1154,60 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,39 +1482,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P621"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H172" sqref="H172"/>
+      <pane ySplit="2" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="26" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="20" customWidth="1"/>
-    <col min="10" max="10" width="8" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="12" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1523,16 +1523,16 @@
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="11" t="s">
         <v>212</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1549,16 +1549,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1582,10 +1582,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1598,10 +1598,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1641,8 +1641,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="E7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="13" t="s">
         <v>216</v>
       </c>
       <c r="G7" s="5">
@@ -1670,11 +1670,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1683,7 +1683,7 @@
       <c r="E8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="13" t="s">
         <v>217</v>
       </c>
       <c r="G8" s="5">
@@ -1701,9 +1701,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1712,7 +1712,7 @@
       <c r="E9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="13" t="s">
         <v>217</v>
       </c>
       <c r="G9" s="5">
@@ -1730,9 +1730,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1741,7 +1741,7 @@
       <c r="E10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="13" t="s">
         <v>217</v>
       </c>
       <c r="G10" s="5">
@@ -1759,9 +1759,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1770,7 +1770,7 @@
       <c r="E11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5">
         <v>1</v>
       </c>
@@ -1786,9 +1786,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1797,7 +1797,7 @@
       <c r="E12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="5">
         <v>1</v>
       </c>
@@ -1813,9 +1813,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1824,7 +1824,7 @@
       <c r="E13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="5">
         <v>1</v>
       </c>
@@ -1840,11 +1840,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1853,7 +1853,7 @@
       <c r="E14" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <v>1</v>
       </c>
@@ -1869,9 +1869,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1880,7 +1880,7 @@
       <c r="E15" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="13" t="s">
         <v>220</v>
       </c>
       <c r="G15" s="5">
@@ -1898,9 +1898,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1909,7 +1909,7 @@
       <c r="E16" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="5">
         <v>1</v>
       </c>
@@ -1925,9 +1925,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1936,7 +1936,7 @@
       <c r="E17" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="5">
         <v>1</v>
       </c>
@@ -1952,9 +1952,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1963,7 +1963,7 @@
       <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="13" t="s">
         <v>221</v>
       </c>
       <c r="G18" s="5">
@@ -1981,9 +1981,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1992,7 +1992,7 @@
       <c r="E19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="13" t="s">
         <v>221</v>
       </c>
       <c r="G19" s="5">
@@ -2010,18 +2010,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="5">
@@ -2039,14 +2039,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="5">
         <v>1</v>
       </c>
@@ -2062,14 +2062,14 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="5">
@@ -2087,14 +2087,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="35" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="5"/>
@@ -2110,14 +2110,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="5">
@@ -2135,14 +2135,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="5">
@@ -2160,14 +2160,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="13" t="s">
         <v>223</v>
       </c>
       <c r="G26" s="5"/>
@@ -2183,14 +2183,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
         <v>1</v>
@@ -2204,22 +2204,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="26" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5">
         <v>0.5</v>
@@ -2231,14 +2231,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="13" t="s">
         <v>225</v>
       </c>
       <c r="G29" s="5">
@@ -2256,14 +2256,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="5">
         <v>1</v>
       </c>
@@ -2279,14 +2279,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="5">
         <v>1</v>
       </c>
@@ -2302,14 +2302,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="5">
         <v>1</v>
       </c>
@@ -2325,14 +2325,14 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5">
         <v>2</v>
@@ -2346,14 +2346,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G34" s="5"/>
@@ -2369,14 +2369,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="35" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="5">
@@ -2394,37 +2394,37 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="35" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="5">
         <v>7</v>
       </c>
       <c r="H36" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I36" s="5">
         <v>7</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="5">
@@ -2442,14 +2442,14 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="7" t="s">
         <v>76</v>
       </c>
@@ -2471,14 +2471,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="5">
@@ -2496,14 +2496,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="5">
         <v>1</v>
       </c>
@@ -2519,16 +2519,16 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="28" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5">
         <v>1</v>
       </c>
@@ -2544,14 +2544,14 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G42" s="5">
@@ -2569,18 +2569,18 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="5">
         <v>1</v>
       </c>
@@ -2596,14 +2596,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="5">
         <v>1</v>
       </c>
@@ -2619,18 +2619,18 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="5">
         <v>1</v>
       </c>
@@ -2646,14 +2646,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="5">
         <v>1</v>
       </c>
@@ -2669,16 +2669,16 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="5">
         <v>1</v>
       </c>
@@ -2694,14 +2694,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="5">
         <v>1</v>
       </c>
@@ -2717,16 +2717,16 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="5">
         <v>1</v>
       </c>
@@ -2742,14 +2742,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="27"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="5">
         <v>1</v>
       </c>
@@ -2765,18 +2765,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="27"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="5">
         <v>1</v>
       </c>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="27"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5">
         <v>1</v>
       </c>
@@ -2817,18 +2817,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="13" t="s">
         <v>227</v>
       </c>
       <c r="G53" s="5">
@@ -2846,14 +2846,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="13" t="s">
         <v>228</v>
       </c>
       <c r="G54" s="5">
@@ -2871,18 +2871,18 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="13" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="5">
         <v>3</v>
       </c>
@@ -2898,20 +2898,20 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="5">
         <v>1</v>
       </c>
@@ -2927,16 +2927,16 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="27" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="5">
         <v>1</v>
       </c>
@@ -2952,18 +2952,18 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="5">
         <v>1</v>
       </c>
@@ -2979,14 +2979,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="35" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="5">
         <v>1</v>
       </c>
@@ -3002,14 +3002,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="5">
         <v>1</v>
       </c>
@@ -3025,16 +3025,16 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="28" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5">
         <v>1</v>
       </c>
@@ -3050,14 +3050,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="27"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="5">
         <v>1</v>
       </c>
@@ -3073,16 +3073,16 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="16"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="5">
         <v>2</v>
       </c>
@@ -3098,14 +3098,14 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="5">
         <v>1</v>
       </c>
@@ -3121,18 +3121,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="16"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
         <v>2</v>
@@ -3146,14 +3146,14 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5">
         <v>2</v>
@@ -3167,14 +3167,14 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="16"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="5">
         <v>1</v>
       </c>
@@ -3190,14 +3190,14 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
         <v>2</v>
@@ -3211,14 +3211,14 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -3228,37 +3228,37 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="35" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="5">
         <v>3</v>
       </c>
       <c r="H70" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I70" s="5">
         <v>3</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="5">
         <v>2</v>
       </c>
@@ -3274,16 +3274,16 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="28" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="16"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="5">
         <v>1</v>
       </c>
@@ -3299,14 +3299,14 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="5">
         <v>1</v>
       </c>
@@ -3322,16 +3322,16 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="28" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="16"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="27"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="5">
         <v>1</v>
       </c>
@@ -3347,14 +3347,14 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="27"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="5">
         <v>1</v>
       </c>
@@ -3370,18 +3370,18 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D76" s="16"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="27"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5">
         <v>1</v>
       </c>
@@ -3397,14 +3397,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="27"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -3414,14 +3414,14 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="16"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="27"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="5">
         <v>1</v>
       </c>
@@ -3437,14 +3437,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F79" s="27"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="5">
         <v>1</v>
       </c>
@@ -3460,14 +3460,14 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F80" s="27"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="5">
         <v>1</v>
       </c>
@@ -3483,14 +3483,14 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="27"/>
+      <c r="F81" s="13"/>
       <c r="G81" s="5">
         <v>1</v>
       </c>
@@ -3506,16 +3506,16 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="27" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="27"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="5">
         <v>1</v>
       </c>
@@ -3531,18 +3531,18 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="16"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="5">
         <v>1</v>
       </c>
@@ -3558,14 +3558,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="35" t="s">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="13" t="s">
         <v>130</v>
       </c>
       <c r="G84" s="5">
@@ -3583,14 +3583,14 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="35" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="27"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="5">
         <v>1</v>
       </c>
@@ -3606,14 +3606,14 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="16"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="27"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="5">
         <v>1</v>
       </c>
@@ -3629,16 +3629,16 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="28" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="16"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="27"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="5">
         <v>1</v>
       </c>
@@ -3654,14 +3654,14 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="16"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="5">
         <v>2</v>
       </c>
@@ -3677,20 +3677,20 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="27"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="5">
         <v>1</v>
       </c>
@@ -3706,18 +3706,18 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="29"/>
+      <c r="B90" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="5">
         <v>1</v>
       </c>
@@ -3733,14 +3733,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="27"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="5">
         <v>1</v>
       </c>
@@ -3756,14 +3756,14 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="27"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="27"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="5">
         <v>4</v>
       </c>
@@ -3779,14 +3779,14 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="27"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F93" s="27"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="5">
         <v>2</v>
       </c>
@@ -3802,14 +3802,14 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="27"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F94" s="27"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="5">
         <v>2</v>
       </c>
@@ -3825,18 +3825,18 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="29"/>
+      <c r="B95" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F95" s="27"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="5">
         <v>1</v>
       </c>
@@ -3852,14 +3852,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="27"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="27"/>
+      <c r="F96" s="13"/>
       <c r="G96" s="5">
         <v>1</v>
       </c>
@@ -3875,14 +3875,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="27"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F97" s="27"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="5">
         <v>1</v>
       </c>
@@ -3898,14 +3898,14 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="27"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="5">
         <v>1</v>
       </c>
@@ -3921,16 +3921,16 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="29"/>
+      <c r="B99" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="27"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="5">
         <v>1</v>
       </c>
@@ -3946,14 +3946,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="11"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="27" t="s">
+      <c r="A100" s="29"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="13" t="s">
         <v>148</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="27"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="5">
         <v>2</v>
       </c>
@@ -3969,20 +3969,20 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="37"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="5">
         <v>4</v>
       </c>
@@ -3998,16 +3998,16 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="23"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F102" s="27"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5">
         <v>2</v>
@@ -4019,14 +4019,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="24"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="13"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5">
         <v>2</v>
@@ -4038,14 +4038,14 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="24"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="F104" s="13"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
         <v>2</v>
@@ -4057,14 +4057,14 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="24"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F105" s="27"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -4074,14 +4074,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F106" s="27"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -4091,14 +4091,14 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="24"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F107" s="27"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5">
         <v>2</v>
@@ -4110,14 +4110,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="24"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F108" s="27"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -4127,14 +4127,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="24"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="27"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -4144,14 +4144,14 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="24"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5">
         <v>2</v>
@@ -4163,14 +4163,14 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="25"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="27"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5">
         <v>2</v>
@@ -4182,16 +4182,16 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="36" t="s">
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="37"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F112" s="27"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="5">
         <v>1</v>
       </c>
@@ -4207,16 +4207,16 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="36" t="s">
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="27"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="5">
         <v>1</v>
       </c>
@@ -4232,16 +4232,16 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="36" t="s">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="37"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F114" s="27"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="5">
         <v>1</v>
       </c>
@@ -4257,16 +4257,16 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="36" t="s">
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D115" s="37"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F115" s="27"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="5">
         <v>1</v>
       </c>
@@ -4282,16 +4282,16 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="36" t="s">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D116" s="37"/>
+      <c r="D116" s="19"/>
       <c r="E116" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F116" s="27"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="5">
         <v>1</v>
       </c>
@@ -4307,16 +4307,16 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="36" t="s">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D117" s="37"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F117" s="27"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="5">
         <v>1</v>
       </c>
@@ -4332,18 +4332,18 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="11"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="13" t="s">
         <v>166</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F118" s="27"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="5">
         <v>1</v>
       </c>
@@ -4359,14 +4359,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="11"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F119" s="27"/>
+      <c r="F119" s="13"/>
       <c r="G119" s="5">
         <v>3</v>
       </c>
@@ -4382,14 +4382,14 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="11"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="27"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="5">
         <v>1</v>
       </c>
@@ -4405,14 +4405,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="11"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="27"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F121" s="27"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="5">
         <v>1</v>
       </c>
@@ -4428,14 +4428,14 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="11"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="27"/>
+      <c r="C122" s="13"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="27"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="5">
         <v>1</v>
       </c>
@@ -4451,12 +4451,12 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="11"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="2"/>
       <c r="E123" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F123" s="27"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="5">
         <v>1</v>
       </c>
@@ -4472,12 +4472,12 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="11"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="2"/>
       <c r="E124" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F124" s="27"/>
+      <c r="F124" s="13"/>
       <c r="G124" s="5">
         <v>1</v>
       </c>
@@ -4493,12 +4493,12 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="11"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="2"/>
       <c r="E125" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="27"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="5">
         <v>1</v>
       </c>
@@ -4514,12 +4514,12 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="11"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="2"/>
       <c r="E126" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="27"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="5">
         <v>1</v>
       </c>
@@ -4535,65 +4535,65 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="11"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="2"/>
-      <c r="E127" s="35" t="s">
+      <c r="E127" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F127" s="27"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="5">
         <v>3</v>
       </c>
       <c r="H127" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I127" s="5">
         <v>7</v>
       </c>
       <c r="J127" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="11"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="27"/>
+      <c r="C128" s="13"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F128" s="27"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="5">
         <v>1</v>
       </c>
       <c r="H128" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
       </c>
       <c r="J128" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="11"/>
-      <c r="C129" s="27" t="s">
+      <c r="A129" s="29"/>
+      <c r="C129" s="13" t="s">
         <v>168</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G129" s="20">
-        <v>1</v>
-      </c>
-      <c r="H129" s="20">
-        <v>2</v>
-      </c>
-      <c r="I129" s="20">
+      <c r="G129" s="10">
+        <v>1</v>
+      </c>
+      <c r="H129" s="10">
+        <v>2</v>
+      </c>
+      <c r="I129" s="10">
         <v>1</v>
       </c>
       <c r="J129" s="6">
@@ -4602,19 +4602,19 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="11"/>
-      <c r="C130" s="27"/>
+      <c r="A130" s="29"/>
+      <c r="C130" s="13"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G130" s="20">
-        <v>2</v>
-      </c>
-      <c r="H130" s="20">
+      <c r="G130" s="10">
+        <v>2</v>
+      </c>
+      <c r="H130" s="10">
         <v>4</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="10">
         <v>2</v>
       </c>
       <c r="J130" s="6">
@@ -4623,19 +4623,19 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="11"/>
-      <c r="C131" s="27"/>
+      <c r="A131" s="29"/>
+      <c r="C131" s="13"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G131" s="20">
-        <v>1</v>
-      </c>
-      <c r="H131" s="20">
-        <v>2</v>
-      </c>
-      <c r="I131" s="20">
+      <c r="G131" s="10">
+        <v>1</v>
+      </c>
+      <c r="H131" s="10">
+        <v>2</v>
+      </c>
+      <c r="I131" s="10">
         <v>1</v>
       </c>
       <c r="J131" s="6">
@@ -4644,20 +4644,20 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="11"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="27"/>
+      <c r="C132" s="13"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G132" s="20">
-        <v>1</v>
-      </c>
-      <c r="H132" s="20">
-        <v>2</v>
-      </c>
-      <c r="I132" s="20">
+      <c r="G132" s="10">
+        <v>1</v>
+      </c>
+      <c r="H132" s="10">
+        <v>2</v>
+      </c>
+      <c r="I132" s="10">
         <v>1</v>
       </c>
       <c r="J132" s="6">
@@ -4666,20 +4666,20 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="11"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="27"/>
+      <c r="C133" s="13"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G133" s="20">
-        <v>1</v>
-      </c>
-      <c r="H133" s="20">
-        <v>2</v>
-      </c>
-      <c r="I133" s="20">
+      <c r="G133" s="10">
+        <v>1</v>
+      </c>
+      <c r="H133" s="10">
+        <v>2</v>
+      </c>
+      <c r="I133" s="10">
         <v>1</v>
       </c>
       <c r="J133" s="6">
@@ -4688,20 +4688,20 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="11"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="27"/>
+      <c r="C134" s="13"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G134" s="20">
-        <v>1</v>
-      </c>
-      <c r="H134" s="20">
-        <v>2</v>
-      </c>
-      <c r="I134" s="20">
+      <c r="G134" s="10">
+        <v>1</v>
+      </c>
+      <c r="H134" s="10">
+        <v>2</v>
+      </c>
+      <c r="I134" s="10">
         <v>1</v>
       </c>
       <c r="J134" s="6">
@@ -4710,20 +4710,20 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="11"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="27"/>
+      <c r="C135" s="13"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="20">
-        <v>1</v>
-      </c>
-      <c r="H135" s="20">
-        <v>2</v>
-      </c>
-      <c r="I135" s="20">
+      <c r="G135" s="10">
+        <v>1</v>
+      </c>
+      <c r="H135" s="10">
+        <v>2</v>
+      </c>
+      <c r="I135" s="10">
         <v>1</v>
       </c>
       <c r="J135" s="6">
@@ -4732,20 +4732,20 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="11"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="27"/>
+      <c r="C136" s="13"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="20">
-        <v>1</v>
-      </c>
-      <c r="H136" s="20">
-        <v>2</v>
-      </c>
-      <c r="I136" s="20">
+      <c r="G136" s="10">
+        <v>1</v>
+      </c>
+      <c r="H136" s="10">
+        <v>2</v>
+      </c>
+      <c r="I136" s="10">
         <v>1</v>
       </c>
       <c r="J136" s="6">
@@ -4754,46 +4754,46 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="11"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="27"/>
+      <c r="C137" s="13"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G137" s="20">
-        <v>1</v>
-      </c>
-      <c r="H137" s="20">
-        <v>2</v>
-      </c>
-      <c r="I137" s="20">
+      <c r="G137" s="10">
+        <v>1</v>
+      </c>
+      <c r="H137" s="10">
+        <v>4</v>
+      </c>
+      <c r="I137" s="10">
         <v>1</v>
       </c>
       <c r="J137" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="11"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G138" s="20">
-        <v>1</v>
-      </c>
-      <c r="H138" s="20">
-        <v>2</v>
-      </c>
-      <c r="I138" s="20">
+      <c r="G138" s="10">
+        <v>1</v>
+      </c>
+      <c r="H138" s="10">
+        <v>2</v>
+      </c>
+      <c r="I138" s="10">
         <v>1</v>
       </c>
       <c r="J138" s="6">
@@ -4802,22 +4802,22 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="11"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="20">
-        <v>1</v>
-      </c>
-      <c r="H139" s="20">
-        <v>2</v>
-      </c>
-      <c r="I139" s="20">
+      <c r="G139" s="10">
+        <v>1</v>
+      </c>
+      <c r="H139" s="10">
+        <v>2</v>
+      </c>
+      <c r="I139" s="10">
         <v>1</v>
       </c>
       <c r="J139" s="6">
@@ -4826,22 +4826,22 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="11"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="13" t="s">
         <v>174</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="20">
-        <v>1</v>
-      </c>
-      <c r="H140" s="20">
-        <v>2</v>
-      </c>
-      <c r="I140" s="20">
+      <c r="G140" s="10">
+        <v>1</v>
+      </c>
+      <c r="H140" s="10">
+        <v>2</v>
+      </c>
+      <c r="I140" s="10">
         <v>1</v>
       </c>
       <c r="J140" s="6">
@@ -4850,20 +4850,20 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="11"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="27"/>
+      <c r="C141" s="13"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G141" s="20">
-        <v>1</v>
-      </c>
-      <c r="H141" s="20">
-        <v>2</v>
-      </c>
-      <c r="I141" s="20">
+      <c r="G141" s="10">
+        <v>1</v>
+      </c>
+      <c r="H141" s="10">
+        <v>2</v>
+      </c>
+      <c r="I141" s="10">
         <v>1</v>
       </c>
       <c r="J141" s="6">
@@ -4872,20 +4872,20 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="11"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="27"/>
+      <c r="C142" s="13"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G142" s="20">
-        <v>1</v>
-      </c>
-      <c r="H142" s="20">
-        <v>2</v>
-      </c>
-      <c r="I142" s="20">
+      <c r="G142" s="10">
+        <v>1</v>
+      </c>
+      <c r="H142" s="10">
+        <v>2</v>
+      </c>
+      <c r="I142" s="10">
         <v>1</v>
       </c>
       <c r="J142" s="6">
@@ -4894,20 +4894,20 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="11"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="27"/>
+      <c r="C143" s="13"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G143" s="20">
-        <v>1</v>
-      </c>
-      <c r="H143" s="20">
-        <v>2</v>
-      </c>
-      <c r="I143" s="20">
+      <c r="G143" s="10">
+        <v>1</v>
+      </c>
+      <c r="H143" s="10">
+        <v>2</v>
+      </c>
+      <c r="I143" s="10">
         <v>1</v>
       </c>
       <c r="J143" s="6">
@@ -4916,20 +4916,20 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="11"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="27"/>
+      <c r="C144" s="13"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G144" s="20">
-        <v>1</v>
-      </c>
-      <c r="H144" s="20">
-        <v>2</v>
-      </c>
-      <c r="I144" s="20">
+      <c r="G144" s="10">
+        <v>1</v>
+      </c>
+      <c r="H144" s="10">
+        <v>2</v>
+      </c>
+      <c r="I144" s="10">
         <v>1</v>
       </c>
       <c r="J144" s="6">
@@ -4938,46 +4938,46 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="11"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="27"/>
+      <c r="C145" s="13"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G145" s="20">
-        <v>1</v>
-      </c>
-      <c r="H145" s="20">
-        <v>2</v>
-      </c>
-      <c r="I145" s="20">
+      <c r="G145" s="10">
+        <v>1</v>
+      </c>
+      <c r="H145" s="10">
+        <v>4</v>
+      </c>
+      <c r="I145" s="10">
         <v>1</v>
       </c>
       <c r="J145" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="11"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="13" t="s">
         <v>179</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G146" s="20">
-        <v>1</v>
-      </c>
-      <c r="H146" s="20">
-        <v>2</v>
-      </c>
-      <c r="I146" s="20">
+      <c r="G146" s="10">
+        <v>1</v>
+      </c>
+      <c r="H146" s="10">
+        <v>2</v>
+      </c>
+      <c r="I146" s="10">
         <v>1</v>
       </c>
       <c r="J146" s="6">
@@ -4986,22 +4986,22 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="11"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="13" t="s">
         <v>180</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G147" s="20">
-        <v>1</v>
-      </c>
-      <c r="H147" s="20">
-        <v>2</v>
-      </c>
-      <c r="I147" s="20">
+      <c r="G147" s="10">
+        <v>1</v>
+      </c>
+      <c r="H147" s="10">
+        <v>2</v>
+      </c>
+      <c r="I147" s="10">
         <v>1</v>
       </c>
       <c r="J147" s="6">
@@ -5010,20 +5010,20 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="11"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="27"/>
+      <c r="C148" s="13"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G148" s="20">
-        <v>2</v>
-      </c>
-      <c r="H148" s="20">
+      <c r="G148" s="10">
+        <v>2</v>
+      </c>
+      <c r="H148" s="10">
         <v>4</v>
       </c>
-      <c r="I148" s="20">
+      <c r="I148" s="10">
         <v>2</v>
       </c>
       <c r="J148" s="6">
@@ -5032,24 +5032,24 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="11"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="13" t="s">
         <v>185</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G149" s="20">
-        <v>1</v>
-      </c>
-      <c r="H149" s="20">
+      <c r="G149" s="10">
+        <v>1</v>
+      </c>
+      <c r="H149" s="10">
         <v>3</v>
       </c>
-      <c r="I149" s="20">
+      <c r="I149" s="10">
         <v>1</v>
       </c>
       <c r="J149" s="6">
@@ -5058,20 +5058,20 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="11"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="27"/>
+      <c r="C150" s="13"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G150" s="20">
+      <c r="G150" s="10">
         <v>11</v>
       </c>
-      <c r="H150" s="20">
-        <v>2</v>
-      </c>
-      <c r="I150" s="20">
+      <c r="H150" s="10">
+        <v>2</v>
+      </c>
+      <c r="I150" s="10">
         <v>1</v>
       </c>
       <c r="J150" s="6">
@@ -5080,14 +5080,14 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="11"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="27"/>
+      <c r="C151" s="13"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F151" s="27"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="5">
         <v>2</v>
       </c>
@@ -5103,14 +5103,14 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="11"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="27"/>
+      <c r="C152" s="13"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F152" s="27"/>
+      <c r="F152" s="13"/>
       <c r="G152" s="5">
         <v>2</v>
       </c>
@@ -5126,16 +5126,16 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="11"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E153" s="8"/>
-      <c r="F153" s="27"/>
+      <c r="F153" s="13"/>
       <c r="G153" s="5">
         <v>3</v>
       </c>
@@ -5151,16 +5151,16 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="11"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="33" t="s">
+      <c r="C154" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>198</v>
       </c>
       <c r="E154" s="8"/>
-      <c r="F154" s="27"/>
+      <c r="F154" s="13"/>
       <c r="G154" s="5">
         <v>3</v>
       </c>
@@ -5176,16 +5176,16 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="11"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="13" t="s">
         <v>188</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F155" s="27"/>
+      <c r="F155" s="13"/>
       <c r="G155" s="5">
         <v>1</v>
       </c>
@@ -5201,14 +5201,14 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="11"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="27"/>
+      <c r="C156" s="13"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F156" s="27"/>
+      <c r="F156" s="13"/>
       <c r="G156" s="5">
         <v>3</v>
       </c>
@@ -5224,14 +5224,14 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="11"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="27"/>
+      <c r="C157" s="13"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F157" s="27"/>
+      <c r="F157" s="13"/>
       <c r="G157" s="5">
         <v>1</v>
       </c>
@@ -5247,14 +5247,14 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="11"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="27"/>
+      <c r="C158" s="13"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F158" s="27"/>
+      <c r="F158" s="13"/>
       <c r="G158" s="5">
         <v>1</v>
       </c>
@@ -5270,14 +5270,14 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="11"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="27"/>
+      <c r="C159" s="13"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F159" s="27"/>
+      <c r="F159" s="13"/>
       <c r="G159" s="5">
         <v>1</v>
       </c>
@@ -5293,14 +5293,14 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="11"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="27"/>
+      <c r="C160" s="13"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F160" s="27"/>
+      <c r="F160" s="13"/>
       <c r="G160" s="5">
         <v>1</v>
       </c>
@@ -5316,16 +5316,16 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="11"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E161" s="8"/>
-      <c r="F161" s="27"/>
+      <c r="F161" s="13"/>
       <c r="G161" s="5">
         <v>1</v>
       </c>
@@ -5341,16 +5341,16 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="12"/>
+      <c r="A162" s="30"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="33" t="s">
+      <c r="C162" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>196</v>
       </c>
       <c r="E162" s="8"/>
-      <c r="F162" s="27"/>
+      <c r="F162" s="13"/>
       <c r="G162" s="5">
         <v>1</v>
       </c>
@@ -5372,14 +5372,14 @@
       <c r="B163" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="34" t="s">
+      <c r="C163" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F163" s="27"/>
+      <c r="F163" s="13"/>
       <c r="G163" s="5">
         <v>1</v>
       </c>
@@ -5396,12 +5396,12 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B164" s="2"/>
-      <c r="C164" s="27"/>
+      <c r="C164" s="13"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F164" s="27"/>
+      <c r="F164" s="13"/>
       <c r="G164" s="5">
         <v>2</v>
       </c>
@@ -5418,12 +5418,12 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B165" s="2"/>
-      <c r="C165" s="27"/>
+      <c r="C165" s="13"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F165" s="27"/>
+      <c r="F165" s="13"/>
       <c r="G165" s="5">
         <v>2</v>
       </c>
@@ -5440,12 +5440,12 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B166" s="2"/>
-      <c r="C166" s="27"/>
+      <c r="C166" s="13"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F166" s="27"/>
+      <c r="F166" s="13"/>
       <c r="G166" s="5">
         <v>2</v>
       </c>
@@ -5462,12 +5462,12 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B167" s="2"/>
-      <c r="C167" s="27"/>
+      <c r="C167" s="13"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F167" s="27"/>
+      <c r="F167" s="13"/>
       <c r="G167" s="5">
         <v>1</v>
       </c>
@@ -5486,12 +5486,12 @@
       <c r="B168" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="27"/>
+      <c r="F168" s="13"/>
       <c r="G168" s="5">
         <v>6</v>
       </c>
@@ -5508,33 +5508,33 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B169" s="2"/>
-      <c r="C169" s="27"/>
+      <c r="C169" s="13"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="38">
+      <c r="F169" s="13"/>
+      <c r="G169" s="20">
         <f t="shared" ref="G169:I169" si="3">SUM(G3:G168)</f>
         <v>208</v>
       </c>
-      <c r="H169" s="38">
+      <c r="H169" s="20">
         <f t="shared" si="3"/>
-        <v>382.75</v>
-      </c>
-      <c r="I169" s="38">
+        <v>407.75</v>
+      </c>
+      <c r="I169" s="20">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="J169" s="38">
+      <c r="J169" s="20">
         <f>SUM(J3:J168)</f>
-        <v>814.5</v>
+        <v>839.5</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B170" s="2"/>
-      <c r="C170" s="27"/>
+      <c r="C170" s="13"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="27"/>
+      <c r="F170" s="13"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B171" s="2"/>
-      <c r="C171" s="27"/>
+      <c r="C171" s="13"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="27"/>
+      <c r="F171" s="13"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B172" s="2"/>
-      <c r="C172" s="27"/>
+      <c r="C172" s="13"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="27"/>
+      <c r="F172" s="13"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B173" s="2"/>
-      <c r="C173" s="27"/>
+      <c r="C173" s="13"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="27"/>
+      <c r="F173" s="13"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B174" s="2"/>
-      <c r="C174" s="27"/>
+      <c r="C174" s="13"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="27"/>
+      <c r="F174" s="13"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -5586,10 +5586,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B175" s="2"/>
-      <c r="C175" s="27"/>
+      <c r="C175" s="13"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="27"/>
+      <c r="F175" s="13"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B176" s="2"/>
-      <c r="C176" s="27"/>
+      <c r="C176" s="13"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="27"/>
+      <c r="F176" s="13"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="2"/>
-      <c r="C177" s="27"/>
+      <c r="C177" s="13"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="27"/>
+      <c r="F177" s="13"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="2"/>
-      <c r="C178" s="27"/>
+      <c r="C178" s="13"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
-      <c r="F178" s="27"/>
+      <c r="F178" s="13"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="2"/>
-      <c r="C179" s="27"/>
+      <c r="C179" s="13"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="27"/>
+      <c r="F179" s="13"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="2"/>
-      <c r="C180" s="27"/>
+      <c r="C180" s="13"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="27"/>
+      <c r="F180" s="13"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="2"/>
-      <c r="C181" s="27"/>
+      <c r="C181" s="13"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="27"/>
+      <c r="F181" s="13"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="2"/>
-      <c r="C182" s="27"/>
+      <c r="C182" s="13"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="27"/>
+      <c r="F182" s="13"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -5674,10 +5674,10 @@
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="2"/>
-      <c r="C183" s="27"/>
+      <c r="C183" s="13"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="27"/>
+      <c r="F183" s="13"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B184" s="2"/>
-      <c r="C184" s="27"/>
+      <c r="C184" s="13"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="27"/>
+      <c r="F184" s="13"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B185" s="2"/>
-      <c r="C185" s="27"/>
+      <c r="C185" s="13"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="27"/>
+      <c r="F185" s="13"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B186" s="2"/>
-      <c r="C186" s="27"/>
+      <c r="C186" s="13"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="27"/>
+      <c r="F186" s="13"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B187" s="2"/>
-      <c r="C187" s="27"/>
+      <c r="C187" s="13"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="27"/>
+      <c r="F187" s="13"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B188" s="2"/>
-      <c r="C188" s="27"/>
+      <c r="C188" s="13"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="27"/>
+      <c r="F188" s="13"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B189" s="2"/>
-      <c r="C189" s="27"/>
+      <c r="C189" s="13"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="27"/>
+      <c r="F189" s="13"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B190" s="2"/>
-      <c r="C190" s="27"/>
+      <c r="C190" s="13"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
-      <c r="F190" s="27"/>
+      <c r="F190" s="13"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
@@ -5762,10 +5762,10 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B191" s="2"/>
-      <c r="C191" s="27"/>
+      <c r="C191" s="13"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="27"/>
+      <c r="F191" s="13"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -5773,10 +5773,10 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B192" s="2"/>
-      <c r="C192" s="27"/>
+      <c r="C192" s="13"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
-      <c r="F192" s="27"/>
+      <c r="F192" s="13"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B193" s="2"/>
-      <c r="C193" s="27"/>
+      <c r="C193" s="13"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
-      <c r="F193" s="27"/>
+      <c r="F193" s="13"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
@@ -5795,10 +5795,10 @@
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B194" s="2"/>
-      <c r="C194" s="27"/>
+      <c r="C194" s="13"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-      <c r="F194" s="27"/>
+      <c r="F194" s="13"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="2"/>
-      <c r="C195" s="27"/>
+      <c r="C195" s="13"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
-      <c r="F195" s="27"/>
+      <c r="F195" s="13"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5817,10 +5817,10 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B196" s="2"/>
-      <c r="C196" s="27"/>
+      <c r="C196" s="13"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
-      <c r="F196" s="27"/>
+      <c r="F196" s="13"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
@@ -5828,10 +5828,10 @@
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B197" s="2"/>
-      <c r="C197" s="27"/>
+      <c r="C197" s="13"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
-      <c r="F197" s="27"/>
+      <c r="F197" s="13"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B198" s="2"/>
-      <c r="C198" s="27"/>
+      <c r="C198" s="13"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
-      <c r="F198" s="27"/>
+      <c r="F198" s="13"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B199" s="2"/>
-      <c r="C199" s="27"/>
+      <c r="C199" s="13"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
-      <c r="F199" s="27"/>
+      <c r="F199" s="13"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B200" s="2"/>
-      <c r="C200" s="27"/>
+      <c r="C200" s="13"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="27"/>
+      <c r="F200" s="13"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
@@ -5872,10 +5872,10 @@
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B201" s="2"/>
-      <c r="C201" s="27"/>
+      <c r="C201" s="13"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="27"/>
+      <c r="F201" s="13"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B202" s="2"/>
-      <c r="C202" s="27"/>
+      <c r="C202" s="13"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="27"/>
+      <c r="F202" s="13"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -5894,10 +5894,10 @@
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B203" s="2"/>
-      <c r="C203" s="27"/>
+      <c r="C203" s="13"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="27"/>
+      <c r="F203" s="13"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B204" s="2"/>
-      <c r="C204" s="27"/>
+      <c r="C204" s="13"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
-      <c r="F204" s="27"/>
+      <c r="F204" s="13"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -5916,10 +5916,10 @@
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B205" s="2"/>
-      <c r="C205" s="27"/>
+      <c r="C205" s="13"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="27"/>
+      <c r="F205" s="13"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B206" s="2"/>
-      <c r="C206" s="27"/>
+      <c r="C206" s="13"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="27"/>
+      <c r="F206" s="13"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B207" s="2"/>
-      <c r="C207" s="27"/>
+      <c r="C207" s="13"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="27"/>
+      <c r="F207" s="13"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -5949,10 +5949,10 @@
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B208" s="2"/>
-      <c r="C208" s="27"/>
+      <c r="C208" s="13"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="27"/>
+      <c r="F208" s="13"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B209" s="2"/>
-      <c r="C209" s="27"/>
+      <c r="C209" s="13"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="27"/>
+      <c r="F209" s="13"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
@@ -5971,10 +5971,10 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B210" s="2"/>
-      <c r="C210" s="27"/>
+      <c r="C210" s="13"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="27"/>
+      <c r="F210" s="13"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
@@ -5982,10 +5982,10 @@
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B211" s="2"/>
-      <c r="C211" s="27"/>
+      <c r="C211" s="13"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="27"/>
+      <c r="F211" s="13"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B212" s="2"/>
-      <c r="C212" s="27"/>
+      <c r="C212" s="13"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="27"/>
+      <c r="F212" s="13"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B213" s="2"/>
-      <c r="C213" s="27"/>
+      <c r="C213" s="13"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="27"/>
+      <c r="F213" s="13"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -6015,10 +6015,10 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B214" s="2"/>
-      <c r="C214" s="27"/>
+      <c r="C214" s="13"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
-      <c r="F214" s="27"/>
+      <c r="F214" s="13"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -6026,10 +6026,10 @@
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B215" s="2"/>
-      <c r="C215" s="27"/>
+      <c r="C215" s="13"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
-      <c r="F215" s="27"/>
+      <c r="F215" s="13"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="2"/>
-      <c r="C216" s="27"/>
+      <c r="C216" s="13"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="27"/>
+      <c r="F216" s="13"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -6048,10 +6048,10 @@
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B217" s="2"/>
-      <c r="C217" s="27"/>
+      <c r="C217" s="13"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="27"/>
+      <c r="F217" s="13"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B218" s="2"/>
-      <c r="C218" s="27"/>
+      <c r="C218" s="13"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="27"/>
+      <c r="F218" s="13"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="2"/>
-      <c r="C219" s="27"/>
+      <c r="C219" s="13"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="27"/>
+      <c r="F219" s="13"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B220" s="2"/>
-      <c r="C220" s="27"/>
+      <c r="C220" s="13"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
-      <c r="F220" s="27"/>
+      <c r="F220" s="13"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="2"/>
-      <c r="C221" s="27"/>
+      <c r="C221" s="13"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="27"/>
+      <c r="F221" s="13"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B222" s="2"/>
-      <c r="C222" s="27"/>
+      <c r="C222" s="13"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="27"/>
+      <c r="F222" s="13"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="2"/>
-      <c r="C223" s="27"/>
+      <c r="C223" s="13"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="27"/>
+      <c r="F223" s="13"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="2"/>
-      <c r="C224" s="27"/>
+      <c r="C224" s="13"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="27"/>
+      <c r="F224" s="13"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
@@ -6136,10 +6136,10 @@
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="2"/>
-      <c r="C225" s="27"/>
+      <c r="C225" s="13"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="27"/>
+      <c r="F225" s="13"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
@@ -6147,10 +6147,10 @@
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="2"/>
-      <c r="C226" s="27"/>
+      <c r="C226" s="13"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="27"/>
+      <c r="F226" s="13"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="2"/>
-      <c r="C227" s="27"/>
+      <c r="C227" s="13"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="27"/>
+      <c r="F227" s="13"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="2"/>
-      <c r="C228" s="27"/>
+      <c r="C228" s="13"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
-      <c r="F228" s="27"/>
+      <c r="F228" s="13"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
@@ -6180,10 +6180,10 @@
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="2"/>
-      <c r="C229" s="27"/>
+      <c r="C229" s="13"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="F229" s="27"/>
+      <c r="F229" s="13"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
@@ -6191,10 +6191,10 @@
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="2"/>
-      <c r="C230" s="27"/>
+      <c r="C230" s="13"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="27"/>
+      <c r="F230" s="13"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
@@ -6202,10 +6202,10 @@
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="2"/>
-      <c r="C231" s="27"/>
+      <c r="C231" s="13"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="27"/>
+      <c r="F231" s="13"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -6213,10 +6213,10 @@
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="2"/>
-      <c r="C232" s="27"/>
+      <c r="C232" s="13"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="27"/>
+      <c r="F232" s="13"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
@@ -6224,10 +6224,10 @@
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="2"/>
-      <c r="C233" s="27"/>
+      <c r="C233" s="13"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="27"/>
+      <c r="F233" s="13"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
@@ -6235,10 +6235,10 @@
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="2"/>
-      <c r="C234" s="27"/>
+      <c r="C234" s="13"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="27"/>
+      <c r="F234" s="13"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="2"/>
-      <c r="C235" s="27"/>
+      <c r="C235" s="13"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="27"/>
+      <c r="F235" s="13"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="2"/>
-      <c r="C236" s="27"/>
+      <c r="C236" s="13"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="27"/>
+      <c r="F236" s="13"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="2"/>
-      <c r="C237" s="27"/>
+      <c r="C237" s="13"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
-      <c r="F237" s="27"/>
+      <c r="F237" s="13"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="2"/>
-      <c r="C238" s="27"/>
+      <c r="C238" s="13"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="27"/>
+      <c r="F238" s="13"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B239" s="2"/>
-      <c r="C239" s="27"/>
+      <c r="C239" s="13"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="27"/>
+      <c r="F239" s="13"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
@@ -6301,10 +6301,10 @@
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="2"/>
-      <c r="C240" s="27"/>
+      <c r="C240" s="13"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="27"/>
+      <c r="F240" s="13"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B241" s="2"/>
-      <c r="C241" s="27"/>
+      <c r="C241" s="13"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="27"/>
+      <c r="F241" s="13"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B242" s="2"/>
-      <c r="C242" s="27"/>
+      <c r="C242" s="13"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="27"/>
+      <c r="F242" s="13"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
@@ -6334,10 +6334,10 @@
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="2"/>
-      <c r="C243" s="27"/>
+      <c r="C243" s="13"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="27"/>
+      <c r="F243" s="13"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B244" s="2"/>
-      <c r="C244" s="27"/>
+      <c r="C244" s="13"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="27"/>
+      <c r="F244" s="13"/>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="2"/>
-      <c r="C245" s="27"/>
+      <c r="C245" s="13"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="27"/>
+      <c r="F245" s="13"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B246" s="2"/>
-      <c r="C246" s="27"/>
+      <c r="C246" s="13"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="27"/>
+      <c r="F246" s="13"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
@@ -6378,10 +6378,10 @@
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B247" s="2"/>
-      <c r="C247" s="27"/>
+      <c r="C247" s="13"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="27"/>
+      <c r="F247" s="13"/>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
@@ -6389,10 +6389,10 @@
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B248" s="2"/>
-      <c r="C248" s="27"/>
+      <c r="C248" s="13"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="27"/>
+      <c r="F248" s="13"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
@@ -6400,10 +6400,10 @@
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B249" s="2"/>
-      <c r="C249" s="27"/>
+      <c r="C249" s="13"/>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
-      <c r="F249" s="27"/>
+      <c r="F249" s="13"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B250" s="2"/>
-      <c r="C250" s="27"/>
+      <c r="C250" s="13"/>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="27"/>
+      <c r="F250" s="13"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
@@ -6422,10 +6422,10 @@
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B251" s="2"/>
-      <c r="C251" s="27"/>
+      <c r="C251" s="13"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
-      <c r="F251" s="27"/>
+      <c r="F251" s="13"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
@@ -6433,10 +6433,10 @@
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B252" s="2"/>
-      <c r="C252" s="27"/>
+      <c r="C252" s="13"/>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="27"/>
+      <c r="F252" s="13"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B253" s="2"/>
-      <c r="C253" s="27"/>
+      <c r="C253" s="13"/>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="27"/>
+      <c r="F253" s="13"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
@@ -6455,10 +6455,10 @@
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B254" s="2"/>
-      <c r="C254" s="27"/>
+      <c r="C254" s="13"/>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="27"/>
+      <c r="F254" s="13"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B255" s="2"/>
-      <c r="C255" s="27"/>
+      <c r="C255" s="13"/>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="27"/>
+      <c r="F255" s="13"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
@@ -6477,10 +6477,10 @@
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B256" s="2"/>
-      <c r="C256" s="27"/>
+      <c r="C256" s="13"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="27"/>
+      <c r="F256" s="13"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
@@ -6488,10 +6488,10 @@
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B257" s="2"/>
-      <c r="C257" s="27"/>
+      <c r="C257" s="13"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="27"/>
+      <c r="F257" s="13"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="2"/>
-      <c r="C258" s="27"/>
+      <c r="C258" s="13"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="27"/>
+      <c r="F258" s="13"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="2"/>
-      <c r="C259" s="27"/>
+      <c r="C259" s="13"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="27"/>
+      <c r="F259" s="13"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B260" s="2"/>
-      <c r="C260" s="27"/>
+      <c r="C260" s="13"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
-      <c r="F260" s="27"/>
+      <c r="F260" s="13"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B261" s="2"/>
-      <c r="C261" s="27"/>
+      <c r="C261" s="13"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="27"/>
+      <c r="F261" s="13"/>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
@@ -6543,10 +6543,10 @@
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B262" s="2"/>
-      <c r="C262" s="27"/>
+      <c r="C262" s="13"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="27"/>
+      <c r="F262" s="13"/>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B263" s="2"/>
-      <c r="C263" s="27"/>
+      <c r="C263" s="13"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
-      <c r="F263" s="27"/>
+      <c r="F263" s="13"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
@@ -6565,10 +6565,10 @@
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B264" s="2"/>
-      <c r="C264" s="27"/>
+      <c r="C264" s="13"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="27"/>
+      <c r="F264" s="13"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B265" s="2"/>
-      <c r="C265" s="27"/>
+      <c r="C265" s="13"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="27"/>
+      <c r="F265" s="13"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B266" s="2"/>
-      <c r="C266" s="27"/>
+      <c r="C266" s="13"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="27"/>
+      <c r="F266" s="13"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B267" s="2"/>
-      <c r="C267" s="27"/>
+      <c r="C267" s="13"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="27"/>
+      <c r="F267" s="13"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B268" s="2"/>
-      <c r="C268" s="27"/>
+      <c r="C268" s="13"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="27"/>
+      <c r="F268" s="13"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B269" s="2"/>
-      <c r="C269" s="27"/>
+      <c r="C269" s="13"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="27"/>
+      <c r="F269" s="13"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B270" s="2"/>
-      <c r="C270" s="27"/>
+      <c r="C270" s="13"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
-      <c r="F270" s="27"/>
+      <c r="F270" s="13"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B271" s="2"/>
-      <c r="C271" s="27"/>
+      <c r="C271" s="13"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="27"/>
+      <c r="F271" s="13"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B272" s="2"/>
-      <c r="C272" s="27"/>
+      <c r="C272" s="13"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
-      <c r="F272" s="27"/>
+      <c r="F272" s="13"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
@@ -6664,10 +6664,10 @@
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B273" s="2"/>
-      <c r="C273" s="27"/>
+      <c r="C273" s="13"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
-      <c r="F273" s="27"/>
+      <c r="F273" s="13"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
@@ -6675,10 +6675,10 @@
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B274" s="2"/>
-      <c r="C274" s="27"/>
+      <c r="C274" s="13"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="27"/>
+      <c r="F274" s="13"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B275" s="2"/>
-      <c r="C275" s="27"/>
+      <c r="C275" s="13"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="27"/>
+      <c r="F275" s="13"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B276" s="2"/>
-      <c r="C276" s="27"/>
+      <c r="C276" s="13"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="27"/>
+      <c r="F276" s="13"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B277" s="2"/>
-      <c r="C277" s="27"/>
+      <c r="C277" s="13"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="27"/>
+      <c r="F277" s="13"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B278" s="2"/>
-      <c r="C278" s="27"/>
+      <c r="C278" s="13"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="27"/>
+      <c r="F278" s="13"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
@@ -6730,10 +6730,10 @@
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B279" s="2"/>
-      <c r="C279" s="27"/>
+      <c r="C279" s="13"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="27"/>
+      <c r="F279" s="13"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B280" s="2"/>
-      <c r="C280" s="27"/>
+      <c r="C280" s="13"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="27"/>
+      <c r="F280" s="13"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B281" s="2"/>
-      <c r="C281" s="27"/>
+      <c r="C281" s="13"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="27"/>
+      <c r="F281" s="13"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B282" s="2"/>
-      <c r="C282" s="27"/>
+      <c r="C282" s="13"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="27"/>
+      <c r="F282" s="13"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B283" s="2"/>
-      <c r="C283" s="27"/>
+      <c r="C283" s="13"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="27"/>
+      <c r="F283" s="13"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B284" s="2"/>
-      <c r="C284" s="27"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="27"/>
+      <c r="F284" s="13"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B285" s="2"/>
-      <c r="C285" s="27"/>
+      <c r="C285" s="13"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="27"/>
+      <c r="F285" s="13"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B286" s="2"/>
-      <c r="C286" s="27"/>
+      <c r="C286" s="13"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="27"/>
+      <c r="F286" s="13"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B287" s="2"/>
-      <c r="C287" s="27"/>
+      <c r="C287" s="13"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="27"/>
+      <c r="F287" s="13"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B288" s="2"/>
-      <c r="C288" s="27"/>
+      <c r="C288" s="13"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="27"/>
+      <c r="F288" s="13"/>
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B289" s="2"/>
-      <c r="C289" s="27"/>
+      <c r="C289" s="13"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="27"/>
+      <c r="F289" s="13"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B290" s="2"/>
-      <c r="C290" s="27"/>
+      <c r="C290" s="13"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="27"/>
+      <c r="F290" s="13"/>
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B291" s="2"/>
-      <c r="C291" s="27"/>
+      <c r="C291" s="13"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="27"/>
+      <c r="F291" s="13"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
@@ -6873,10 +6873,10 @@
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B292" s="2"/>
-      <c r="C292" s="27"/>
+      <c r="C292" s="13"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="27"/>
+      <c r="F292" s="13"/>
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B293" s="2"/>
-      <c r="C293" s="27"/>
+      <c r="C293" s="13"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="27"/>
+      <c r="F293" s="13"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B294" s="2"/>
-      <c r="C294" s="27"/>
+      <c r="C294" s="13"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="27"/>
+      <c r="F294" s="13"/>
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B295" s="2"/>
-      <c r="C295" s="27"/>
+      <c r="C295" s="13"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="27"/>
+      <c r="F295" s="13"/>
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B296" s="2"/>
-      <c r="C296" s="27"/>
+      <c r="C296" s="13"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="27"/>
+      <c r="F296" s="13"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B297" s="2"/>
-      <c r="C297" s="27"/>
+      <c r="C297" s="13"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="27"/>
+      <c r="F297" s="13"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B298" s="2"/>
-      <c r="C298" s="27"/>
+      <c r="C298" s="13"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="27"/>
+      <c r="F298" s="13"/>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
@@ -6950,10 +6950,10 @@
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B299" s="2"/>
-      <c r="C299" s="27"/>
+      <c r="C299" s="13"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="27"/>
+      <c r="F299" s="13"/>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
@@ -6961,10 +6961,10 @@
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B300" s="2"/>
-      <c r="C300" s="27"/>
+      <c r="C300" s="13"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="27"/>
+      <c r="F300" s="13"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B301" s="2"/>
-      <c r="C301" s="27"/>
+      <c r="C301" s="13"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="27"/>
+      <c r="F301" s="13"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B302" s="2"/>
-      <c r="C302" s="27"/>
+      <c r="C302" s="13"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
-      <c r="F302" s="27"/>
+      <c r="F302" s="13"/>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B303" s="2"/>
-      <c r="C303" s="27"/>
+      <c r="C303" s="13"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
-      <c r="F303" s="27"/>
+      <c r="F303" s="13"/>
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B304" s="2"/>
-      <c r="C304" s="27"/>
+      <c r="C304" s="13"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="27"/>
+      <c r="F304" s="13"/>
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="2"/>
-      <c r="C305" s="27"/>
+      <c r="C305" s="13"/>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
-      <c r="F305" s="27"/>
+      <c r="F305" s="13"/>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B306" s="2"/>
-      <c r="C306" s="27"/>
+      <c r="C306" s="13"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
-      <c r="F306" s="27"/>
+      <c r="F306" s="13"/>
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B307" s="2"/>
-      <c r="C307" s="27"/>
+      <c r="C307" s="13"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
-      <c r="F307" s="27"/>
+      <c r="F307" s="13"/>
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B308" s="2"/>
-      <c r="C308" s="27"/>
+      <c r="C308" s="13"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
-      <c r="F308" s="27"/>
+      <c r="F308" s="13"/>
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B309" s="2"/>
-      <c r="C309" s="27"/>
+      <c r="C309" s="13"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
-      <c r="F309" s="27"/>
+      <c r="F309" s="13"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B310" s="2"/>
-      <c r="C310" s="27"/>
+      <c r="C310" s="13"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
-      <c r="F310" s="27"/>
+      <c r="F310" s="13"/>
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B311" s="2"/>
-      <c r="C311" s="27"/>
+      <c r="C311" s="13"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
-      <c r="F311" s="27"/>
+      <c r="F311" s="13"/>
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B312" s="2"/>
-      <c r="C312" s="27"/>
+      <c r="C312" s="13"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="27"/>
+      <c r="F312" s="13"/>
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
@@ -7104,10 +7104,10 @@
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B313" s="2"/>
-      <c r="C313" s="27"/>
+      <c r="C313" s="13"/>
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
-      <c r="F313" s="27"/>
+      <c r="F313" s="13"/>
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
@@ -7115,10 +7115,10 @@
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B314" s="2"/>
-      <c r="C314" s="27"/>
+      <c r="C314" s="13"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
-      <c r="F314" s="27"/>
+      <c r="F314" s="13"/>
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B315" s="2"/>
-      <c r="C315" s="27"/>
+      <c r="C315" s="13"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="27"/>
+      <c r="F315" s="13"/>
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B316" s="2"/>
-      <c r="C316" s="27"/>
+      <c r="C316" s="13"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="27"/>
+      <c r="F316" s="13"/>
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B317" s="2"/>
-      <c r="C317" s="27"/>
+      <c r="C317" s="13"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="27"/>
+      <c r="F317" s="13"/>
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
@@ -7159,10 +7159,10 @@
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B318" s="2"/>
-      <c r="C318" s="27"/>
+      <c r="C318" s="13"/>
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
-      <c r="F318" s="27"/>
+      <c r="F318" s="13"/>
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B319" s="2"/>
-      <c r="C319" s="27"/>
+      <c r="C319" s="13"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="27"/>
+      <c r="F319" s="13"/>
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B320" s="2"/>
-      <c r="C320" s="27"/>
+      <c r="C320" s="13"/>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="27"/>
+      <c r="F320" s="13"/>
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
@@ -7192,10 +7192,10 @@
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B321" s="2"/>
-      <c r="C321" s="27"/>
+      <c r="C321" s="13"/>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="27"/>
+      <c r="F321" s="13"/>
       <c r="G321" s="5"/>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B322" s="2"/>
-      <c r="C322" s="27"/>
+      <c r="C322" s="13"/>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="27"/>
+      <c r="F322" s="13"/>
       <c r="G322" s="5"/>
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B323" s="2"/>
-      <c r="C323" s="27"/>
+      <c r="C323" s="13"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
-      <c r="F323" s="27"/>
+      <c r="F323" s="13"/>
       <c r="G323" s="5"/>
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
@@ -7225,10 +7225,10 @@
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B324" s="2"/>
-      <c r="C324" s="27"/>
+      <c r="C324" s="13"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="27"/>
+      <c r="F324" s="13"/>
       <c r="G324" s="5"/>
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B325" s="2"/>
-      <c r="C325" s="27"/>
+      <c r="C325" s="13"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="27"/>
+      <c r="F325" s="13"/>
       <c r="G325" s="5"/>
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B326" s="2"/>
-      <c r="C326" s="27"/>
+      <c r="C326" s="13"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
-      <c r="F326" s="27"/>
+      <c r="F326" s="13"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B327" s="2"/>
-      <c r="C327" s="27"/>
+      <c r="C327" s="13"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
-      <c r="F327" s="27"/>
+      <c r="F327" s="13"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B328" s="2"/>
-      <c r="C328" s="27"/>
+      <c r="C328" s="13"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
-      <c r="F328" s="27"/>
+      <c r="F328" s="13"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B329" s="2"/>
-      <c r="C329" s="27"/>
+      <c r="C329" s="13"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
-      <c r="F329" s="27"/>
+      <c r="F329" s="13"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B330" s="2"/>
-      <c r="C330" s="27"/>
+      <c r="C330" s="13"/>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
-      <c r="F330" s="27"/>
+      <c r="F330" s="13"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
@@ -7302,10 +7302,10 @@
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B331" s="2"/>
-      <c r="C331" s="27"/>
+      <c r="C331" s="13"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
-      <c r="F331" s="27"/>
+      <c r="F331" s="13"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
@@ -7313,10 +7313,10 @@
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="2"/>
-      <c r="C332" s="27"/>
+      <c r="C332" s="13"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="27"/>
+      <c r="F332" s="13"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
@@ -7324,10 +7324,10 @@
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B333" s="2"/>
-      <c r="C333" s="27"/>
+      <c r="C333" s="13"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
-      <c r="F333" s="27"/>
+      <c r="F333" s="13"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
@@ -7335,10 +7335,10 @@
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B334" s="2"/>
-      <c r="C334" s="27"/>
+      <c r="C334" s="13"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
-      <c r="F334" s="27"/>
+      <c r="F334" s="13"/>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
@@ -7346,10 +7346,10 @@
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B335" s="2"/>
-      <c r="C335" s="27"/>
+      <c r="C335" s="13"/>
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
-      <c r="F335" s="27"/>
+      <c r="F335" s="13"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B336" s="2"/>
-      <c r="C336" s="27"/>
+      <c r="C336" s="13"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
-      <c r="F336" s="27"/>
+      <c r="F336" s="13"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B337" s="2"/>
-      <c r="C337" s="27"/>
+      <c r="C337" s="13"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
-      <c r="F337" s="27"/>
+      <c r="F337" s="13"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
@@ -7379,10 +7379,10 @@
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B338" s="2"/>
-      <c r="C338" s="27"/>
+      <c r="C338" s="13"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
-      <c r="F338" s="27"/>
+      <c r="F338" s="13"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
@@ -7390,10 +7390,10 @@
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B339" s="2"/>
-      <c r="C339" s="27"/>
+      <c r="C339" s="13"/>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
-      <c r="F339" s="27"/>
+      <c r="F339" s="13"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
@@ -7401,10 +7401,10 @@
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B340" s="2"/>
-      <c r="C340" s="27"/>
+      <c r="C340" s="13"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="27"/>
+      <c r="F340" s="13"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
@@ -7412,10 +7412,10 @@
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B341" s="2"/>
-      <c r="C341" s="27"/>
+      <c r="C341" s="13"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="27"/>
+      <c r="F341" s="13"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="342" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B342" s="2"/>
-      <c r="C342" s="27"/>
+      <c r="C342" s="13"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="27"/>
+      <c r="F342" s="13"/>
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
@@ -7434,10 +7434,10 @@
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B343" s="2"/>
-      <c r="C343" s="27"/>
+      <c r="C343" s="13"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="27"/>
+      <c r="F343" s="13"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B344" s="2"/>
-      <c r="C344" s="27"/>
+      <c r="C344" s="13"/>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="27"/>
+      <c r="F344" s="13"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
@@ -7456,10 +7456,10 @@
     </row>
     <row r="345" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B345" s="2"/>
-      <c r="C345" s="27"/>
+      <c r="C345" s="13"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="27"/>
+      <c r="F345" s="13"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
@@ -7467,10 +7467,10 @@
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B346" s="2"/>
-      <c r="C346" s="27"/>
+      <c r="C346" s="13"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="27"/>
+      <c r="F346" s="13"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B347" s="2"/>
-      <c r="C347" s="27"/>
+      <c r="C347" s="13"/>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
-      <c r="F347" s="27"/>
+      <c r="F347" s="13"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B348" s="2"/>
-      <c r="C348" s="27"/>
+      <c r="C348" s="13"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="27"/>
+      <c r="F348" s="13"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
@@ -7500,10 +7500,10 @@
     </row>
     <row r="349" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B349" s="2"/>
-      <c r="C349" s="27"/>
+      <c r="C349" s="13"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="27"/>
+      <c r="F349" s="13"/>
       <c r="G349" s="5"/>
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
@@ -7511,10 +7511,10 @@
     </row>
     <row r="350" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B350" s="2"/>
-      <c r="C350" s="27"/>
+      <c r="C350" s="13"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="27"/>
+      <c r="F350" s="13"/>
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B351" s="2"/>
-      <c r="C351" s="27"/>
+      <c r="C351" s="13"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="27"/>
+      <c r="F351" s="13"/>
       <c r="G351" s="5"/>
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
@@ -7533,10 +7533,10 @@
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B352" s="2"/>
-      <c r="C352" s="27"/>
+      <c r="C352" s="13"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="27"/>
+      <c r="F352" s="13"/>
       <c r="G352" s="5"/>
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
@@ -7544,10 +7544,10 @@
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B353" s="2"/>
-      <c r="C353" s="27"/>
+      <c r="C353" s="13"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
-      <c r="F353" s="27"/>
+      <c r="F353" s="13"/>
       <c r="G353" s="5"/>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
@@ -7555,10 +7555,10 @@
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B354" s="2"/>
-      <c r="C354" s="27"/>
+      <c r="C354" s="13"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="27"/>
+      <c r="F354" s="13"/>
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
@@ -7566,10 +7566,10 @@
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B355" s="2"/>
-      <c r="C355" s="27"/>
+      <c r="C355" s="13"/>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="27"/>
+      <c r="F355" s="13"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
@@ -7577,10 +7577,10 @@
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B356" s="2"/>
-      <c r="C356" s="27"/>
+      <c r="C356" s="13"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="27"/>
+      <c r="F356" s="13"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
@@ -7588,10 +7588,10 @@
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B357" s="2"/>
-      <c r="C357" s="27"/>
+      <c r="C357" s="13"/>
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
-      <c r="F357" s="27"/>
+      <c r="F357" s="13"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
@@ -7599,10 +7599,10 @@
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B358" s="2"/>
-      <c r="C358" s="27"/>
+      <c r="C358" s="13"/>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="27"/>
+      <c r="F358" s="13"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="359" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B359" s="2"/>
-      <c r="C359" s="27"/>
+      <c r="C359" s="13"/>
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
-      <c r="F359" s="27"/>
+      <c r="F359" s="13"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
@@ -7621,10 +7621,10 @@
     </row>
     <row r="360" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B360" s="2"/>
-      <c r="C360" s="27"/>
+      <c r="C360" s="13"/>
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
-      <c r="F360" s="27"/>
+      <c r="F360" s="13"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="361" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B361" s="2"/>
-      <c r="C361" s="27"/>
+      <c r="C361" s="13"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="27"/>
+      <c r="F361" s="13"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
@@ -7643,10 +7643,10 @@
     </row>
     <row r="362" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B362" s="2"/>
-      <c r="C362" s="27"/>
+      <c r="C362" s="13"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="27"/>
+      <c r="F362" s="13"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="363" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B363" s="2"/>
-      <c r="C363" s="27"/>
+      <c r="C363" s="13"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
-      <c r="F363" s="27"/>
+      <c r="F363" s="13"/>
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="364" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B364" s="2"/>
-      <c r="C364" s="27"/>
+      <c r="C364" s="13"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="27"/>
+      <c r="F364" s="13"/>
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="365" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B365" s="2"/>
-      <c r="C365" s="27"/>
+      <c r="C365" s="13"/>
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
-      <c r="F365" s="27"/>
+      <c r="F365" s="13"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="366" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B366" s="2"/>
-      <c r="C366" s="27"/>
+      <c r="C366" s="13"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
-      <c r="F366" s="27"/>
+      <c r="F366" s="13"/>
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="367" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B367" s="2"/>
-      <c r="C367" s="27"/>
+      <c r="C367" s="13"/>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
-      <c r="F367" s="27"/>
+      <c r="F367" s="13"/>
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
@@ -7709,10 +7709,10 @@
     </row>
     <row r="368" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B368" s="2"/>
-      <c r="C368" s="27"/>
+      <c r="C368" s="13"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="27"/>
+      <c r="F368" s="13"/>
       <c r="G368" s="5"/>
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="369" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B369" s="2"/>
-      <c r="C369" s="27"/>
+      <c r="C369" s="13"/>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
-      <c r="F369" s="27"/>
+      <c r="F369" s="13"/>
       <c r="G369" s="5"/>
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
@@ -7731,10 +7731,10 @@
     </row>
     <row r="370" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B370" s="2"/>
-      <c r="C370" s="27"/>
+      <c r="C370" s="13"/>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
-      <c r="F370" s="27"/>
+      <c r="F370" s="13"/>
       <c r="G370" s="5"/>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="371" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B371" s="2"/>
-      <c r="C371" s="27"/>
+      <c r="C371" s="13"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="27"/>
+      <c r="F371" s="13"/>
       <c r="G371" s="5"/>
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
@@ -7753,10 +7753,10 @@
     </row>
     <row r="372" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B372" s="2"/>
-      <c r="C372" s="27"/>
+      <c r="C372" s="13"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="27"/>
+      <c r="F372" s="13"/>
       <c r="G372" s="5"/>
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
@@ -7764,10 +7764,10 @@
     </row>
     <row r="373" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B373" s="2"/>
-      <c r="C373" s="27"/>
+      <c r="C373" s="13"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="27"/>
+      <c r="F373" s="13"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
@@ -7775,10 +7775,10 @@
     </row>
     <row r="374" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B374" s="2"/>
-      <c r="C374" s="27"/>
+      <c r="C374" s="13"/>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="27"/>
+      <c r="F374" s="13"/>
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
@@ -7786,10 +7786,10 @@
     </row>
     <row r="375" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B375" s="2"/>
-      <c r="C375" s="27"/>
+      <c r="C375" s="13"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="27"/>
+      <c r="F375" s="13"/>
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="376" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B376" s="2"/>
-      <c r="C376" s="27"/>
+      <c r="C376" s="13"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
-      <c r="F376" s="27"/>
+      <c r="F376" s="13"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
@@ -7808,10 +7808,10 @@
     </row>
     <row r="377" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B377" s="2"/>
-      <c r="C377" s="27"/>
+      <c r="C377" s="13"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
-      <c r="F377" s="27"/>
+      <c r="F377" s="13"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
@@ -7819,10 +7819,10 @@
     </row>
     <row r="378" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B378" s="2"/>
-      <c r="C378" s="27"/>
+      <c r="C378" s="13"/>
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
-      <c r="F378" s="27"/>
+      <c r="F378" s="13"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
@@ -7830,10 +7830,10 @@
     </row>
     <row r="379" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B379" s="2"/>
-      <c r="C379" s="27"/>
+      <c r="C379" s="13"/>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
-      <c r="F379" s="27"/>
+      <c r="F379" s="13"/>
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
@@ -7841,10 +7841,10 @@
     </row>
     <row r="380" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B380" s="2"/>
-      <c r="C380" s="27"/>
+      <c r="C380" s="13"/>
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
-      <c r="F380" s="27"/>
+      <c r="F380" s="13"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="381" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B381" s="2"/>
-      <c r="C381" s="27"/>
+      <c r="C381" s="13"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
-      <c r="F381" s="27"/>
+      <c r="F381" s="13"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="382" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B382" s="2"/>
-      <c r="C382" s="27"/>
+      <c r="C382" s="13"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
-      <c r="F382" s="27"/>
+      <c r="F382" s="13"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
@@ -7874,10 +7874,10 @@
     </row>
     <row r="383" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B383" s="2"/>
-      <c r="C383" s="27"/>
+      <c r="C383" s="13"/>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
-      <c r="F383" s="27"/>
+      <c r="F383" s="13"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
@@ -7885,10 +7885,10 @@
     </row>
     <row r="384" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B384" s="2"/>
-      <c r="C384" s="27"/>
+      <c r="C384" s="13"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
-      <c r="F384" s="27"/>
+      <c r="F384" s="13"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
@@ -7896,10 +7896,10 @@
     </row>
     <row r="385" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B385" s="2"/>
-      <c r="C385" s="27"/>
+      <c r="C385" s="13"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="27"/>
+      <c r="F385" s="13"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
@@ -7907,10 +7907,10 @@
     </row>
     <row r="386" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B386" s="2"/>
-      <c r="C386" s="27"/>
+      <c r="C386" s="13"/>
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
-      <c r="F386" s="27"/>
+      <c r="F386" s="13"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
@@ -7918,10 +7918,10 @@
     </row>
     <row r="387" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B387" s="2"/>
-      <c r="C387" s="27"/>
+      <c r="C387" s="13"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
-      <c r="F387" s="27"/>
+      <c r="F387" s="13"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
@@ -7929,10 +7929,10 @@
     </row>
     <row r="388" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B388" s="2"/>
-      <c r="C388" s="27"/>
+      <c r="C388" s="13"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="27"/>
+      <c r="F388" s="13"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
@@ -7940,10 +7940,10 @@
     </row>
     <row r="389" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B389" s="2"/>
-      <c r="C389" s="27"/>
+      <c r="C389" s="13"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
-      <c r="F389" s="27"/>
+      <c r="F389" s="13"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
@@ -7951,10 +7951,10 @@
     </row>
     <row r="390" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B390" s="2"/>
-      <c r="C390" s="27"/>
+      <c r="C390" s="13"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
-      <c r="F390" s="27"/>
+      <c r="F390" s="13"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
@@ -7962,10 +7962,10 @@
     </row>
     <row r="391" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B391" s="2"/>
-      <c r="C391" s="27"/>
+      <c r="C391" s="13"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
-      <c r="F391" s="27"/>
+      <c r="F391" s="13"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
@@ -7973,10 +7973,10 @@
     </row>
     <row r="392" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B392" s="2"/>
-      <c r="C392" s="27"/>
+      <c r="C392" s="13"/>
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
-      <c r="F392" s="27"/>
+      <c r="F392" s="13"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
@@ -7984,10 +7984,10 @@
     </row>
     <row r="393" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B393" s="2"/>
-      <c r="C393" s="27"/>
+      <c r="C393" s="13"/>
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
-      <c r="F393" s="27"/>
+      <c r="F393" s="13"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
@@ -7995,10 +7995,10 @@
     </row>
     <row r="394" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B394" s="2"/>
-      <c r="C394" s="27"/>
+      <c r="C394" s="13"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
-      <c r="F394" s="27"/>
+      <c r="F394" s="13"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="395" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B395" s="2"/>
-      <c r="C395" s="27"/>
+      <c r="C395" s="13"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
-      <c r="F395" s="27"/>
+      <c r="F395" s="13"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="396" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B396" s="2"/>
-      <c r="C396" s="27"/>
+      <c r="C396" s="13"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
-      <c r="F396" s="27"/>
+      <c r="F396" s="13"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="397" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B397" s="2"/>
-      <c r="C397" s="27"/>
+      <c r="C397" s="13"/>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="27"/>
+      <c r="F397" s="13"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
@@ -8039,10 +8039,10 @@
     </row>
     <row r="398" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B398" s="2"/>
-      <c r="C398" s="27"/>
+      <c r="C398" s="13"/>
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
-      <c r="F398" s="27"/>
+      <c r="F398" s="13"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="399" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B399" s="2"/>
-      <c r="C399" s="27"/>
+      <c r="C399" s="13"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
-      <c r="F399" s="27"/>
+      <c r="F399" s="13"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
@@ -8061,10 +8061,10 @@
     </row>
     <row r="400" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B400" s="2"/>
-      <c r="C400" s="27"/>
+      <c r="C400" s="13"/>
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
-      <c r="F400" s="27"/>
+      <c r="F400" s="13"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
@@ -8072,10 +8072,10 @@
     </row>
     <row r="401" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B401" s="2"/>
-      <c r="C401" s="27"/>
+      <c r="C401" s="13"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
-      <c r="F401" s="27"/>
+      <c r="F401" s="13"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
@@ -8083,10 +8083,10 @@
     </row>
     <row r="402" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B402" s="2"/>
-      <c r="C402" s="27"/>
+      <c r="C402" s="13"/>
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
-      <c r="F402" s="27"/>
+      <c r="F402" s="13"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
@@ -8094,10 +8094,10 @@
     </row>
     <row r="403" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B403" s="2"/>
-      <c r="C403" s="27"/>
+      <c r="C403" s="13"/>
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
-      <c r="F403" s="27"/>
+      <c r="F403" s="13"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="404" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B404" s="2"/>
-      <c r="C404" s="27"/>
+      <c r="C404" s="13"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
-      <c r="F404" s="27"/>
+      <c r="F404" s="13"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="405" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B405" s="2"/>
-      <c r="C405" s="27"/>
+      <c r="C405" s="13"/>
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
-      <c r="F405" s="27"/>
+      <c r="F405" s="13"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
@@ -8127,10 +8127,10 @@
     </row>
     <row r="406" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B406" s="2"/>
-      <c r="C406" s="27"/>
+      <c r="C406" s="13"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
-      <c r="F406" s="27"/>
+      <c r="F406" s="13"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
@@ -8138,10 +8138,10 @@
     </row>
     <row r="407" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B407" s="2"/>
-      <c r="C407" s="27"/>
+      <c r="C407" s="13"/>
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
-      <c r="F407" s="27"/>
+      <c r="F407" s="13"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
@@ -8149,10 +8149,10 @@
     </row>
     <row r="408" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B408" s="2"/>
-      <c r="C408" s="27"/>
+      <c r="C408" s="13"/>
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
-      <c r="F408" s="27"/>
+      <c r="F408" s="13"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
@@ -8160,10 +8160,10 @@
     </row>
     <row r="409" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B409" s="2"/>
-      <c r="C409" s="27"/>
+      <c r="C409" s="13"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
-      <c r="F409" s="27"/>
+      <c r="F409" s="13"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
@@ -8171,10 +8171,10 @@
     </row>
     <row r="410" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B410" s="2"/>
-      <c r="C410" s="27"/>
+      <c r="C410" s="13"/>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
-      <c r="F410" s="27"/>
+      <c r="F410" s="13"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
@@ -8182,10 +8182,10 @@
     </row>
     <row r="411" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B411" s="2"/>
-      <c r="C411" s="27"/>
+      <c r="C411" s="13"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
-      <c r="F411" s="27"/>
+      <c r="F411" s="13"/>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
@@ -8193,10 +8193,10 @@
     </row>
     <row r="412" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B412" s="2"/>
-      <c r="C412" s="27"/>
+      <c r="C412" s="13"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
-      <c r="F412" s="27"/>
+      <c r="F412" s="13"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
@@ -8204,10 +8204,10 @@
     </row>
     <row r="413" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B413" s="2"/>
-      <c r="C413" s="27"/>
+      <c r="C413" s="13"/>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
-      <c r="F413" s="27"/>
+      <c r="F413" s="13"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
@@ -8215,10 +8215,10 @@
     </row>
     <row r="414" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B414" s="2"/>
-      <c r="C414" s="27"/>
+      <c r="C414" s="13"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
-      <c r="F414" s="27"/>
+      <c r="F414" s="13"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
@@ -8226,10 +8226,10 @@
     </row>
     <row r="415" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B415" s="2"/>
-      <c r="C415" s="27"/>
+      <c r="C415" s="13"/>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
-      <c r="F415" s="27"/>
+      <c r="F415" s="13"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="416" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B416" s="2"/>
-      <c r="C416" s="27"/>
+      <c r="C416" s="13"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="27"/>
+      <c r="F416" s="13"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
@@ -8248,10 +8248,10 @@
     </row>
     <row r="417" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B417" s="2"/>
-      <c r="C417" s="27"/>
+      <c r="C417" s="13"/>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
-      <c r="F417" s="27"/>
+      <c r="F417" s="13"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
@@ -8259,10 +8259,10 @@
     </row>
     <row r="418" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B418" s="2"/>
-      <c r="C418" s="27"/>
+      <c r="C418" s="13"/>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
-      <c r="F418" s="27"/>
+      <c r="F418" s="13"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
@@ -8270,10 +8270,10 @@
     </row>
     <row r="419" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B419" s="2"/>
-      <c r="C419" s="27"/>
+      <c r="C419" s="13"/>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
-      <c r="F419" s="27"/>
+      <c r="F419" s="13"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
@@ -8281,10 +8281,10 @@
     </row>
     <row r="420" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B420" s="2"/>
-      <c r="C420" s="27"/>
+      <c r="C420" s="13"/>
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
-      <c r="F420" s="27"/>
+      <c r="F420" s="13"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
@@ -8292,10 +8292,10 @@
     </row>
     <row r="421" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B421" s="2"/>
-      <c r="C421" s="27"/>
+      <c r="C421" s="13"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
-      <c r="F421" s="27"/>
+      <c r="F421" s="13"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="422" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B422" s="2"/>
-      <c r="C422" s="27"/>
+      <c r="C422" s="13"/>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
-      <c r="F422" s="27"/>
+      <c r="F422" s="13"/>
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
@@ -8314,10 +8314,10 @@
     </row>
     <row r="423" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B423" s="2"/>
-      <c r="C423" s="27"/>
+      <c r="C423" s="13"/>
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
-      <c r="F423" s="27"/>
+      <c r="F423" s="13"/>
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
@@ -8325,10 +8325,10 @@
     </row>
     <row r="424" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B424" s="2"/>
-      <c r="C424" s="27"/>
+      <c r="C424" s="13"/>
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
-      <c r="F424" s="27"/>
+      <c r="F424" s="13"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="425" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B425" s="2"/>
-      <c r="C425" s="27"/>
+      <c r="C425" s="13"/>
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
-      <c r="F425" s="27"/>
+      <c r="F425" s="13"/>
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="426" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B426" s="2"/>
-      <c r="C426" s="27"/>
+      <c r="C426" s="13"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
-      <c r="F426" s="27"/>
+      <c r="F426" s="13"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="427" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B427" s="2"/>
-      <c r="C427" s="27"/>
+      <c r="C427" s="13"/>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
-      <c r="F427" s="27"/>
+      <c r="F427" s="13"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="428" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B428" s="2"/>
-      <c r="C428" s="27"/>
+      <c r="C428" s="13"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="27"/>
+      <c r="F428" s="13"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
@@ -8380,10 +8380,10 @@
     </row>
     <row r="429" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B429" s="2"/>
-      <c r="C429" s="27"/>
+      <c r="C429" s="13"/>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
-      <c r="F429" s="27"/>
+      <c r="F429" s="13"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
@@ -8391,10 +8391,10 @@
     </row>
     <row r="430" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B430" s="2"/>
-      <c r="C430" s="27"/>
+      <c r="C430" s="13"/>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
-      <c r="F430" s="27"/>
+      <c r="F430" s="13"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="431" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B431" s="2"/>
-      <c r="C431" s="27"/>
+      <c r="C431" s="13"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
-      <c r="F431" s="27"/>
+      <c r="F431" s="13"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
@@ -8413,10 +8413,10 @@
     </row>
     <row r="432" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B432" s="2"/>
-      <c r="C432" s="27"/>
+      <c r="C432" s="13"/>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
-      <c r="F432" s="27"/>
+      <c r="F432" s="13"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
@@ -8424,10 +8424,10 @@
     </row>
     <row r="433" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B433" s="2"/>
-      <c r="C433" s="27"/>
+      <c r="C433" s="13"/>
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
-      <c r="F433" s="27"/>
+      <c r="F433" s="13"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="434" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B434" s="2"/>
-      <c r="C434" s="27"/>
+      <c r="C434" s="13"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
-      <c r="F434" s="27"/>
+      <c r="F434" s="13"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
@@ -8446,10 +8446,10 @@
     </row>
     <row r="435" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B435" s="2"/>
-      <c r="C435" s="27"/>
+      <c r="C435" s="13"/>
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
-      <c r="F435" s="27"/>
+      <c r="F435" s="13"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
@@ -8457,10 +8457,10 @@
     </row>
     <row r="436" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B436" s="2"/>
-      <c r="C436" s="27"/>
+      <c r="C436" s="13"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
-      <c r="F436" s="27"/>
+      <c r="F436" s="13"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="437" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B437" s="2"/>
-      <c r="C437" s="27"/>
+      <c r="C437" s="13"/>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="27"/>
+      <c r="F437" s="13"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
@@ -8479,10 +8479,10 @@
     </row>
     <row r="438" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B438" s="2"/>
-      <c r="C438" s="27"/>
+      <c r="C438" s="13"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
-      <c r="F438" s="27"/>
+      <c r="F438" s="13"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="439" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B439" s="2"/>
-      <c r="C439" s="27"/>
+      <c r="C439" s="13"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
-      <c r="F439" s="27"/>
+      <c r="F439" s="13"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="440" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B440" s="2"/>
-      <c r="C440" s="27"/>
+      <c r="C440" s="13"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
-      <c r="F440" s="27"/>
+      <c r="F440" s="13"/>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="441" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B441" s="2"/>
-      <c r="C441" s="27"/>
+      <c r="C441" s="13"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
-      <c r="F441" s="27"/>
+      <c r="F441" s="13"/>
       <c r="G441" s="5"/>
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
@@ -8523,10 +8523,10 @@
     </row>
     <row r="442" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B442" s="2"/>
-      <c r="C442" s="27"/>
+      <c r="C442" s="13"/>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="27"/>
+      <c r="F442" s="13"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
@@ -8534,10 +8534,10 @@
     </row>
     <row r="443" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B443" s="2"/>
-      <c r="C443" s="27"/>
+      <c r="C443" s="13"/>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
-      <c r="F443" s="27"/>
+      <c r="F443" s="13"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
@@ -8545,10 +8545,10 @@
     </row>
     <row r="444" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B444" s="2"/>
-      <c r="C444" s="27"/>
+      <c r="C444" s="13"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
-      <c r="F444" s="27"/>
+      <c r="F444" s="13"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
@@ -8556,10 +8556,10 @@
     </row>
     <row r="445" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B445" s="2"/>
-      <c r="C445" s="27"/>
+      <c r="C445" s="13"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
-      <c r="F445" s="27"/>
+      <c r="F445" s="13"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="446" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B446" s="2"/>
-      <c r="C446" s="27"/>
+      <c r="C446" s="13"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
-      <c r="F446" s="27"/>
+      <c r="F446" s="13"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
@@ -8578,10 +8578,10 @@
     </row>
     <row r="447" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B447" s="2"/>
-      <c r="C447" s="27"/>
+      <c r="C447" s="13"/>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
-      <c r="F447" s="27"/>
+      <c r="F447" s="13"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
@@ -8589,10 +8589,10 @@
     </row>
     <row r="448" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B448" s="2"/>
-      <c r="C448" s="27"/>
+      <c r="C448" s="13"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
-      <c r="F448" s="27"/>
+      <c r="F448" s="13"/>
       <c r="G448" s="5"/>
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
@@ -8600,10 +8600,10 @@
     </row>
     <row r="449" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B449" s="2"/>
-      <c r="C449" s="27"/>
+      <c r="C449" s="13"/>
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
-      <c r="F449" s="27"/>
+      <c r="F449" s="13"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
@@ -8611,10 +8611,10 @@
     </row>
     <row r="450" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B450" s="2"/>
-      <c r="C450" s="27"/>
+      <c r="C450" s="13"/>
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
-      <c r="F450" s="27"/>
+      <c r="F450" s="13"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="451" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B451" s="2"/>
-      <c r="C451" s="27"/>
+      <c r="C451" s="13"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
-      <c r="F451" s="27"/>
+      <c r="F451" s="13"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
@@ -8633,10 +8633,10 @@
     </row>
     <row r="452" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B452" s="2"/>
-      <c r="C452" s="27"/>
+      <c r="C452" s="13"/>
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
-      <c r="F452" s="27"/>
+      <c r="F452" s="13"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
@@ -8644,10 +8644,10 @@
     </row>
     <row r="453" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B453" s="2"/>
-      <c r="C453" s="27"/>
+      <c r="C453" s="13"/>
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
-      <c r="F453" s="27"/>
+      <c r="F453" s="13"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
@@ -8655,10 +8655,10 @@
     </row>
     <row r="454" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B454" s="2"/>
-      <c r="C454" s="27"/>
+      <c r="C454" s="13"/>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
-      <c r="F454" s="27"/>
+      <c r="F454" s="13"/>
       <c r="G454" s="5"/>
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
@@ -8666,10 +8666,10 @@
     </row>
     <row r="455" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B455" s="2"/>
-      <c r="C455" s="27"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
-      <c r="F455" s="27"/>
+      <c r="F455" s="13"/>
       <c r="G455" s="5"/>
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
@@ -8677,10 +8677,10 @@
     </row>
     <row r="456" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B456" s="2"/>
-      <c r="C456" s="27"/>
+      <c r="C456" s="13"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="27"/>
+      <c r="F456" s="13"/>
       <c r="G456" s="5"/>
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="457" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B457" s="2"/>
-      <c r="C457" s="27"/>
+      <c r="C457" s="13"/>
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="27"/>
+      <c r="F457" s="13"/>
       <c r="G457" s="5"/>
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="458" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B458" s="2"/>
-      <c r="C458" s="27"/>
+      <c r="C458" s="13"/>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="27"/>
+      <c r="F458" s="13"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
@@ -8710,10 +8710,10 @@
     </row>
     <row r="459" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B459" s="2"/>
-      <c r="C459" s="27"/>
+      <c r="C459" s="13"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
-      <c r="F459" s="27"/>
+      <c r="F459" s="13"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
@@ -8721,10 +8721,10 @@
     </row>
     <row r="460" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B460" s="2"/>
-      <c r="C460" s="27"/>
+      <c r="C460" s="13"/>
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
-      <c r="F460" s="27"/>
+      <c r="F460" s="13"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="461" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B461" s="2"/>
-      <c r="C461" s="27"/>
+      <c r="C461" s="13"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
-      <c r="F461" s="27"/>
+      <c r="F461" s="13"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
@@ -8743,10 +8743,10 @@
     </row>
     <row r="462" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B462" s="2"/>
-      <c r="C462" s="27"/>
+      <c r="C462" s="13"/>
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
-      <c r="F462" s="27"/>
+      <c r="F462" s="13"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
@@ -8754,10 +8754,10 @@
     </row>
     <row r="463" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B463" s="2"/>
-      <c r="C463" s="27"/>
+      <c r="C463" s="13"/>
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
-      <c r="F463" s="27"/>
+      <c r="F463" s="13"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
@@ -8765,10 +8765,10 @@
     </row>
     <row r="464" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B464" s="2"/>
-      <c r="C464" s="27"/>
+      <c r="C464" s="13"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
-      <c r="F464" s="27"/>
+      <c r="F464" s="13"/>
       <c r="G464" s="5"/>
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="465" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B465" s="2"/>
-      <c r="C465" s="27"/>
+      <c r="C465" s="13"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
-      <c r="F465" s="27"/>
+      <c r="F465" s="13"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="466" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B466" s="2"/>
-      <c r="C466" s="27"/>
+      <c r="C466" s="13"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="27"/>
+      <c r="F466" s="13"/>
       <c r="G466" s="5"/>
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
@@ -8798,10 +8798,10 @@
     </row>
     <row r="467" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B467" s="2"/>
-      <c r="C467" s="27"/>
+      <c r="C467" s="13"/>
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
-      <c r="F467" s="27"/>
+      <c r="F467" s="13"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
@@ -8809,10 +8809,10 @@
     </row>
     <row r="468" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B468" s="2"/>
-      <c r="C468" s="27"/>
+      <c r="C468" s="13"/>
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
-      <c r="F468" s="27"/>
+      <c r="F468" s="13"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
@@ -8820,10 +8820,10 @@
     </row>
     <row r="469" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B469" s="2"/>
-      <c r="C469" s="27"/>
+      <c r="C469" s="13"/>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
-      <c r="F469" s="27"/>
+      <c r="F469" s="13"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
@@ -8831,10 +8831,10 @@
     </row>
     <row r="470" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B470" s="2"/>
-      <c r="C470" s="27"/>
+      <c r="C470" s="13"/>
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
-      <c r="F470" s="27"/>
+      <c r="F470" s="13"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
@@ -8842,10 +8842,10 @@
     </row>
     <row r="471" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B471" s="2"/>
-      <c r="C471" s="27"/>
+      <c r="C471" s="13"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
-      <c r="F471" s="27"/>
+      <c r="F471" s="13"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
@@ -8853,10 +8853,10 @@
     </row>
     <row r="472" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B472" s="2"/>
-      <c r="C472" s="27"/>
+      <c r="C472" s="13"/>
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
-      <c r="F472" s="27"/>
+      <c r="F472" s="13"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="473" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B473" s="2"/>
-      <c r="C473" s="27"/>
+      <c r="C473" s="13"/>
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
-      <c r="F473" s="27"/>
+      <c r="F473" s="13"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="474" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B474" s="2"/>
-      <c r="C474" s="27"/>
+      <c r="C474" s="13"/>
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
-      <c r="F474" s="27"/>
+      <c r="F474" s="13"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="475" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B475" s="2"/>
-      <c r="C475" s="27"/>
+      <c r="C475" s="13"/>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
-      <c r="F475" s="27"/>
+      <c r="F475" s="13"/>
       <c r="G475" s="5"/>
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
@@ -8897,10 +8897,10 @@
     </row>
     <row r="476" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B476" s="2"/>
-      <c r="C476" s="27"/>
+      <c r="C476" s="13"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
-      <c r="F476" s="27"/>
+      <c r="F476" s="13"/>
       <c r="G476" s="5"/>
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
@@ -8908,10 +8908,10 @@
     </row>
     <row r="477" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B477" s="2"/>
-      <c r="C477" s="27"/>
+      <c r="C477" s="13"/>
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
-      <c r="F477" s="27"/>
+      <c r="F477" s="13"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
@@ -8919,10 +8919,10 @@
     </row>
     <row r="478" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B478" s="2"/>
-      <c r="C478" s="27"/>
+      <c r="C478" s="13"/>
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
-      <c r="F478" s="27"/>
+      <c r="F478" s="13"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
@@ -8930,10 +8930,10 @@
     </row>
     <row r="479" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B479" s="2"/>
-      <c r="C479" s="27"/>
+      <c r="C479" s="13"/>
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
-      <c r="F479" s="27"/>
+      <c r="F479" s="13"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="480" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B480" s="2"/>
-      <c r="C480" s="27"/>
+      <c r="C480" s="13"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
-      <c r="F480" s="27"/>
+      <c r="F480" s="13"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="481" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B481" s="2"/>
-      <c r="C481" s="27"/>
+      <c r="C481" s="13"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
-      <c r="F481" s="27"/>
+      <c r="F481" s="13"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
@@ -8963,10 +8963,10 @@
     </row>
     <row r="482" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B482" s="2"/>
-      <c r="C482" s="27"/>
+      <c r="C482" s="13"/>
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
-      <c r="F482" s="27"/>
+      <c r="F482" s="13"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
@@ -8974,10 +8974,10 @@
     </row>
     <row r="483" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B483" s="2"/>
-      <c r="C483" s="27"/>
+      <c r="C483" s="13"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
-      <c r="F483" s="27"/>
+      <c r="F483" s="13"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
@@ -8985,10 +8985,10 @@
     </row>
     <row r="484" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B484" s="2"/>
-      <c r="C484" s="27"/>
+      <c r="C484" s="13"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
-      <c r="F484" s="27"/>
+      <c r="F484" s="13"/>
       <c r="G484" s="5"/>
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
@@ -8996,10 +8996,10 @@
     </row>
     <row r="485" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B485" s="2"/>
-      <c r="C485" s="27"/>
+      <c r="C485" s="13"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
-      <c r="F485" s="27"/>
+      <c r="F485" s="13"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="486" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B486" s="2"/>
-      <c r="C486" s="27"/>
+      <c r="C486" s="13"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="27"/>
+      <c r="F486" s="13"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="487" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B487" s="2"/>
-      <c r="C487" s="27"/>
+      <c r="C487" s="13"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="27"/>
+      <c r="F487" s="13"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="488" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B488" s="2"/>
-      <c r="C488" s="27"/>
+      <c r="C488" s="13"/>
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
-      <c r="F488" s="27"/>
+      <c r="F488" s="13"/>
       <c r="G488" s="5"/>
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
@@ -9040,10 +9040,10 @@
     </row>
     <row r="489" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B489" s="2"/>
-      <c r="C489" s="27"/>
+      <c r="C489" s="13"/>
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
-      <c r="F489" s="27"/>
+      <c r="F489" s="13"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="490" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B490" s="2"/>
-      <c r="C490" s="27"/>
+      <c r="C490" s="13"/>
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="27"/>
+      <c r="F490" s="13"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="491" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B491" s="2"/>
-      <c r="C491" s="27"/>
+      <c r="C491" s="13"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
-      <c r="F491" s="27"/>
+      <c r="F491" s="13"/>
       <c r="G491" s="5"/>
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
@@ -9073,10 +9073,10 @@
     </row>
     <row r="492" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B492" s="2"/>
-      <c r="C492" s="27"/>
+      <c r="C492" s="13"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
-      <c r="F492" s="27"/>
+      <c r="F492" s="13"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
@@ -9084,10 +9084,10 @@
     </row>
     <row r="493" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B493" s="2"/>
-      <c r="C493" s="27"/>
+      <c r="C493" s="13"/>
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
-      <c r="F493" s="27"/>
+      <c r="F493" s="13"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
@@ -9095,10 +9095,10 @@
     </row>
     <row r="494" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B494" s="2"/>
-      <c r="C494" s="27"/>
+      <c r="C494" s="13"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
-      <c r="F494" s="27"/>
+      <c r="F494" s="13"/>
       <c r="G494" s="5"/>
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
@@ -9106,10 +9106,10 @@
     </row>
     <row r="495" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B495" s="2"/>
-      <c r="C495" s="27"/>
+      <c r="C495" s="13"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
-      <c r="F495" s="27"/>
+      <c r="F495" s="13"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="496" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B496" s="2"/>
-      <c r="C496" s="27"/>
+      <c r="C496" s="13"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="27"/>
+      <c r="F496" s="13"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="497" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B497" s="2"/>
-      <c r="C497" s="27"/>
+      <c r="C497" s="13"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
-      <c r="F497" s="27"/>
+      <c r="F497" s="13"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
@@ -9139,10 +9139,10 @@
     </row>
     <row r="498" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B498" s="2"/>
-      <c r="C498" s="27"/>
+      <c r="C498" s="13"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
-      <c r="F498" s="27"/>
+      <c r="F498" s="13"/>
       <c r="G498" s="5"/>
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
@@ -9150,10 +9150,10 @@
     </row>
     <row r="499" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B499" s="2"/>
-      <c r="C499" s="27"/>
+      <c r="C499" s="13"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
-      <c r="F499" s="27"/>
+      <c r="F499" s="13"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
@@ -9161,10 +9161,10 @@
     </row>
     <row r="500" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B500" s="2"/>
-      <c r="C500" s="27"/>
+      <c r="C500" s="13"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
-      <c r="F500" s="27"/>
+      <c r="F500" s="13"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
@@ -9172,10 +9172,10 @@
     </row>
     <row r="501" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B501" s="2"/>
-      <c r="C501" s="27"/>
+      <c r="C501" s="13"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
-      <c r="F501" s="27"/>
+      <c r="F501" s="13"/>
       <c r="G501" s="5"/>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
@@ -9183,10 +9183,10 @@
     </row>
     <row r="502" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B502" s="2"/>
-      <c r="C502" s="27"/>
+      <c r="C502" s="13"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
-      <c r="F502" s="27"/>
+      <c r="F502" s="13"/>
       <c r="G502" s="5"/>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="503" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B503" s="2"/>
-      <c r="C503" s="27"/>
+      <c r="C503" s="13"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
-      <c r="F503" s="27"/>
+      <c r="F503" s="13"/>
       <c r="G503" s="5"/>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="504" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B504" s="2"/>
-      <c r="C504" s="27"/>
+      <c r="C504" s="13"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
-      <c r="F504" s="27"/>
+      <c r="F504" s="13"/>
       <c r="G504" s="5"/>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
@@ -9216,10 +9216,10 @@
     </row>
     <row r="505" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B505" s="2"/>
-      <c r="C505" s="27"/>
+      <c r="C505" s="13"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
-      <c r="F505" s="27"/>
+      <c r="F505" s="13"/>
       <c r="G505" s="5"/>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="506" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B506" s="2"/>
-      <c r="C506" s="27"/>
+      <c r="C506" s="13"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
-      <c r="F506" s="27"/>
+      <c r="F506" s="13"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
@@ -9238,10 +9238,10 @@
     </row>
     <row r="507" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B507" s="2"/>
-      <c r="C507" s="27"/>
+      <c r="C507" s="13"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
-      <c r="F507" s="27"/>
+      <c r="F507" s="13"/>
       <c r="G507" s="5"/>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
@@ -9249,10 +9249,10 @@
     </row>
     <row r="508" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B508" s="2"/>
-      <c r="C508" s="27"/>
+      <c r="C508" s="13"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
-      <c r="F508" s="27"/>
+      <c r="F508" s="13"/>
       <c r="G508" s="5"/>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
@@ -9260,10 +9260,10 @@
     </row>
     <row r="509" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B509" s="2"/>
-      <c r="C509" s="27"/>
+      <c r="C509" s="13"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
-      <c r="F509" s="27"/>
+      <c r="F509" s="13"/>
       <c r="G509" s="5"/>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
@@ -9271,10 +9271,10 @@
     </row>
     <row r="510" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B510" s="2"/>
-      <c r="C510" s="27"/>
+      <c r="C510" s="13"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
-      <c r="F510" s="27"/>
+      <c r="F510" s="13"/>
       <c r="G510" s="5"/>
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
@@ -9282,10 +9282,10 @@
     </row>
     <row r="511" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B511" s="2"/>
-      <c r="C511" s="27"/>
+      <c r="C511" s="13"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
-      <c r="F511" s="27"/>
+      <c r="F511" s="13"/>
       <c r="G511" s="5"/>
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
@@ -9293,10 +9293,10 @@
     </row>
     <row r="512" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B512" s="2"/>
-      <c r="C512" s="27"/>
+      <c r="C512" s="13"/>
       <c r="D512" s="8"/>
       <c r="E512" s="8"/>
-      <c r="F512" s="27"/>
+      <c r="F512" s="13"/>
       <c r="G512" s="5"/>
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
@@ -9304,10 +9304,10 @@
     </row>
     <row r="513" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B513" s="2"/>
-      <c r="C513" s="27"/>
+      <c r="C513" s="13"/>
       <c r="D513" s="8"/>
       <c r="E513" s="8"/>
-      <c r="F513" s="27"/>
+      <c r="F513" s="13"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
@@ -9315,10 +9315,10 @@
     </row>
     <row r="514" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B514" s="2"/>
-      <c r="C514" s="27"/>
+      <c r="C514" s="13"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
-      <c r="F514" s="27"/>
+      <c r="F514" s="13"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
@@ -9326,10 +9326,10 @@
     </row>
     <row r="515" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B515" s="2"/>
-      <c r="C515" s="27"/>
+      <c r="C515" s="13"/>
       <c r="D515" s="8"/>
       <c r="E515" s="8"/>
-      <c r="F515" s="27"/>
+      <c r="F515" s="13"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="516" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B516" s="2"/>
-      <c r="C516" s="27"/>
+      <c r="C516" s="13"/>
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
-      <c r="F516" s="27"/>
+      <c r="F516" s="13"/>
       <c r="G516" s="5"/>
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
@@ -9348,10 +9348,10 @@
     </row>
     <row r="517" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B517" s="2"/>
-      <c r="C517" s="27"/>
+      <c r="C517" s="13"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
-      <c r="F517" s="27"/>
+      <c r="F517" s="13"/>
       <c r="G517" s="5"/>
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
@@ -9359,10 +9359,10 @@
     </row>
     <row r="518" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B518" s="2"/>
-      <c r="C518" s="27"/>
+      <c r="C518" s="13"/>
       <c r="D518" s="8"/>
       <c r="E518" s="8"/>
-      <c r="F518" s="27"/>
+      <c r="F518" s="13"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="519" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B519" s="2"/>
-      <c r="C519" s="27"/>
+      <c r="C519" s="13"/>
       <c r="D519" s="8"/>
       <c r="E519" s="8"/>
-      <c r="F519" s="27"/>
+      <c r="F519" s="13"/>
       <c r="G519" s="5"/>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
@@ -9381,10 +9381,10 @@
     </row>
     <row r="520" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B520" s="2"/>
-      <c r="C520" s="27"/>
+      <c r="C520" s="13"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
-      <c r="F520" s="27"/>
+      <c r="F520" s="13"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
@@ -9392,10 +9392,10 @@
     </row>
     <row r="521" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B521" s="2"/>
-      <c r="C521" s="27"/>
+      <c r="C521" s="13"/>
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
-      <c r="F521" s="27"/>
+      <c r="F521" s="13"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
@@ -9403,10 +9403,10 @@
     </row>
     <row r="522" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B522" s="2"/>
-      <c r="C522" s="27"/>
+      <c r="C522" s="13"/>
       <c r="D522" s="8"/>
       <c r="E522" s="8"/>
-      <c r="F522" s="27"/>
+      <c r="F522" s="13"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
@@ -9414,10 +9414,10 @@
     </row>
     <row r="523" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B523" s="2"/>
-      <c r="C523" s="27"/>
+      <c r="C523" s="13"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
-      <c r="F523" s="27"/>
+      <c r="F523" s="13"/>
       <c r="G523" s="5"/>
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
@@ -9425,10 +9425,10 @@
     </row>
     <row r="524" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B524" s="2"/>
-      <c r="C524" s="27"/>
+      <c r="C524" s="13"/>
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
-      <c r="F524" s="27"/>
+      <c r="F524" s="13"/>
       <c r="G524" s="5"/>
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
@@ -9436,10 +9436,10 @@
     </row>
     <row r="525" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B525" s="2"/>
-      <c r="C525" s="27"/>
+      <c r="C525" s="13"/>
       <c r="D525" s="8"/>
       <c r="E525" s="8"/>
-      <c r="F525" s="27"/>
+      <c r="F525" s="13"/>
       <c r="G525" s="5"/>
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
@@ -9447,10 +9447,10 @@
     </row>
     <row r="526" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B526" s="2"/>
-      <c r="C526" s="27"/>
+      <c r="C526" s="13"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
-      <c r="F526" s="27"/>
+      <c r="F526" s="13"/>
       <c r="G526" s="5"/>
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
@@ -9458,10 +9458,10 @@
     </row>
     <row r="527" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B527" s="2"/>
-      <c r="C527" s="27"/>
+      <c r="C527" s="13"/>
       <c r="D527" s="8"/>
       <c r="E527" s="8"/>
-      <c r="F527" s="27"/>
+      <c r="F527" s="13"/>
       <c r="G527" s="5"/>
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
@@ -9469,10 +9469,10 @@
     </row>
     <row r="528" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B528" s="2"/>
-      <c r="C528" s="27"/>
+      <c r="C528" s="13"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
-      <c r="F528" s="27"/>
+      <c r="F528" s="13"/>
       <c r="G528" s="5"/>
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
@@ -9480,10 +9480,10 @@
     </row>
     <row r="529" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B529" s="2"/>
-      <c r="C529" s="27"/>
+      <c r="C529" s="13"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
-      <c r="F529" s="27"/>
+      <c r="F529" s="13"/>
       <c r="G529" s="5"/>
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
@@ -9491,10 +9491,10 @@
     </row>
     <row r="530" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B530" s="2"/>
-      <c r="C530" s="27"/>
+      <c r="C530" s="13"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
-      <c r="F530" s="27"/>
+      <c r="F530" s="13"/>
       <c r="G530" s="5"/>
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
@@ -9502,10 +9502,10 @@
     </row>
     <row r="531" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B531" s="2"/>
-      <c r="C531" s="27"/>
+      <c r="C531" s="13"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
-      <c r="F531" s="27"/>
+      <c r="F531" s="13"/>
       <c r="G531" s="5"/>
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
@@ -9513,10 +9513,10 @@
     </row>
     <row r="532" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B532" s="2"/>
-      <c r="C532" s="27"/>
+      <c r="C532" s="13"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
-      <c r="F532" s="27"/>
+      <c r="F532" s="13"/>
       <c r="G532" s="5"/>
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
@@ -9524,10 +9524,10 @@
     </row>
     <row r="533" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B533" s="2"/>
-      <c r="C533" s="27"/>
+      <c r="C533" s="13"/>
       <c r="D533" s="8"/>
       <c r="E533" s="8"/>
-      <c r="F533" s="27"/>
+      <c r="F533" s="13"/>
       <c r="G533" s="5"/>
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
@@ -9535,10 +9535,10 @@
     </row>
     <row r="534" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B534" s="2"/>
-      <c r="C534" s="27"/>
+      <c r="C534" s="13"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
-      <c r="F534" s="27"/>
+      <c r="F534" s="13"/>
       <c r="G534" s="5"/>
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
@@ -9546,10 +9546,10 @@
     </row>
     <row r="535" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B535" s="2"/>
-      <c r="C535" s="27"/>
+      <c r="C535" s="13"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
-      <c r="F535" s="27"/>
+      <c r="F535" s="13"/>
       <c r="G535" s="5"/>
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
@@ -9557,10 +9557,10 @@
     </row>
     <row r="536" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B536" s="2"/>
-      <c r="C536" s="27"/>
+      <c r="C536" s="13"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
-      <c r="F536" s="27"/>
+      <c r="F536" s="13"/>
       <c r="G536" s="5"/>
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
@@ -9568,10 +9568,10 @@
     </row>
     <row r="537" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B537" s="2"/>
-      <c r="C537" s="27"/>
+      <c r="C537" s="13"/>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
-      <c r="F537" s="27"/>
+      <c r="F537" s="13"/>
       <c r="G537" s="5"/>
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
@@ -9579,10 +9579,10 @@
     </row>
     <row r="538" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B538" s="2"/>
-      <c r="C538" s="27"/>
+      <c r="C538" s="13"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
-      <c r="F538" s="27"/>
+      <c r="F538" s="13"/>
       <c r="G538" s="5"/>
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="539" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B539" s="2"/>
-      <c r="C539" s="27"/>
+      <c r="C539" s="13"/>
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
-      <c r="F539" s="27"/>
+      <c r="F539" s="13"/>
       <c r="G539" s="5"/>
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
@@ -9601,10 +9601,10 @@
     </row>
     <row r="540" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B540" s="2"/>
-      <c r="C540" s="27"/>
+      <c r="C540" s="13"/>
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
-      <c r="F540" s="27"/>
+      <c r="F540" s="13"/>
       <c r="G540" s="5"/>
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
@@ -9612,10 +9612,10 @@
     </row>
     <row r="541" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B541" s="2"/>
-      <c r="C541" s="27"/>
+      <c r="C541" s="13"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
-      <c r="F541" s="27"/>
+      <c r="F541" s="13"/>
       <c r="G541" s="5"/>
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
@@ -9623,10 +9623,10 @@
     </row>
     <row r="542" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B542" s="2"/>
-      <c r="C542" s="27"/>
+      <c r="C542" s="13"/>
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
-      <c r="F542" s="27"/>
+      <c r="F542" s="13"/>
       <c r="G542" s="5"/>
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
@@ -9634,10 +9634,10 @@
     </row>
     <row r="543" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B543" s="2"/>
-      <c r="C543" s="27"/>
+      <c r="C543" s="13"/>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
-      <c r="F543" s="27"/>
+      <c r="F543" s="13"/>
       <c r="G543" s="5"/>
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
@@ -9645,10 +9645,10 @@
     </row>
     <row r="544" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B544" s="2"/>
-      <c r="C544" s="27"/>
+      <c r="C544" s="13"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
-      <c r="F544" s="27"/>
+      <c r="F544" s="13"/>
       <c r="G544" s="5"/>
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
@@ -9656,10 +9656,10 @@
     </row>
     <row r="545" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B545" s="2"/>
-      <c r="C545" s="27"/>
+      <c r="C545" s="13"/>
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
-      <c r="F545" s="27"/>
+      <c r="F545" s="13"/>
       <c r="G545" s="5"/>
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
@@ -9667,10 +9667,10 @@
     </row>
     <row r="546" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B546" s="2"/>
-      <c r="C546" s="27"/>
+      <c r="C546" s="13"/>
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
-      <c r="F546" s="27"/>
+      <c r="F546" s="13"/>
       <c r="G546" s="5"/>
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
@@ -9678,10 +9678,10 @@
     </row>
     <row r="547" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B547" s="2"/>
-      <c r="C547" s="27"/>
+      <c r="C547" s="13"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
-      <c r="F547" s="27"/>
+      <c r="F547" s="13"/>
       <c r="G547" s="5"/>
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
@@ -9689,10 +9689,10 @@
     </row>
     <row r="548" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B548" s="2"/>
-      <c r="C548" s="27"/>
+      <c r="C548" s="13"/>
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
-      <c r="F548" s="27"/>
+      <c r="F548" s="13"/>
       <c r="G548" s="5"/>
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
@@ -9700,10 +9700,10 @@
     </row>
     <row r="549" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B549" s="2"/>
-      <c r="C549" s="27"/>
+      <c r="C549" s="13"/>
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
-      <c r="F549" s="27"/>
+      <c r="F549" s="13"/>
       <c r="G549" s="5"/>
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
@@ -9711,10 +9711,10 @@
     </row>
     <row r="550" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B550" s="2"/>
-      <c r="C550" s="27"/>
+      <c r="C550" s="13"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
-      <c r="F550" s="27"/>
+      <c r="F550" s="13"/>
       <c r="G550" s="5"/>
       <c r="H550" s="5"/>
       <c r="I550" s="5"/>
@@ -9722,10 +9722,10 @@
     </row>
     <row r="551" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B551" s="2"/>
-      <c r="C551" s="27"/>
+      <c r="C551" s="13"/>
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
-      <c r="F551" s="27"/>
+      <c r="F551" s="13"/>
       <c r="G551" s="5"/>
       <c r="H551" s="5"/>
       <c r="I551" s="5"/>
@@ -9733,10 +9733,10 @@
     </row>
     <row r="552" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B552" s="2"/>
-      <c r="C552" s="27"/>
+      <c r="C552" s="13"/>
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
-      <c r="F552" s="27"/>
+      <c r="F552" s="13"/>
       <c r="G552" s="5"/>
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
@@ -9744,10 +9744,10 @@
     </row>
     <row r="553" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B553" s="2"/>
-      <c r="C553" s="27"/>
+      <c r="C553" s="13"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
-      <c r="F553" s="27"/>
+      <c r="F553" s="13"/>
       <c r="G553" s="5"/>
       <c r="H553" s="5"/>
       <c r="I553" s="5"/>
@@ -9755,10 +9755,10 @@
     </row>
     <row r="554" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B554" s="2"/>
-      <c r="C554" s="27"/>
+      <c r="C554" s="13"/>
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
-      <c r="F554" s="27"/>
+      <c r="F554" s="13"/>
       <c r="G554" s="5"/>
       <c r="H554" s="5"/>
       <c r="I554" s="5"/>
@@ -9766,10 +9766,10 @@
     </row>
     <row r="555" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B555" s="2"/>
-      <c r="C555" s="27"/>
+      <c r="C555" s="13"/>
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
-      <c r="F555" s="27"/>
+      <c r="F555" s="13"/>
       <c r="G555" s="5"/>
       <c r="H555" s="5"/>
       <c r="I555" s="5"/>
@@ -9777,10 +9777,10 @@
     </row>
     <row r="556" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B556" s="2"/>
-      <c r="C556" s="27"/>
+      <c r="C556" s="13"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
-      <c r="F556" s="27"/>
+      <c r="F556" s="13"/>
       <c r="G556" s="5"/>
       <c r="H556" s="5"/>
       <c r="I556" s="5"/>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="557" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B557" s="2"/>
-      <c r="C557" s="27"/>
+      <c r="C557" s="13"/>
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
-      <c r="F557" s="27"/>
+      <c r="F557" s="13"/>
       <c r="G557" s="5"/>
       <c r="H557" s="5"/>
       <c r="I557" s="5"/>
@@ -9799,10 +9799,10 @@
     </row>
     <row r="558" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B558" s="2"/>
-      <c r="C558" s="27"/>
+      <c r="C558" s="13"/>
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
-      <c r="F558" s="27"/>
+      <c r="F558" s="13"/>
       <c r="G558" s="5"/>
       <c r="H558" s="5"/>
       <c r="I558" s="5"/>
@@ -9810,10 +9810,10 @@
     </row>
     <row r="559" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B559" s="2"/>
-      <c r="C559" s="27"/>
+      <c r="C559" s="13"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
-      <c r="F559" s="27"/>
+      <c r="F559" s="13"/>
       <c r="G559" s="5"/>
       <c r="H559" s="5"/>
       <c r="I559" s="5"/>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="560" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B560" s="2"/>
-      <c r="C560" s="27"/>
+      <c r="C560" s="13"/>
       <c r="D560" s="8"/>
       <c r="E560" s="8"/>
-      <c r="F560" s="27"/>
+      <c r="F560" s="13"/>
       <c r="G560" s="5"/>
       <c r="H560" s="5"/>
       <c r="I560" s="5"/>
@@ -9832,10 +9832,10 @@
     </row>
     <row r="561" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B561" s="2"/>
-      <c r="C561" s="27"/>
+      <c r="C561" s="13"/>
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
-      <c r="F561" s="27"/>
+      <c r="F561" s="13"/>
       <c r="G561" s="5"/>
       <c r="H561" s="5"/>
       <c r="I561" s="5"/>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="562" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B562" s="2"/>
-      <c r="C562" s="27"/>
+      <c r="C562" s="13"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
-      <c r="F562" s="27"/>
+      <c r="F562" s="13"/>
       <c r="G562" s="5"/>
       <c r="H562" s="5"/>
       <c r="I562" s="5"/>
@@ -9854,10 +9854,10 @@
     </row>
     <row r="563" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B563" s="2"/>
-      <c r="C563" s="27"/>
+      <c r="C563" s="13"/>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
-      <c r="F563" s="27"/>
+      <c r="F563" s="13"/>
       <c r="G563" s="5"/>
       <c r="H563" s="5"/>
       <c r="I563" s="5"/>
@@ -9865,10 +9865,10 @@
     </row>
     <row r="564" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B564" s="2"/>
-      <c r="C564" s="27"/>
+      <c r="C564" s="13"/>
       <c r="D564" s="8"/>
       <c r="E564" s="8"/>
-      <c r="F564" s="27"/>
+      <c r="F564" s="13"/>
       <c r="G564" s="5"/>
       <c r="H564" s="5"/>
       <c r="I564" s="5"/>
@@ -9876,10 +9876,10 @@
     </row>
     <row r="565" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B565" s="2"/>
-      <c r="C565" s="27"/>
+      <c r="C565" s="13"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
-      <c r="F565" s="27"/>
+      <c r="F565" s="13"/>
       <c r="G565" s="5"/>
       <c r="H565" s="5"/>
       <c r="I565" s="5"/>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="566" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B566" s="2"/>
-      <c r="C566" s="27"/>
+      <c r="C566" s="13"/>
       <c r="D566" s="8"/>
       <c r="E566" s="8"/>
-      <c r="F566" s="27"/>
+      <c r="F566" s="13"/>
       <c r="G566" s="5"/>
       <c r="H566" s="5"/>
       <c r="I566" s="5"/>
@@ -9898,10 +9898,10 @@
     </row>
     <row r="567" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B567" s="2"/>
-      <c r="C567" s="27"/>
+      <c r="C567" s="13"/>
       <c r="D567" s="8"/>
       <c r="E567" s="8"/>
-      <c r="F567" s="27"/>
+      <c r="F567" s="13"/>
       <c r="G567" s="5"/>
       <c r="H567" s="5"/>
       <c r="I567" s="5"/>
@@ -9909,10 +9909,10 @@
     </row>
     <row r="568" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B568" s="2"/>
-      <c r="C568" s="27"/>
+      <c r="C568" s="13"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
-      <c r="F568" s="27"/>
+      <c r="F568" s="13"/>
       <c r="G568" s="5"/>
       <c r="H568" s="5"/>
       <c r="I568" s="5"/>
@@ -9920,10 +9920,10 @@
     </row>
     <row r="569" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B569" s="2"/>
-      <c r="C569" s="27"/>
+      <c r="C569" s="13"/>
       <c r="D569" s="8"/>
       <c r="E569" s="8"/>
-      <c r="F569" s="27"/>
+      <c r="F569" s="13"/>
       <c r="G569" s="5"/>
       <c r="H569" s="5"/>
       <c r="I569" s="5"/>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="570" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B570" s="2"/>
-      <c r="C570" s="27"/>
+      <c r="C570" s="13"/>
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
-      <c r="F570" s="27"/>
+      <c r="F570" s="13"/>
       <c r="G570" s="5"/>
       <c r="H570" s="5"/>
       <c r="I570" s="5"/>
@@ -9942,10 +9942,10 @@
     </row>
     <row r="571" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B571" s="2"/>
-      <c r="C571" s="27"/>
+      <c r="C571" s="13"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
-      <c r="F571" s="27"/>
+      <c r="F571" s="13"/>
       <c r="G571" s="5"/>
       <c r="H571" s="5"/>
       <c r="I571" s="5"/>
@@ -9953,10 +9953,10 @@
     </row>
     <row r="572" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B572" s="2"/>
-      <c r="C572" s="27"/>
+      <c r="C572" s="13"/>
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
-      <c r="F572" s="27"/>
+      <c r="F572" s="13"/>
       <c r="G572" s="5"/>
       <c r="H572" s="5"/>
       <c r="I572" s="5"/>
@@ -9964,10 +9964,10 @@
     </row>
     <row r="573" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B573" s="2"/>
-      <c r="C573" s="27"/>
+      <c r="C573" s="13"/>
       <c r="D573" s="8"/>
       <c r="E573" s="8"/>
-      <c r="F573" s="27"/>
+      <c r="F573" s="13"/>
       <c r="G573" s="5"/>
       <c r="H573" s="5"/>
       <c r="I573" s="5"/>
@@ -9975,10 +9975,10 @@
     </row>
     <row r="574" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B574" s="2"/>
-      <c r="C574" s="27"/>
+      <c r="C574" s="13"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
-      <c r="F574" s="27"/>
+      <c r="F574" s="13"/>
       <c r="G574" s="5"/>
       <c r="H574" s="5"/>
       <c r="I574" s="5"/>
@@ -9986,10 +9986,10 @@
     </row>
     <row r="575" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B575" s="2"/>
-      <c r="C575" s="27"/>
+      <c r="C575" s="13"/>
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
-      <c r="F575" s="27"/>
+      <c r="F575" s="13"/>
       <c r="G575" s="5"/>
       <c r="H575" s="5"/>
       <c r="I575" s="5"/>
@@ -9997,10 +9997,10 @@
     </row>
     <row r="576" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B576" s="2"/>
-      <c r="C576" s="27"/>
+      <c r="C576" s="13"/>
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
-      <c r="F576" s="27"/>
+      <c r="F576" s="13"/>
       <c r="G576" s="5"/>
       <c r="H576" s="5"/>
       <c r="I576" s="5"/>
@@ -10008,10 +10008,10 @@
     </row>
     <row r="577" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B577" s="2"/>
-      <c r="C577" s="27"/>
+      <c r="C577" s="13"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
-      <c r="F577" s="27"/>
+      <c r="F577" s="13"/>
       <c r="G577" s="5"/>
       <c r="H577" s="5"/>
       <c r="I577" s="5"/>
@@ -10019,10 +10019,10 @@
     </row>
     <row r="578" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B578" s="2"/>
-      <c r="C578" s="27"/>
+      <c r="C578" s="13"/>
       <c r="D578" s="8"/>
       <c r="E578" s="8"/>
-      <c r="F578" s="27"/>
+      <c r="F578" s="13"/>
       <c r="G578" s="5"/>
       <c r="H578" s="5"/>
       <c r="I578" s="5"/>
@@ -10030,10 +10030,10 @@
     </row>
     <row r="579" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B579" s="2"/>
-      <c r="C579" s="27"/>
+      <c r="C579" s="13"/>
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
-      <c r="F579" s="27"/>
+      <c r="F579" s="13"/>
       <c r="G579" s="5"/>
       <c r="H579" s="5"/>
       <c r="I579" s="5"/>
@@ -10041,10 +10041,10 @@
     </row>
     <row r="580" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B580" s="2"/>
-      <c r="C580" s="27"/>
+      <c r="C580" s="13"/>
       <c r="D580" s="8"/>
       <c r="E580" s="8"/>
-      <c r="F580" s="27"/>
+      <c r="F580" s="13"/>
       <c r="G580" s="5"/>
       <c r="H580" s="5"/>
       <c r="I580" s="5"/>
@@ -10052,10 +10052,10 @@
     </row>
     <row r="581" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B581" s="2"/>
-      <c r="C581" s="27"/>
+      <c r="C581" s="13"/>
       <c r="D581" s="8"/>
       <c r="E581" s="8"/>
-      <c r="F581" s="27"/>
+      <c r="F581" s="13"/>
       <c r="G581" s="5"/>
       <c r="H581" s="5"/>
       <c r="I581" s="5"/>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="582" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B582" s="2"/>
-      <c r="C582" s="27"/>
+      <c r="C582" s="13"/>
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
-      <c r="F582" s="27"/>
+      <c r="F582" s="13"/>
       <c r="G582" s="5"/>
       <c r="H582" s="5"/>
       <c r="I582" s="5"/>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="583" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B583" s="2"/>
-      <c r="C583" s="27"/>
+      <c r="C583" s="13"/>
       <c r="D583" s="8"/>
       <c r="E583" s="8"/>
-      <c r="F583" s="27"/>
+      <c r="F583" s="13"/>
       <c r="G583" s="5"/>
       <c r="H583" s="5"/>
       <c r="I583" s="5"/>
@@ -10085,10 +10085,10 @@
     </row>
     <row r="584" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B584" s="2"/>
-      <c r="C584" s="27"/>
+      <c r="C584" s="13"/>
       <c r="D584" s="8"/>
       <c r="E584" s="8"/>
-      <c r="F584" s="27"/>
+      <c r="F584" s="13"/>
       <c r="G584" s="5"/>
       <c r="H584" s="5"/>
       <c r="I584" s="5"/>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="585" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B585" s="2"/>
-      <c r="C585" s="27"/>
+      <c r="C585" s="13"/>
       <c r="D585" s="8"/>
       <c r="E585" s="8"/>
-      <c r="F585" s="27"/>
+      <c r="F585" s="13"/>
       <c r="G585" s="5"/>
       <c r="H585" s="5"/>
       <c r="I585" s="5"/>
@@ -10107,10 +10107,10 @@
     </row>
     <row r="586" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B586" s="2"/>
-      <c r="C586" s="27"/>
+      <c r="C586" s="13"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
-      <c r="F586" s="27"/>
+      <c r="F586" s="13"/>
       <c r="G586" s="5"/>
       <c r="H586" s="5"/>
       <c r="I586" s="5"/>
@@ -10118,10 +10118,10 @@
     </row>
     <row r="587" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B587" s="2"/>
-      <c r="C587" s="27"/>
+      <c r="C587" s="13"/>
       <c r="D587" s="8"/>
       <c r="E587" s="8"/>
-      <c r="F587" s="27"/>
+      <c r="F587" s="13"/>
       <c r="G587" s="5"/>
       <c r="H587" s="5"/>
       <c r="I587" s="5"/>
@@ -10129,10 +10129,10 @@
     </row>
     <row r="588" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B588" s="2"/>
-      <c r="C588" s="27"/>
+      <c r="C588" s="13"/>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
-      <c r="F588" s="27"/>
+      <c r="F588" s="13"/>
       <c r="G588" s="5"/>
       <c r="H588" s="5"/>
       <c r="I588" s="5"/>
@@ -10140,10 +10140,10 @@
     </row>
     <row r="589" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B589" s="2"/>
-      <c r="C589" s="27"/>
+      <c r="C589" s="13"/>
       <c r="D589" s="8"/>
       <c r="E589" s="8"/>
-      <c r="F589" s="27"/>
+      <c r="F589" s="13"/>
       <c r="G589" s="5"/>
       <c r="H589" s="5"/>
       <c r="I589" s="5"/>
@@ -10151,10 +10151,10 @@
     </row>
     <row r="590" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B590" s="2"/>
-      <c r="C590" s="27"/>
+      <c r="C590" s="13"/>
       <c r="D590" s="8"/>
       <c r="E590" s="8"/>
-      <c r="F590" s="27"/>
+      <c r="F590" s="13"/>
       <c r="G590" s="5"/>
       <c r="H590" s="5"/>
       <c r="I590" s="5"/>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="591" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B591" s="2"/>
-      <c r="C591" s="27"/>
+      <c r="C591" s="13"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
-      <c r="F591" s="27"/>
+      <c r="F591" s="13"/>
       <c r="G591" s="5"/>
       <c r="H591" s="5"/>
       <c r="I591" s="5"/>
@@ -10173,10 +10173,10 @@
     </row>
     <row r="592" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B592" s="2"/>
-      <c r="C592" s="27"/>
+      <c r="C592" s="13"/>
       <c r="D592" s="8"/>
       <c r="E592" s="8"/>
-      <c r="F592" s="27"/>
+      <c r="F592" s="13"/>
       <c r="G592" s="5"/>
       <c r="H592" s="5"/>
       <c r="I592" s="5"/>
@@ -10184,10 +10184,10 @@
     </row>
     <row r="593" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B593" s="2"/>
-      <c r="C593" s="27"/>
+      <c r="C593" s="13"/>
       <c r="D593" s="8"/>
       <c r="E593" s="8"/>
-      <c r="F593" s="27"/>
+      <c r="F593" s="13"/>
       <c r="G593" s="5"/>
       <c r="H593" s="5"/>
       <c r="I593" s="5"/>
@@ -10195,10 +10195,10 @@
     </row>
     <row r="594" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B594" s="2"/>
-      <c r="C594" s="27"/>
+      <c r="C594" s="13"/>
       <c r="D594" s="8"/>
       <c r="E594" s="8"/>
-      <c r="F594" s="27"/>
+      <c r="F594" s="13"/>
       <c r="G594" s="5"/>
       <c r="H594" s="5"/>
       <c r="I594" s="5"/>
@@ -10206,10 +10206,10 @@
     </row>
     <row r="595" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B595" s="2"/>
-      <c r="C595" s="27"/>
+      <c r="C595" s="13"/>
       <c r="D595" s="8"/>
       <c r="E595" s="8"/>
-      <c r="F595" s="27"/>
+      <c r="F595" s="13"/>
       <c r="G595" s="5"/>
       <c r="H595" s="5"/>
       <c r="I595" s="5"/>
@@ -10217,10 +10217,10 @@
     </row>
     <row r="596" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B596" s="2"/>
-      <c r="C596" s="27"/>
+      <c r="C596" s="13"/>
       <c r="D596" s="8"/>
       <c r="E596" s="8"/>
-      <c r="F596" s="27"/>
+      <c r="F596" s="13"/>
       <c r="G596" s="5"/>
       <c r="H596" s="5"/>
       <c r="I596" s="5"/>
@@ -10228,10 +10228,10 @@
     </row>
     <row r="597" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B597" s="2"/>
-      <c r="C597" s="27"/>
+      <c r="C597" s="13"/>
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
-      <c r="F597" s="27"/>
+      <c r="F597" s="13"/>
       <c r="G597" s="5"/>
       <c r="H597" s="5"/>
       <c r="I597" s="5"/>
@@ -10239,10 +10239,10 @@
     </row>
     <row r="598" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B598" s="2"/>
-      <c r="C598" s="27"/>
+      <c r="C598" s="13"/>
       <c r="D598" s="8"/>
       <c r="E598" s="8"/>
-      <c r="F598" s="27"/>
+      <c r="F598" s="13"/>
       <c r="G598" s="5"/>
       <c r="H598" s="5"/>
       <c r="I598" s="5"/>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="599" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B599" s="2"/>
-      <c r="C599" s="27"/>
+      <c r="C599" s="13"/>
       <c r="D599" s="8"/>
       <c r="E599" s="8"/>
-      <c r="F599" s="27"/>
+      <c r="F599" s="13"/>
       <c r="G599" s="5"/>
       <c r="H599" s="5"/>
       <c r="I599" s="5"/>
@@ -10261,10 +10261,10 @@
     </row>
     <row r="600" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B600" s="2"/>
-      <c r="C600" s="27"/>
+      <c r="C600" s="13"/>
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
-      <c r="F600" s="27"/>
+      <c r="F600" s="13"/>
       <c r="G600" s="5"/>
       <c r="H600" s="5"/>
       <c r="I600" s="5"/>
@@ -10272,10 +10272,10 @@
     </row>
     <row r="601" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B601" s="2"/>
-      <c r="C601" s="27"/>
+      <c r="C601" s="13"/>
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
-      <c r="F601" s="27"/>
+      <c r="F601" s="13"/>
       <c r="G601" s="5"/>
       <c r="H601" s="5"/>
       <c r="I601" s="5"/>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="602" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B602" s="2"/>
-      <c r="C602" s="27"/>
+      <c r="C602" s="13"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
-      <c r="F602" s="27"/>
+      <c r="F602" s="13"/>
       <c r="G602" s="5"/>
       <c r="H602" s="5"/>
       <c r="I602" s="5"/>
@@ -10294,10 +10294,10 @@
     </row>
     <row r="603" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B603" s="2"/>
-      <c r="C603" s="27"/>
+      <c r="C603" s="13"/>
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
-      <c r="F603" s="27"/>
+      <c r="F603" s="13"/>
       <c r="G603" s="5"/>
       <c r="H603" s="5"/>
       <c r="I603" s="5"/>
@@ -10305,10 +10305,10 @@
     </row>
     <row r="604" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B604" s="2"/>
-      <c r="C604" s="27"/>
+      <c r="C604" s="13"/>
       <c r="D604" s="8"/>
       <c r="E604" s="8"/>
-      <c r="F604" s="27"/>
+      <c r="F604" s="13"/>
       <c r="G604" s="5"/>
       <c r="H604" s="5"/>
       <c r="I604" s="5"/>
@@ -10316,10 +10316,10 @@
     </row>
     <row r="605" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B605" s="2"/>
-      <c r="C605" s="27"/>
+      <c r="C605" s="13"/>
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
-      <c r="F605" s="27"/>
+      <c r="F605" s="13"/>
       <c r="G605" s="5"/>
       <c r="H605" s="5"/>
       <c r="I605" s="5"/>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="606" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B606" s="2"/>
-      <c r="C606" s="27"/>
+      <c r="C606" s="13"/>
       <c r="D606" s="8"/>
       <c r="E606" s="8"/>
-      <c r="F606" s="27"/>
+      <c r="F606" s="13"/>
       <c r="G606" s="5"/>
       <c r="H606" s="5"/>
       <c r="I606" s="5"/>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="607" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B607" s="2"/>
-      <c r="C607" s="27"/>
+      <c r="C607" s="13"/>
       <c r="D607" s="8"/>
       <c r="E607" s="8"/>
-      <c r="F607" s="27"/>
+      <c r="F607" s="13"/>
       <c r="G607" s="5"/>
       <c r="H607" s="5"/>
       <c r="I607" s="5"/>
@@ -10349,10 +10349,10 @@
     </row>
     <row r="608" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B608" s="2"/>
-      <c r="C608" s="27"/>
+      <c r="C608" s="13"/>
       <c r="D608" s="8"/>
       <c r="E608" s="8"/>
-      <c r="F608" s="27"/>
+      <c r="F608" s="13"/>
       <c r="G608" s="5"/>
       <c r="H608" s="5"/>
       <c r="I608" s="5"/>
@@ -10360,10 +10360,10 @@
     </row>
     <row r="609" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B609" s="2"/>
-      <c r="C609" s="27"/>
+      <c r="C609" s="13"/>
       <c r="D609" s="8"/>
       <c r="E609" s="8"/>
-      <c r="F609" s="27"/>
+      <c r="F609" s="13"/>
       <c r="G609" s="5"/>
       <c r="H609" s="5"/>
       <c r="I609" s="5"/>
@@ -10371,10 +10371,10 @@
     </row>
     <row r="610" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B610" s="2"/>
-      <c r="C610" s="27"/>
+      <c r="C610" s="13"/>
       <c r="D610" s="8"/>
       <c r="E610" s="8"/>
-      <c r="F610" s="27"/>
+      <c r="F610" s="13"/>
       <c r="G610" s="5"/>
       <c r="H610" s="5"/>
       <c r="I610" s="5"/>
@@ -10382,10 +10382,10 @@
     </row>
     <row r="611" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B611" s="2"/>
-      <c r="C611" s="27"/>
+      <c r="C611" s="13"/>
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
-      <c r="F611" s="27"/>
+      <c r="F611" s="13"/>
       <c r="G611" s="5"/>
       <c r="H611" s="5"/>
       <c r="I611" s="5"/>
@@ -10393,10 +10393,10 @@
     </row>
     <row r="612" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B612" s="2"/>
-      <c r="C612" s="27"/>
+      <c r="C612" s="13"/>
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
-      <c r="F612" s="27"/>
+      <c r="F612" s="13"/>
       <c r="G612" s="5"/>
       <c r="H612" s="5"/>
       <c r="I612" s="5"/>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="613" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B613" s="2"/>
-      <c r="C613" s="27"/>
+      <c r="C613" s="13"/>
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
-      <c r="F613" s="27"/>
+      <c r="F613" s="13"/>
       <c r="G613" s="5"/>
       <c r="H613" s="5"/>
       <c r="I613" s="5"/>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="614" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B614" s="2"/>
-      <c r="C614" s="27"/>
+      <c r="C614" s="13"/>
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
-      <c r="F614" s="27"/>
+      <c r="F614" s="13"/>
       <c r="G614" s="5"/>
       <c r="H614" s="5"/>
       <c r="I614" s="5"/>
@@ -10426,10 +10426,10 @@
     </row>
     <row r="615" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B615" s="2"/>
-      <c r="C615" s="27"/>
+      <c r="C615" s="13"/>
       <c r="D615" s="8"/>
       <c r="E615" s="8"/>
-      <c r="F615" s="27"/>
+      <c r="F615" s="13"/>
       <c r="G615" s="5"/>
       <c r="H615" s="5"/>
       <c r="I615" s="5"/>
@@ -10437,10 +10437,10 @@
     </row>
     <row r="616" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B616" s="2"/>
-      <c r="C616" s="27"/>
+      <c r="C616" s="13"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
-      <c r="F616" s="27"/>
+      <c r="F616" s="13"/>
       <c r="G616" s="5"/>
       <c r="H616" s="5"/>
       <c r="I616" s="5"/>
@@ -10448,10 +10448,10 @@
     </row>
     <row r="617" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B617" s="2"/>
-      <c r="C617" s="27"/>
+      <c r="C617" s="13"/>
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
-      <c r="F617" s="27"/>
+      <c r="F617" s="13"/>
       <c r="G617" s="5"/>
       <c r="H617" s="5"/>
       <c r="I617" s="5"/>
@@ -10459,10 +10459,10 @@
     </row>
     <row r="618" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B618" s="2"/>
-      <c r="C618" s="27"/>
+      <c r="C618" s="13"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
-      <c r="F618" s="27"/>
+      <c r="F618" s="13"/>
       <c r="G618" s="5"/>
       <c r="H618" s="5"/>
       <c r="I618" s="5"/>
@@ -10470,10 +10470,10 @@
     </row>
     <row r="619" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B619" s="2"/>
-      <c r="C619" s="27"/>
+      <c r="C619" s="13"/>
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
-      <c r="F619" s="27"/>
+      <c r="F619" s="13"/>
       <c r="G619" s="5"/>
       <c r="H619" s="5"/>
       <c r="I619" s="5"/>
@@ -10481,10 +10481,10 @@
     </row>
     <row r="620" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B620" s="2"/>
-      <c r="C620" s="27"/>
+      <c r="C620" s="13"/>
       <c r="D620" s="8"/>
       <c r="E620" s="8"/>
-      <c r="F620" s="27"/>
+      <c r="F620" s="13"/>
       <c r="G620" s="5"/>
       <c r="H620" s="5"/>
       <c r="I620" s="5"/>
@@ -10492,10 +10492,10 @@
     </row>
     <row r="621" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B621" s="2"/>
-      <c r="C621" s="27"/>
+      <c r="C621" s="13"/>
       <c r="D621" s="8"/>
       <c r="E621" s="8"/>
-      <c r="F621" s="27"/>
+      <c r="F621" s="13"/>
       <c r="G621" s="5"/>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
@@ -10504,32 +10504,29 @@
   </sheetData>
   <autoFilter ref="B2:J6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="62">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B14:B27"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A28:A55"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B101:B117"/>
+    <mergeCell ref="A101:A162"/>
+    <mergeCell ref="C102:C111"/>
+    <mergeCell ref="D102:D111"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A100"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A56:A88"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="C83:C86"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B51:B52"/>
@@ -10543,29 +10540,32 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C76:C81"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A100"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A56:A88"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="B101:B117"/>
-    <mergeCell ref="A101:A162"/>
-    <mergeCell ref="C102:C111"/>
-    <mergeCell ref="D102:D111"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A28:A55"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B14:B27"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/营销管理平台开发计划.xlsx
+++ b/2.开发管理/营销管理平台开发计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\2.开发管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\2.开发管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB11BE0-8D59-4101-8B31-B0D97BEE8B51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACA76F-4912-458C-AB2F-7C0F550C0FB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="248">
   <si>
     <t>需求与设计</t>
   </si>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>二级菜单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>业务简述</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -940,6 +936,78 @@
   </si>
   <si>
     <t>授信、编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户基本视图、销售视图、联系人视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料基本视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售组织</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织销售范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对销售组织扩展对应的erp业务属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对组织的销售范围进行数据维护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询、同步、导出、启用、停用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询、新增、编辑、编号、导出、启用、停用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询、新增、编辑、导入、导出、启用、停用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与MDM对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨系统的接口对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与合同模块对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与SAP对接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1072,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1088,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1165,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1229,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,12 +1280,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1208,6 +1297,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1504,17 +1602,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1524,22 +1622,22 @@
         <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1549,23 +1647,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -1577,15 +1675,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J66" si="0">G3+H3+I3</f>
+        <f t="shared" ref="J3:J67" si="0">G3+H3+I3</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1598,10 +1696,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1612,8 +1710,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1621,10 +1719,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="6">
         <v>2</v>
@@ -1641,8 +1739,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1650,10 +1748,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1670,8 +1768,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1681,10 +1779,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -1701,8 +1799,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1710,10 +1808,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1730,8 +1828,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1739,10 +1837,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -1759,16 +1857,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="5">
@@ -1786,8 +1884,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1893,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="5">
@@ -1813,8 +1911,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1920,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="5">
@@ -1840,8 +1938,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1851,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="5">
@@ -1869,8 +1967,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1878,10 +1976,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -1898,8 +1996,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="5">
@@ -1925,8 +2023,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="5">
@@ -1952,8 +2050,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +2062,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -1981,8 +2079,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +2091,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2010,12 +2108,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2039,10 +2137,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2062,10 +2160,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2087,17 +2185,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
       <c r="H23" s="5">
         <v>3</v>
       </c>
@@ -2106,14 +2206,14 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2135,10 +2235,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2160,17 +2260,19 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
       <c r="H26" s="5">
         <v>5</v>
       </c>
@@ -2179,112 +2281,114 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="8" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21">
+        <v>3</v>
+      </c>
+      <c r="H27" s="21">
+        <v>10</v>
+      </c>
+      <c r="I27" s="21">
+        <v>3</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
       <c r="H28" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>3</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="5">
@@ -2302,12 +2406,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="5">
@@ -2325,15 +2429,17 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
       <c r="H33" s="5">
         <v>2</v>
       </c>
@@ -2342,20 +2448,18 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5">
         <v>2</v>
@@ -2369,19 +2473,17 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="17" t="s">
-        <v>69</v>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="5">
         <v>2</v>
       </c>
@@ -2390,170 +2492,170 @@
       </c>
       <c r="J35" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="G36" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I36" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I37" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>74</v>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
       </c>
       <c r="H38" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="C39" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G39" s="5">
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="5">
         <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="5">
         <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="33"/>
       <c r="E42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>81</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F42" s="13"/>
       <c r="G42" s="5">
         <v>1</v>
       </c>
@@ -2569,18 +2671,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="G43" s="5">
         <v>1</v>
       </c>
@@ -2596,12 +2696,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="33"/>
       <c r="E44" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="5">
@@ -2619,16 +2723,12 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="5">
@@ -2646,12 +2746,16 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="33"/>
       <c r="E46" s="8" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="5">
@@ -2669,14 +2773,12 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="8" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="5">
@@ -2694,12 +2796,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="33"/>
       <c r="E48" s="8" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="5">
@@ -2717,14 +2821,12 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="26"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="8" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="5">
@@ -2742,12 +2844,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="33"/>
       <c r="E50" s="8" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="5">
@@ -2765,16 +2869,12 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="8"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="8" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="5">
@@ -2792,14 +2892,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="C52" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D52" s="8"/>
-      <c r="E52" s="7" t="s">
-        <v>214</v>
+      <c r="E52" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="5">
@@ -2816,78 +2918,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22" t="s">
-        <v>96</v>
-      </c>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="13" t="s">
-        <v>227</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="13"/>
       <c r="G53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="C54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G54" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I54" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A55" s="22"/>
-      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="G55" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -2897,44 +2997,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>103</v>
+    <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A56" s="29"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="13"/>
       <c r="G56" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="C57" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="5">
@@ -2952,16 +3054,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="8" t="s">
-        <v>219</v>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="5">
@@ -2979,60 +3079,62 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="17" t="s">
-        <v>107</v>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="5">
         <v>1</v>
       </c>
       <c r="H59" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I59" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="8" t="s">
-        <v>8</v>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="5">
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="26"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="8" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="5">
@@ -3050,12 +3152,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="33"/>
       <c r="E62" s="8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="5">
@@ -3073,18 +3177,16 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="26"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="8" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5">
         <v>2</v>
@@ -3094,20 +3196,22 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="33"/>
       <c r="E64" s="8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5">
         <v>2</v>
@@ -3117,23 +3221,21 @@
       </c>
       <c r="J64" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="8" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F65" s="13"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
       <c r="H65" s="5">
         <v>2</v>
       </c>
@@ -3142,16 +3244,20 @@
       </c>
       <c r="J65" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="33"/>
       <c r="E66" s="8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="5"/>
@@ -3167,282 +3273,280 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2</v>
-      </c>
-      <c r="I67" s="5">
-        <v>1</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" ref="J67:J130" si="1">G67+H67+I67</f>
+      <c r="F68" s="13"/>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" ref="J68:J131" si="1">G68+H68+I68</f>
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5">
-        <v>2</v>
-      </c>
-      <c r="I68" s="5">
-        <v>1</v>
-      </c>
-      <c r="J68" s="6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="5">
         <v>3</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H71" s="5">
         <v>10</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I71" s="5">
         <v>3</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="5">
-        <v>2</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2</v>
-      </c>
-      <c r="I71" s="5">
-        <v>2</v>
-      </c>
-      <c r="J71" s="6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="5">
+        <v>2</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5">
+        <v>2</v>
+      </c>
+      <c r="J72" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2</v>
-      </c>
-      <c r="I72" s="5">
-        <v>1</v>
-      </c>
-      <c r="J72" s="6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-      <c r="H73" s="5">
-        <v>2</v>
-      </c>
-      <c r="I73" s="5">
-        <v>2</v>
-      </c>
-      <c r="J73" s="6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2</v>
+      </c>
+      <c r="J74" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5">
-        <v>2</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2</v>
-      </c>
-      <c r="I75" s="5">
-        <v>2</v>
-      </c>
-      <c r="J75" s="6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2</v>
+      </c>
+      <c r="I76" s="5">
+        <v>2</v>
+      </c>
+      <c r="J76" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="29"/>
+      <c r="B77" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2</v>
-      </c>
-      <c r="I76" s="5">
-        <v>1</v>
-      </c>
-      <c r="J76" s="6">
+      <c r="D77" s="33"/>
+      <c r="E77" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="8" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="6">
+      <c r="F78" s="13"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-      <c r="H78" s="5">
-        <v>2</v>
-      </c>
-      <c r="I78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="5">
@@ -3460,12 +3564,12 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="5">
@@ -3483,12 +3587,12 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="5">
@@ -3506,14 +3610,12 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="8"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="5">
@@ -3531,16 +3633,14 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="26"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="5">
@@ -3558,85 +3658,87 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="13"/>
       <c r="G84" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I84" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="26"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F85" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="5">
+        <v>5</v>
+      </c>
+      <c r="I85" s="5">
         <v>3</v>
-      </c>
-      <c r="I85" s="5">
-        <v>2</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="8" t="s">
-        <v>132</v>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="5">
         <v>1</v>
       </c>
       <c r="H86" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="26"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="8" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="5">
@@ -3654,68 +3756,66 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="33"/>
       <c r="E88" s="8" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
       </c>
       <c r="J88" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="7" t="s">
-        <v>214</v>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="28" t="s">
-        <v>137</v>
+      <c r="A90" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D90" s="8"/>
-      <c r="E90" s="8" t="s">
-        <v>86</v>
+      <c r="E90" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="5">
@@ -3733,81 +3833,85 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="D91" s="8"/>
-      <c r="E91" s="17" t="s">
-        <v>149</v>
+      <c r="E91" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="5">
         <v>1</v>
       </c>
       <c r="H91" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="13"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
-        <v>139</v>
+      <c r="E92" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I92" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="13"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="13"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="5">
@@ -3825,39 +3929,39 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="A95" s="36"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="5">
@@ -3875,12 +3979,12 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="13"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="5">
@@ -3898,12 +4002,12 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="13"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="5">
@@ -3921,15 +4025,13 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
-      <c r="B99" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="A99" s="36"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="E99" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="F99" s="13"/>
       <c r="G99" s="5">
         <v>1</v>
@@ -3946,85 +4048,91 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="29"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="44" t="s">
+        <v>145</v>
+      </c>
       <c r="C100" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="13"/>
       <c r="G100" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="A101" s="36"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="13"/>
       <c r="G101" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="8" t="s">
-        <v>86</v>
+      <c r="A102" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F102" s="13"/>
-      <c r="G102" s="5"/>
+      <c r="G102" s="5">
+        <v>4</v>
+      </c>
       <c r="H102" s="5">
         <v>2</v>
       </c>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5">
+        <v>4</v>
+      </c>
       <c r="J102" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="37"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="41"/>
       <c r="E103" s="8" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="5"/>
@@ -4038,12 +4146,12 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="37"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="42"/>
       <c r="E104" s="8" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="5"/>
@@ -4057,29 +4165,31 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="37"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="42"/>
       <c r="E105" s="8" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="H105" s="5">
+        <v>2</v>
+      </c>
       <c r="I105" s="5"/>
       <c r="J105" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="37"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="42"/>
       <c r="E106" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="5"/>
@@ -4091,48 +4201,48 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="37"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="42"/>
       <c r="E107" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="5">
-        <v>2</v>
-      </c>
+      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="37"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="42"/>
       <c r="E108" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="H108" s="5">
+        <v>2</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="37"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="42"/>
       <c r="E109" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="5"/>
@@ -4144,31 +4254,29 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="37"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="42"/>
       <c r="E110" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="5">
-        <v>2</v>
-      </c>
+      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="38"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="42"/>
       <c r="E111" s="8" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="5"/>
@@ -4182,39 +4290,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="7" t="s">
-        <v>214</v>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F112" s="13"/>
-      <c r="G112" s="5">
-        <v>1</v>
-      </c>
+      <c r="G112" s="5"/>
       <c r="H112" s="5">
         <v>2</v>
       </c>
-      <c r="I112" s="5">
-        <v>1</v>
-      </c>
+      <c r="I112" s="5"/>
       <c r="J112" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="5">
@@ -4232,14 +4334,14 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="5">
@@ -4257,14 +4359,14 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="5">
@@ -4282,14 +4384,14 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="5">
@@ -4307,14 +4409,14 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F117" s="13"/>
       <c r="G117" s="5">
@@ -4332,16 +4434,14 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="29"/>
-      <c r="B118" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8" t="s">
-        <v>86</v>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="5">
@@ -4359,297 +4459,302 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="29"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="13"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I119" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="29"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F120" s="13"/>
       <c r="G120" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I120" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="29"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F121" s="13"/>
       <c r="G121" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I121" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="29"/>
+      <c r="A122" s="36"/>
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="29"/>
+      <c r="A123" s="36"/>
       <c r="B123" s="2"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="8" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="F123" s="13"/>
       <c r="G123" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I123" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="29"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="2"/>
       <c r="E124" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="2"/>
       <c r="E125" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="29"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="2"/>
       <c r="E126" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="29"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="2"/>
-      <c r="E127" s="17" t="s">
-        <v>209</v>
+      <c r="E127" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I127" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J127" s="6">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="29"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="8"/>
       <c r="E128" s="17" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H128" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I128" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J128" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="29"/>
-      <c r="C129" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="A129" s="36"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="13"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G129" s="10">
-        <v>1</v>
-      </c>
-      <c r="H129" s="10">
-        <v>2</v>
-      </c>
-      <c r="I129" s="10">
+      <c r="E129" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="5">
+        <v>1</v>
+      </c>
+      <c r="H129" s="5">
+        <v>4</v>
+      </c>
+      <c r="I129" s="5">
         <v>1</v>
       </c>
       <c r="J129" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="29"/>
-      <c r="C130" s="13"/>
+      <c r="A130" s="36"/>
+      <c r="C130" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="G130" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="29"/>
+      <c r="A131" s="36"/>
       <c r="C131" s="13"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G131" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" s="6">
-        <f t="shared" ref="J131:J168" si="2">G131+H131+I131</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="29"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="36"/>
       <c r="C132" s="13"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="G132" s="10">
         <v>1</v>
@@ -4661,17 +4766,17 @@
         <v>1</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J132:J176" si="2">G132+H132+I132</f>
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="29"/>
+      <c r="A133" s="36"/>
       <c r="B133" s="2"/>
       <c r="C133" s="13"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="G133" s="10">
         <v>1</v>
@@ -4688,12 +4793,12 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
+      <c r="A134" s="36"/>
       <c r="B134" s="2"/>
       <c r="C134" s="13"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G134" s="10">
         <v>1</v>
@@ -4710,12 +4815,12 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="29"/>
+      <c r="A135" s="36"/>
       <c r="B135" s="2"/>
       <c r="C135" s="13"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G135" s="10">
         <v>1</v>
@@ -4732,12 +4837,12 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="29"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="2"/>
       <c r="C136" s="13"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G136" s="10">
         <v>1</v>
@@ -4754,62 +4859,60 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="29"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="2"/>
       <c r="C137" s="13"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="17" t="s">
-        <v>173</v>
+      <c r="E137" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G137" s="10">
         <v>1</v>
       </c>
       <c r="H137" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I137" s="10">
         <v>1</v>
       </c>
       <c r="J137" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="29"/>
-      <c r="B138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="A138" s="36"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="13"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="8" t="s">
-        <v>177</v>
+      <c r="E138" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="G138" s="10">
         <v>1</v>
       </c>
       <c r="H138" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138" s="10">
         <v>1</v>
       </c>
       <c r="J138" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="29"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C139" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G139" s="10">
         <v>1</v>
@@ -4826,14 +4929,14 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="29"/>
+      <c r="A140" s="36"/>
       <c r="B140" s="2"/>
       <c r="C140" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="G140" s="10">
         <v>1</v>
@@ -4850,12 +4953,14 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="29"/>
+      <c r="A141" s="36"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="G141" s="10">
         <v>1</v>
@@ -4872,12 +4977,12 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="29"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="2"/>
       <c r="C142" s="13"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G142" s="10">
         <v>1</v>
@@ -4894,12 +4999,12 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="29"/>
+      <c r="A143" s="36"/>
       <c r="B143" s="2"/>
       <c r="C143" s="13"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G143" s="10">
         <v>1</v>
@@ -4916,12 +5021,12 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="29"/>
+      <c r="A144" s="36"/>
       <c r="B144" s="2"/>
       <c r="C144" s="13"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G144" s="10">
         <v>1</v>
@@ -4938,62 +5043,60 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="29"/>
+      <c r="A145" s="36"/>
       <c r="B145" s="2"/>
       <c r="C145" s="13"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="17" t="s">
-        <v>173</v>
+      <c r="E145" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G145" s="10">
         <v>1</v>
       </c>
       <c r="H145" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I145" s="10">
         <v>1</v>
       </c>
       <c r="J145" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="29"/>
-      <c r="B146" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="A146" s="36"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="8" t="s">
-        <v>181</v>
+      <c r="E146" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="G146" s="10">
         <v>1</v>
       </c>
       <c r="H146" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I146" s="10">
         <v>1</v>
       </c>
       <c r="J146" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="29"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C147" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G147" s="10">
         <v>1</v>
@@ -5010,105 +5113,106 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="29"/>
+      <c r="A148" s="36"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="13"/>
+      <c r="C148" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G148" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="29"/>
-      <c r="B149" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="A149" s="36"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="13"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G149" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="29"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="13"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="G150" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H150" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" s="10">
         <v>1</v>
       </c>
       <c r="J150" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="29"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="2"/>
       <c r="C151" s="13"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F151" s="13"/>
-      <c r="G151" s="5">
-        <v>2</v>
-      </c>
-      <c r="H151" s="5">
-        <v>4</v>
-      </c>
-      <c r="I151" s="5">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G151" s="10">
+        <v>11</v>
+      </c>
+      <c r="H151" s="10">
+        <v>2</v>
+      </c>
+      <c r="I151" s="10">
+        <v>1</v>
       </c>
       <c r="J151" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="29"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="2"/>
       <c r="C152" s="13"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="5">
@@ -5126,38 +5230,36 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="29"/>
+      <c r="A153" s="36"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="8"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F153" s="13"/>
       <c r="G153" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I153" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="29"/>
+      <c r="A154" s="36"/>
       <c r="B154" s="2"/>
       <c r="C154" s="15" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="13"/>
@@ -5176,83 +5278,85 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="29"/>
+      <c r="A155" s="36"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="C155" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E155" s="8"/>
       <c r="F155" s="13"/>
       <c r="G155" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155" s="5">
         <v>3</v>
       </c>
       <c r="J155" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="29"/>
+      <c r="A156" s="36"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" s="5">
         <v>3</v>
       </c>
       <c r="J156" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="29"/>
+      <c r="A157" s="36"/>
       <c r="B157" s="2"/>
       <c r="C157" s="13"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J157" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="29"/>
+      <c r="A158" s="36"/>
       <c r="B158" s="2"/>
       <c r="C158" s="13"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="5">
@@ -5270,12 +5374,12 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="29"/>
+      <c r="A159" s="36"/>
       <c r="B159" s="2"/>
       <c r="C159" s="13"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="5">
@@ -5293,12 +5397,12 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="29"/>
+      <c r="A160" s="36"/>
       <c r="B160" s="2"/>
       <c r="C160" s="13"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="5">
@@ -5316,15 +5420,13 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="29"/>
+      <c r="A161" s="36"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E161" s="8"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="F161" s="13"/>
       <c r="G161" s="5">
         <v>1</v>
@@ -5341,13 +5443,13 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="30"/>
+      <c r="A162" s="36"/>
       <c r="B162" s="2"/>
       <c r="C162" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="13"/>
@@ -5355,30 +5457,26 @@
         <v>1</v>
       </c>
       <c r="H162" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I162" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A163" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="A163" s="37"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E163" s="8"/>
       <c r="F163" s="13"/>
       <c r="G163" s="5">
         <v>1</v>
@@ -5395,25 +5493,32 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B164" s="2"/>
-      <c r="C164" s="13"/>
+      <c r="A164" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I164" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
@@ -5421,21 +5526,21 @@
       <c r="C165" s="13"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="5">
         <v>2</v>
       </c>
       <c r="H165" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165" s="5">
         <v>2</v>
       </c>
       <c r="J165" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
@@ -5443,21 +5548,21 @@
       <c r="C166" s="13"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="5">
         <v>2</v>
       </c>
       <c r="H166" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166" s="5">
         <v>2</v>
       </c>
       <c r="J166" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -5465,146 +5570,242 @@
       <c r="C167" s="13"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B168" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>207</v>
-      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="13"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="E168" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="F168" s="13"/>
       <c r="G168" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H168" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I168" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J168" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B169" s="2"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="13"/>
-      <c r="G169" s="20">
-        <f t="shared" ref="G169:I169" si="3">SUM(G3:G168)</f>
-        <v>208</v>
-      </c>
-      <c r="H169" s="20">
-        <f t="shared" si="3"/>
-        <v>407.75</v>
-      </c>
-      <c r="I169" s="20">
-        <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="J169" s="20">
-        <f>SUM(J3:J168)</f>
-        <v>839.5</v>
+      <c r="G169" s="5">
+        <v>6</v>
+      </c>
+      <c r="H169" s="5">
+        <v>6</v>
+      </c>
+      <c r="I169" s="5">
+        <v>6</v>
+      </c>
+      <c r="J169" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B170" s="2"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
+      <c r="C170" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G170" s="10">
+        <v>4</v>
+      </c>
+      <c r="H170" s="10">
+        <v>12</v>
+      </c>
+      <c r="I170" s="10">
+        <v>4</v>
+      </c>
+      <c r="J170" s="27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B171" s="2"/>
       <c r="C171" s="13"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
+      <c r="D171" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G171" s="5">
+        <v>2</v>
+      </c>
+      <c r="H171" s="5">
+        <v>3</v>
+      </c>
+      <c r="I171" s="5">
+        <v>2</v>
+      </c>
+      <c r="J171" s="27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B172" s="2"/>
       <c r="C172" s="13"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
+      <c r="D172" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G172" s="5">
+        <v>2</v>
+      </c>
+      <c r="H172" s="5">
+        <v>3</v>
+      </c>
+      <c r="I172" s="5">
+        <v>2</v>
+      </c>
+      <c r="J172" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B173" s="2"/>
       <c r="C173" s="13"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
+      <c r="D173" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G173" s="5">
+        <v>2</v>
+      </c>
+      <c r="H173" s="5">
+        <v>3</v>
+      </c>
+      <c r="I173" s="5">
+        <v>2</v>
+      </c>
+      <c r="J173" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B174" s="2"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="E174" s="8"/>
       <c r="F174" s="13"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
+      <c r="G174" s="5">
+        <v>4</v>
+      </c>
+      <c r="H174" s="5">
+        <v>14</v>
+      </c>
+      <c r="I174" s="5">
+        <v>7</v>
+      </c>
+      <c r="J174" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B175" s="2"/>
       <c r="C175" s="13"/>
-      <c r="D175" s="8"/>
+      <c r="D175" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="E175" s="8"/>
       <c r="F175" s="13"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
+      <c r="G175" s="5">
+        <v>3</v>
+      </c>
+      <c r="H175" s="5">
+        <v>7</v>
+      </c>
+      <c r="I175" s="5">
+        <v>3</v>
+      </c>
+      <c r="J175" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B176" s="2"/>
       <c r="C176" s="13"/>
-      <c r="D176" s="8"/>
+      <c r="D176" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="E176" s="8"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
+      <c r="G176" s="5">
+        <v>4</v>
+      </c>
+      <c r="H176" s="5">
+        <v>14</v>
+      </c>
+      <c r="I176" s="5">
+        <v>7</v>
+      </c>
+      <c r="J176" s="26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="2"/>
@@ -5612,10 +5813,22 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="13"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
+      <c r="G177" s="20">
+        <f t="shared" ref="G177:I177" si="3">SUM(G3:G176)</f>
+        <v>242</v>
+      </c>
+      <c r="H177" s="20">
+        <f t="shared" si="3"/>
+        <v>501.75</v>
+      </c>
+      <c r="I177" s="20">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="J177" s="20">
+        <f>SUM(J3:J176)</f>
+        <v>1006.5</v>
+      </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="2"/>
@@ -10501,71 +10714,82 @@
       <c r="I621" s="5"/>
       <c r="J621" s="5"/>
     </row>
+    <row r="622" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B622" s="2"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+      <c r="F622" s="13"/>
+      <c r="G622" s="5"/>
+      <c r="H622" s="5"/>
+      <c r="I622" s="5"/>
+      <c r="J622" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:J6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="62">
-    <mergeCell ref="B101:B117"/>
-    <mergeCell ref="A101:A162"/>
-    <mergeCell ref="C102:C111"/>
-    <mergeCell ref="D102:D111"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A100"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A56:A88"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A28:A55"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B102:B118"/>
+    <mergeCell ref="A102:A163"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="D103:D112"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A90:A101"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A57:A89"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A29:A56"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B14:B27"/>
+    <mergeCell ref="B14:B28"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/营销管理平台开发计划.xlsx
+++ b/2.开发管理/营销管理平台开发计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\2.开发管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\2.开发管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACA76F-4912-458C-AB2F-7C0F550C0FB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027BB55-36E9-4A5B-8C26-493071B5A294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="251">
   <si>
     <t>需求与设计</t>
   </si>
@@ -1008,6 +1008,18 @@
   </si>
   <si>
     <t>与SAP对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销渠道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本单位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1177,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1250,17 +1262,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1268,8 +1271,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,14 +1301,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J622"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1602,17 +1623,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1647,16 +1668,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1680,10 +1701,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1696,10 +1717,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1710,8 +1731,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1739,8 +1760,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +1789,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1799,8 +1820,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1828,8 +1849,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1857,8 +1878,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
@@ -1884,8 +1905,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1911,8 +1932,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
@@ -1938,8 +1959,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1967,8 +1988,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1996,8 +2017,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
@@ -2023,8 +2044,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
@@ -2050,8 +2071,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
@@ -2079,8 +2100,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
@@ -2108,12 +2129,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2137,10 +2158,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2160,10 +2181,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2185,10 +2206,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="17" t="s">
         <v>51</v>
       </c>
@@ -2210,10 +2231,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2235,10 +2256,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2260,10 +2281,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="8" t="s">
         <v>221</v>
       </c>
@@ -2285,10 +2306,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="24" t="s">
         <v>230</v>
       </c>
@@ -2308,10 +2329,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="8" t="s">
         <v>45</v>
       </c>
@@ -2331,16 +2352,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2358,10 +2379,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="8" t="s">
         <v>61</v>
       </c>
@@ -2383,10 +2404,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="8" t="s">
         <v>62</v>
       </c>
@@ -2406,10 +2427,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="8" t="s">
         <v>63</v>
       </c>
@@ -2429,10 +2450,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="8" t="s">
         <v>64</v>
       </c>
@@ -2452,10 +2473,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="8" t="s">
         <v>65</v>
       </c>
@@ -2473,10 +2494,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="8" t="s">
         <v>66</v>
       </c>
@@ -2496,10 +2517,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="17" t="s">
         <v>68</v>
       </c>
@@ -2521,10 +2542,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="17" t="s">
         <v>207</v>
       </c>
@@ -2544,10 +2565,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="8" t="s">
         <v>70</v>
       </c>
@@ -2569,14 +2590,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="7" t="s">
         <v>75</v>
       </c>
@@ -2598,10 +2619,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="8" t="s">
         <v>76</v>
       </c>
@@ -2623,10 +2644,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="8" t="s">
         <v>77</v>
       </c>
@@ -2646,12 +2667,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="32" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="8" t="s">
         <v>79</v>
       </c>
@@ -2671,10 +2692,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="8" t="s">
         <v>81</v>
       </c>
@@ -2696,14 +2717,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="8" t="s">
         <v>85</v>
       </c>
@@ -2723,10 +2744,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="8" t="s">
         <v>86</v>
       </c>
@@ -2746,14 +2767,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="8" t="s">
         <v>88</v>
       </c>
@@ -2773,10 +2794,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="8" t="s">
         <v>8</v>
       </c>
@@ -2796,12 +2817,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="32" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="8" t="s">
         <v>88</v>
       </c>
@@ -2821,10 +2842,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="8" t="s">
         <v>8</v>
       </c>
@@ -2844,12 +2865,12 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="8" t="s">
         <v>88</v>
       </c>
@@ -2869,10 +2890,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="8" t="s">
         <v>8</v>
       </c>
@@ -2892,8 +2913,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -2919,8 +2940,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="13" t="s">
         <v>94</v>
       </c>
@@ -2944,8 +2965,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -2973,8 +2994,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="13" t="s">
         <v>99</v>
       </c>
@@ -2998,7 +3019,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -3025,10 +3046,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -3054,8 +3075,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="13" t="s">
         <v>104</v>
       </c>
@@ -3079,14 +3100,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="33"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="8" t="s">
         <v>218</v>
       </c>
@@ -3106,10 +3127,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="17" t="s">
         <v>106</v>
       </c>
@@ -3129,10 +3150,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="8" t="s">
         <v>8</v>
       </c>
@@ -3152,12 +3173,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="32" t="s">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="8" t="s">
         <v>85</v>
       </c>
@@ -3177,10 +3198,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="8" t="s">
         <v>8</v>
       </c>
@@ -3200,12 +3221,12 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="32" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="33"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="8" t="s">
         <v>85</v>
       </c>
@@ -3225,10 +3246,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="8" t="s">
         <v>8</v>
       </c>
@@ -3248,56 +3269,60 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29" t="s">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="33"/>
+      <c r="D66" s="41"/>
       <c r="E66" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F66" s="13"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
       <c r="H66" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
       </c>
       <c r="J66" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
       <c r="H67" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
       </c>
       <c r="J67" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="8" t="s">
         <v>9</v>
       </c>
@@ -3306,82 +3331,90 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" ref="J68:J131" si="1">G68+H68+I68</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="41"/>
       <c r="E69" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
       <c r="H69" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="5">
+        <v>3</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
       <c r="J70" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="17" t="s">
         <v>208</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I71" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="8" t="s">
         <v>112</v>
       </c>
@@ -3390,23 +3423,23 @@
         <v>2</v>
       </c>
       <c r="H72" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="5">
         <v>2</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="32" t="s">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="33"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="8" t="s">
         <v>113</v>
       </c>
@@ -3426,10 +3459,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="8" t="s">
         <v>77</v>
       </c>
@@ -3449,12 +3482,12 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="32" t="s">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="33"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="8" t="s">
         <v>114</v>
       </c>
@@ -3474,10 +3507,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="8" t="s">
         <v>81</v>
       </c>
@@ -3497,14 +3530,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29" t="s">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="33"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="8" t="s">
         <v>85</v>
       </c>
@@ -3524,10 +3557,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="8" t="s">
         <v>8</v>
       </c>
@@ -3541,10 +3574,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="8" t="s">
         <v>119</v>
       </c>
@@ -3564,10 +3597,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="8" t="s">
         <v>120</v>
       </c>
@@ -3587,10 +3620,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="41"/>
       <c r="E81" s="8" t="s">
         <v>121</v>
       </c>
@@ -3610,10 +3643,10 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="8" t="s">
         <v>122</v>
       </c>
@@ -3633,8 +3666,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="13" t="s">
         <v>123</v>
       </c>
@@ -3658,14 +3691,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29" t="s">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="33"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="8" t="s">
         <v>127</v>
       </c>
@@ -3685,10 +3718,10 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="41"/>
       <c r="E85" s="17" t="s">
         <v>128</v>
       </c>
@@ -3699,21 +3732,21 @@
         <v>2</v>
       </c>
       <c r="H85" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I85" s="5">
         <v>3</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="17" t="s">
         <v>130</v>
       </c>
@@ -3733,10 +3766,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="33"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="8" t="s">
         <v>131</v>
       </c>
@@ -3756,12 +3789,12 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="32" t="s">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="33"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
         <v>88</v>
       </c>
@@ -3781,10 +3814,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="8" t="s">
         <v>229</v>
       </c>
@@ -3804,7 +3837,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="32" t="s">
         <v>133</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -3833,8 +3866,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="36"/>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="32" t="s">
         <v>136</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -3860,8 +3893,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="13"/>
       <c r="D92" s="8"/>
       <c r="E92" s="17" t="s">
@@ -3869,22 +3902,22 @@
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I92" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="13"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8" t="s">
@@ -3906,8 +3939,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="13"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
@@ -3929,8 +3962,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="13"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
@@ -3952,8 +3985,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="36"/>
-      <c r="B96" s="35" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -3979,8 +4012,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="13"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
@@ -4002,8 +4035,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="13"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
@@ -4025,8 +4058,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="36"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="13"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8" t="s">
@@ -4048,8 +4081,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="36"/>
-      <c r="B100" s="44" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -4073,8 +4106,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="36"/>
-      <c r="B101" s="45"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="13" t="s">
         <v>147</v>
       </c>
@@ -4096,10 +4129,10 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="18" t="s">
@@ -4125,192 +4158,240 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="38" t="s">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="41"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F103" s="13"/>
-      <c r="G103" s="5"/>
+      <c r="G103" s="5">
+        <v>1</v>
+      </c>
       <c r="H103" s="5">
-        <v>2</v>
-      </c>
-      <c r="I103" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I103" s="5">
+        <v>2</v>
+      </c>
       <c r="J103" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="42"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="5"/>
+      <c r="G104" s="5">
+        <v>1</v>
+      </c>
       <c r="H104" s="5">
-        <v>2</v>
-      </c>
-      <c r="I104" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
       <c r="J104" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="42"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F105" s="13"/>
-      <c r="G105" s="5"/>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
       <c r="H105" s="5">
-        <v>2</v>
-      </c>
-      <c r="I105" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1</v>
+      </c>
       <c r="J105" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="42"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F106" s="13"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="G106" s="28">
+        <v>1</v>
+      </c>
+      <c r="H106" s="5">
+        <v>3</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1</v>
+      </c>
       <c r="J106" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="42"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="8" t="s">
         <v>153</v>
       </c>
       <c r="F107" s="13"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
+      <c r="G107" s="28">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5">
+        <v>3</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
       <c r="J107" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="42"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F108" s="13"/>
-      <c r="G108" s="5"/>
+      <c r="G108" s="28">
+        <v>1</v>
+      </c>
       <c r="H108" s="5">
-        <v>2</v>
-      </c>
-      <c r="I108" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1</v>
+      </c>
       <c r="J108" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="42"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="8" t="s">
         <v>155</v>
       </c>
       <c r="F109" s="13"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="G109" s="28">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5">
+        <v>3</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1</v>
+      </c>
       <c r="J109" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="42"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="8" t="s">
         <v>156</v>
       </c>
       <c r="F110" s="13"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
+      <c r="G110" s="28">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
+        <v>3</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
       <c r="J110" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="42"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F111" s="13"/>
-      <c r="G111" s="5"/>
+      <c r="G111" s="28">
+        <v>1</v>
+      </c>
       <c r="H111" s="5">
-        <v>2</v>
-      </c>
-      <c r="I111" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1</v>
+      </c>
       <c r="J111" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="43"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="40"/>
       <c r="E112" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="13"/>
-      <c r="G112" s="5"/>
+      <c r="G112" s="28">
+        <v>1</v>
+      </c>
       <c r="H112" s="5">
         <v>2</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5">
+        <v>1</v>
+      </c>
       <c r="J112" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="18" t="s">
         <v>158</v>
       </c>
@@ -4334,8 +4415,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="18" t="s">
         <v>159</v>
       </c>
@@ -4359,8 +4440,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="18" t="s">
         <v>160</v>
       </c>
@@ -4384,8 +4465,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="18" t="s">
         <v>161</v>
       </c>
@@ -4409,8 +4490,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="18" t="s">
         <v>162</v>
       </c>
@@ -4434,8 +4515,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="18" t="s">
         <v>163</v>
       </c>
@@ -4459,7 +4540,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="36"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="2" t="s">
         <v>164</v>
       </c>
@@ -4486,7 +4567,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="36"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="8"/>
@@ -4495,21 +4576,21 @@
       </c>
       <c r="F120" s="13"/>
       <c r="G120" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H120" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I120" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J120" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="36"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="8"/>
@@ -4518,21 +4599,21 @@
       </c>
       <c r="F121" s="13"/>
       <c r="G121" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I121" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J121" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="36"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="8"/>
@@ -4555,7 +4636,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="36"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="2"/>
       <c r="C123" s="13"/>
       <c r="D123" s="8"/>
@@ -4578,7 +4659,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="36"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="2"/>
       <c r="E124" s="8" t="s">
         <v>168</v>
@@ -4599,7 +4680,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="36"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="2"/>
       <c r="E125" s="8" t="s">
         <v>169</v>
@@ -4620,7 +4701,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="36"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="2"/>
       <c r="E126" s="8" t="s">
         <v>170</v>
@@ -4641,7 +4722,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="36"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="2"/>
       <c r="E127" s="8" t="s">
         <v>171</v>
@@ -4662,7 +4743,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="36"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="2"/>
       <c r="E128" s="17" t="s">
         <v>208</v>
@@ -4672,18 +4753,18 @@
         <v>3</v>
       </c>
       <c r="H128" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I128" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J128" s="6">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="36"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="2"/>
       <c r="C129" s="13"/>
       <c r="D129" s="8"/>
@@ -4706,7 +4787,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="36"/>
+      <c r="A130" s="33"/>
       <c r="C130" s="13" t="s">
         <v>167</v>
       </c>
@@ -4729,7 +4810,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="36"/>
+      <c r="A131" s="33"/>
       <c r="C131" s="13"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8" t="s">
@@ -4750,7 +4831,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="36"/>
+      <c r="A132" s="33"/>
       <c r="C132" s="13"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8" t="s">
@@ -4766,12 +4847,12 @@
         <v>1</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" ref="J132:J176" si="2">G132+H132+I132</f>
+        <f t="shared" ref="J132:J179" si="2">G132+H132+I132</f>
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="36"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="2"/>
       <c r="C133" s="13"/>
       <c r="D133" s="8"/>
@@ -4793,7 +4874,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="36"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="2"/>
       <c r="C134" s="13"/>
       <c r="D134" s="8"/>
@@ -4815,7 +4896,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="36"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="2"/>
       <c r="C135" s="13"/>
       <c r="D135" s="8"/>
@@ -4837,7 +4918,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="36"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="2"/>
       <c r="C136" s="13"/>
       <c r="D136" s="8"/>
@@ -4859,7 +4940,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="36"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="2"/>
       <c r="C137" s="13"/>
       <c r="D137" s="8"/>
@@ -4881,7 +4962,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="36"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="2"/>
       <c r="C138" s="13"/>
       <c r="D138" s="8"/>
@@ -4903,7 +4984,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="36"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="2" t="s">
         <v>173</v>
       </c>
@@ -4929,7 +5010,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="36"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="2"/>
       <c r="C140" s="13" t="s">
         <v>175</v>
@@ -4953,7 +5034,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="36"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="2"/>
       <c r="C141" s="13" t="s">
         <v>173</v>
@@ -4977,7 +5058,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="36"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="2"/>
       <c r="C142" s="13"/>
       <c r="D142" s="8"/>
@@ -4999,7 +5080,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="36"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="2"/>
       <c r="C143" s="13"/>
       <c r="D143" s="8"/>
@@ -5021,7 +5102,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="36"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="2"/>
       <c r="C144" s="13"/>
       <c r="D144" s="8"/>
@@ -5043,7 +5124,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="36"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="2"/>
       <c r="C145" s="13"/>
       <c r="D145" s="8"/>
@@ -5065,7 +5146,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="36"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="2"/>
       <c r="C146" s="13"/>
       <c r="D146" s="8"/>
@@ -5087,7 +5168,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="36"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="2" t="s">
         <v>177</v>
       </c>
@@ -5113,7 +5194,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="36"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="2"/>
       <c r="C148" s="13" t="s">
         <v>179</v>
@@ -5137,7 +5218,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="36"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="2"/>
       <c r="C149" s="13"/>
       <c r="D149" s="8"/>
@@ -5159,7 +5240,7 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="36"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="2" t="s">
         <v>183</v>
       </c>
@@ -5185,7 +5266,7 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="36"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="2"/>
       <c r="C151" s="13"/>
       <c r="D151" s="8"/>
@@ -5207,7 +5288,7 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="36"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="2"/>
       <c r="C152" s="13"/>
       <c r="D152" s="8"/>
@@ -5230,7 +5311,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="36"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="2"/>
       <c r="C153" s="13"/>
       <c r="D153" s="8"/>
@@ -5253,7 +5334,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="36"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="2"/>
       <c r="C154" s="15" t="s">
         <v>129</v>
@@ -5278,7 +5359,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="36"/>
+      <c r="A155" s="33"/>
       <c r="B155" s="2"/>
       <c r="C155" s="15" t="s">
         <v>95</v>
@@ -5303,7 +5384,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="36"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="2"/>
       <c r="C156" s="13" t="s">
         <v>187</v>
@@ -5328,7 +5409,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="36"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="2"/>
       <c r="C157" s="13"/>
       <c r="D157" s="8"/>
@@ -5351,7 +5432,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="36"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="2"/>
       <c r="C158" s="13"/>
       <c r="D158" s="8"/>
@@ -5374,7 +5455,7 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="36"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="2"/>
       <c r="C159" s="13"/>
       <c r="D159" s="8"/>
@@ -5397,7 +5478,7 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="36"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="2"/>
       <c r="C160" s="13"/>
       <c r="D160" s="8"/>
@@ -5420,7 +5501,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="36"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="2"/>
       <c r="C161" s="13"/>
       <c r="D161" s="8"/>
@@ -5443,7 +5524,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="36"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="2"/>
       <c r="C162" s="15" t="s">
         <v>95</v>
@@ -5468,7 +5549,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A163" s="37"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="2"/>
       <c r="C163" s="15" t="s">
         <v>193</v>
@@ -5715,142 +5796,169 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B173" s="2"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G173" s="5">
-        <v>2</v>
-      </c>
-      <c r="H173" s="5">
+      <c r="C173" s="29"/>
+      <c r="D173" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F173" s="29"/>
+      <c r="G173" s="28">
+        <v>2</v>
+      </c>
+      <c r="H173" s="28">
         <v>3</v>
       </c>
-      <c r="I173" s="5">
-        <v>2</v>
-      </c>
-      <c r="J173" s="5">
+      <c r="I173" s="28">
+        <v>2</v>
+      </c>
+      <c r="J173" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B174" s="2"/>
-      <c r="C174" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E174" s="8"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="5">
-        <v>4</v>
-      </c>
-      <c r="H174" s="5">
-        <v>14</v>
-      </c>
-      <c r="I174" s="5">
+      <c r="C174" s="29"/>
+      <c r="D174" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F174" s="29"/>
+      <c r="G174" s="28">
+        <v>2</v>
+      </c>
+      <c r="H174" s="28">
+        <v>3</v>
+      </c>
+      <c r="I174" s="28">
+        <v>2</v>
+      </c>
+      <c r="J174" s="28">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="J174" s="5">
-        <f t="shared" si="2"/>
-        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B175" s="2"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="5">
+      <c r="C175" s="29"/>
+      <c r="D175" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E175" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F175" s="29"/>
+      <c r="G175" s="28">
+        <v>2</v>
+      </c>
+      <c r="H175" s="28">
         <v>3</v>
       </c>
-      <c r="H175" s="5">
+      <c r="I175" s="28">
+        <v>2</v>
+      </c>
+      <c r="J175" s="28">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="I175" s="5">
-        <v>3</v>
-      </c>
-      <c r="J175" s="5">
-        <f t="shared" si="2"/>
-        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B176" s="2"/>
       <c r="C176" s="13"/>
       <c r="D176" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E176" s="8"/>
-      <c r="F176" s="13"/>
+        <v>238</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="G176" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H176" s="5">
+        <v>3</v>
+      </c>
+      <c r="I176" s="5">
+        <v>2</v>
+      </c>
+      <c r="J176" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B177" s="2"/>
+      <c r="C177" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E177" s="8"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="5">
+        <v>4</v>
+      </c>
+      <c r="H177" s="5">
         <v>14</v>
       </c>
-      <c r="I176" s="5">
+      <c r="I177" s="5">
         <v>7</v>
       </c>
-      <c r="J176" s="26">
+      <c r="J177" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B177" s="2"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="20">
-        <f t="shared" ref="G177:I177" si="3">SUM(G3:G176)</f>
-        <v>242</v>
-      </c>
-      <c r="H177" s="20">
-        <f t="shared" si="3"/>
-        <v>501.75</v>
-      </c>
-      <c r="I177" s="20">
-        <f t="shared" si="3"/>
-        <v>263</v>
-      </c>
-      <c r="J177" s="20">
-        <f>SUM(J3:J176)</f>
-        <v>1006.5</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="2"/>
       <c r="C178" s="13"/>
-      <c r="D178" s="8"/>
+      <c r="D178" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="E178" s="8"/>
       <c r="F178" s="13"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
+      <c r="G178" s="5">
+        <v>3</v>
+      </c>
+      <c r="H178" s="5">
+        <v>7</v>
+      </c>
+      <c r="I178" s="5">
+        <v>3</v>
+      </c>
+      <c r="J178" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="2"/>
       <c r="C179" s="13"/>
-      <c r="D179" s="8"/>
+      <c r="D179" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="E179" s="8"/>
       <c r="F179" s="13"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
+      <c r="G179" s="5">
+        <v>4</v>
+      </c>
+      <c r="H179" s="5">
+        <v>14</v>
+      </c>
+      <c r="I179" s="5">
+        <v>7</v>
+      </c>
+      <c r="J179" s="26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="2"/>
@@ -5858,10 +5966,22 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="13"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
+      <c r="G180" s="20">
+        <f t="shared" ref="G180:I180" si="3">SUM(G3:G179)</f>
+        <v>270</v>
+      </c>
+      <c r="H180" s="20">
+        <f t="shared" si="3"/>
+        <v>564.75</v>
+      </c>
+      <c r="I180" s="20">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="J180" s="20">
+        <f>SUM(J3:J179)</f>
+        <v>1131.5</v>
+      </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="2"/>
@@ -10725,9 +10845,88 @@
       <c r="I622" s="5"/>
       <c r="J622" s="5"/>
     </row>
+    <row r="623" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B623" s="2"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="8"/>
+      <c r="E623" s="8"/>
+      <c r="F623" s="13"/>
+      <c r="G623" s="5"/>
+      <c r="H623" s="5"/>
+      <c r="I623" s="5"/>
+      <c r="J623" s="5"/>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B624" s="2"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="8"/>
+      <c r="E624" s="8"/>
+      <c r="F624" s="13"/>
+      <c r="G624" s="5"/>
+      <c r="H624" s="5"/>
+      <c r="I624" s="5"/>
+      <c r="J624" s="5"/>
+    </row>
+    <row r="625" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B625" s="2"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="8"/>
+      <c r="E625" s="8"/>
+      <c r="F625" s="13"/>
+      <c r="G625" s="5"/>
+      <c r="H625" s="5"/>
+      <c r="I625" s="5"/>
+      <c r="J625" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:J6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="62">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A29:A56"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="B102:B118"/>
     <mergeCell ref="A102:A163"/>
     <mergeCell ref="C103:C112"/>
@@ -10744,52 +10943,6 @@
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="A57:A89"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A29:A56"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/营销管理平台开发计划.xlsx
+++ b/2.开发管理/营销管理平台开发计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\2.开发管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\2.开发管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027BB55-36E9-4A5B-8C26-493071B5A294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9627D4-E0F8-473B-8D0C-9FA7BD4DD52D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">任务明细!$B$2:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="253">
   <si>
     <t>需求与设计</t>
   </si>
@@ -1020,6 +1020,14 @@
   </si>
   <si>
     <t>基本单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线准备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线支持</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1185,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1282,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,32 +1339,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,11 +1618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1623,17 +1640,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1668,16 +1685,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1701,10 +1718,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1717,10 +1734,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1731,8 +1748,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1760,8 +1777,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1789,8 +1806,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1820,8 +1837,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1849,8 +1866,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1878,8 +1895,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
@@ -1905,8 +1922,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1932,8 +1949,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
@@ -1959,8 +1976,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1988,8 +2005,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
@@ -2017,8 +2034,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
@@ -2044,8 +2061,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
@@ -2071,8 +2088,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2117,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
@@ -2129,12 +2146,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2158,10 +2175,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2181,10 +2198,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="41"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2206,10 +2223,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="17" t="s">
         <v>51</v>
       </c>
@@ -2231,10 +2248,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2256,10 +2273,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2281,10 +2298,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="8" t="s">
         <v>221</v>
       </c>
@@ -2306,10 +2323,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="24" t="s">
         <v>230</v>
       </c>
@@ -2329,10 +2346,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="41"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="8" t="s">
         <v>45</v>
       </c>
@@ -2352,16 +2369,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2379,10 +2396,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="8" t="s">
         <v>61</v>
       </c>
@@ -2404,10 +2421,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="41"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="8" t="s">
         <v>62</v>
       </c>
@@ -2427,10 +2444,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="41"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="8" t="s">
         <v>63</v>
       </c>
@@ -2450,10 +2467,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="8" t="s">
         <v>64</v>
       </c>
@@ -2473,10 +2490,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="41"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="8" t="s">
         <v>65</v>
       </c>
@@ -2494,10 +2511,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="8" t="s">
         <v>66</v>
       </c>
@@ -2517,10 +2534,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="41"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="17" t="s">
         <v>68</v>
       </c>
@@ -2542,10 +2559,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="41"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="17" t="s">
         <v>207</v>
       </c>
@@ -2565,10 +2582,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="41"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="8" t="s">
         <v>70</v>
       </c>
@@ -2590,14 +2607,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="7" t="s">
         <v>75</v>
       </c>
@@ -2619,10 +2636,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="8" t="s">
         <v>76</v>
       </c>
@@ -2644,10 +2661,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="8" t="s">
         <v>77</v>
       </c>
@@ -2667,12 +2684,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="8" t="s">
         <v>79</v>
       </c>
@@ -2692,10 +2709,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="41"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="8" t="s">
         <v>81</v>
       </c>
@@ -2717,14 +2734,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="8" t="s">
         <v>85</v>
       </c>
@@ -2744,10 +2761,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="8" t="s">
         <v>86</v>
       </c>
@@ -2767,14 +2784,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="41"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="8" t="s">
         <v>88</v>
       </c>
@@ -2794,10 +2811,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="8" t="s">
         <v>8</v>
       </c>
@@ -2817,12 +2834,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="45" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="8" t="s">
         <v>88</v>
       </c>
@@ -2842,10 +2859,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="41"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="8" t="s">
         <v>8</v>
       </c>
@@ -2865,12 +2882,12 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="45" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="8" t="s">
         <v>88</v>
       </c>
@@ -2890,10 +2907,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="41"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="8" t="s">
         <v>8</v>
       </c>
@@ -2913,8 +2930,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -2940,8 +2957,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="13" t="s">
         <v>94</v>
       </c>
@@ -2965,8 +2982,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -2994,8 +3011,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="13" t="s">
         <v>99</v>
       </c>
@@ -3019,7 +3036,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -3046,10 +3063,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -3075,8 +3092,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="13" t="s">
         <v>104</v>
       </c>
@@ -3100,14 +3117,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="8" t="s">
         <v>218</v>
       </c>
@@ -3127,10 +3144,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="41"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="17" t="s">
         <v>106</v>
       </c>
@@ -3150,10 +3167,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="41"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
       <c r="E61" s="8" t="s">
         <v>8</v>
       </c>
@@ -3173,12 +3190,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="41"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="8" t="s">
         <v>85</v>
       </c>
@@ -3198,10 +3215,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="8" t="s">
         <v>8</v>
       </c>
@@ -3221,12 +3238,12 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="45" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="8" t="s">
         <v>85</v>
       </c>
@@ -3246,10 +3263,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="41"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="8" t="s">
         <v>8</v>
       </c>
@@ -3269,14 +3286,14 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="41"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="8" t="s">
         <v>85</v>
       </c>
@@ -3296,10 +3313,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="41"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="8" t="s">
         <v>8</v>
       </c>
@@ -3319,10 +3336,10 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="41"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
       <c r="E68" s="8" t="s">
         <v>9</v>
       </c>
@@ -3342,10 +3359,10 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="41"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="40"/>
       <c r="E69" s="8" t="s">
         <v>93</v>
       </c>
@@ -3365,10 +3382,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="41"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="8" t="s">
         <v>111</v>
       </c>
@@ -3388,10 +3405,10 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="41"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="17" t="s">
         <v>208</v>
       </c>
@@ -3411,10 +3428,10 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="41"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="8" t="s">
         <v>112</v>
       </c>
@@ -3434,12 +3451,12 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="45" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="41"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="8" t="s">
         <v>113</v>
       </c>
@@ -3459,10 +3476,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="41"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="8" t="s">
         <v>77</v>
       </c>
@@ -3482,12 +3499,12 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="41"/>
+      <c r="D75" s="40"/>
       <c r="E75" s="8" t="s">
         <v>114</v>
       </c>
@@ -3507,10 +3524,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="41"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
       <c r="E76" s="8" t="s">
         <v>81</v>
       </c>
@@ -3530,14 +3547,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="41"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="8" t="s">
         <v>85</v>
       </c>
@@ -3557,10 +3574,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="41"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
       <c r="E78" s="8" t="s">
         <v>8</v>
       </c>
@@ -3574,10 +3591,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="41"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="40"/>
       <c r="E79" s="8" t="s">
         <v>119</v>
       </c>
@@ -3597,10 +3614,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="41"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="8" t="s">
         <v>120</v>
       </c>
@@ -3620,10 +3637,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="41"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="40"/>
       <c r="E81" s="8" t="s">
         <v>121</v>
       </c>
@@ -3643,10 +3660,10 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="41"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="40"/>
       <c r="E82" s="8" t="s">
         <v>122</v>
       </c>
@@ -3666,8 +3683,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="13" t="s">
         <v>123</v>
       </c>
@@ -3691,14 +3708,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="41"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="8" t="s">
         <v>127</v>
       </c>
@@ -3718,10 +3735,10 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="41"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="17" t="s">
         <v>128</v>
       </c>
@@ -3743,10 +3760,10 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="41"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="17" t="s">
         <v>130</v>
       </c>
@@ -3766,10 +3783,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="8" t="s">
         <v>131</v>
       </c>
@@ -3789,12 +3806,12 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="45" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="8" t="s">
         <v>88</v>
       </c>
@@ -3814,10 +3831,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="41"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="8" t="s">
         <v>229</v>
       </c>
@@ -3837,7 +3854,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="42" t="s">
         <v>133</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -3866,8 +3883,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="32" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="42" t="s">
         <v>136</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -3893,8 +3910,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="13"/>
       <c r="D92" s="8"/>
       <c r="E92" s="17" t="s">
@@ -3916,8 +3933,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="13"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8" t="s">
@@ -3939,8 +3956,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="13"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
@@ -3962,8 +3979,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="13"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
@@ -3985,8 +4002,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="32" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -4012,8 +4029,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="13"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
@@ -4035,8 +4052,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="13"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
@@ -4058,8 +4075,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="34"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="13"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8" t="s">
@@ -4081,8 +4098,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="42" t="s">
+      <c r="A100" s="43"/>
+      <c r="B100" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -4106,8 +4123,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="13" t="s">
         <v>147</v>
       </c>
@@ -4129,10 +4146,10 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="18" t="s">
@@ -4158,12 +4175,12 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="35" t="s">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="38"/>
+      <c r="D103" s="48"/>
       <c r="E103" s="8" t="s">
         <v>85</v>
       </c>
@@ -4183,10 +4200,10 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="39"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="8" t="s">
         <v>9</v>
       </c>
@@ -4206,10 +4223,10 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="39"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="8" t="s">
         <v>93</v>
       </c>
@@ -4229,10 +4246,10 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="39"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="8" t="s">
         <v>152</v>
       </c>
@@ -4252,10 +4269,10 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="39"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="49"/>
       <c r="E107" s="8" t="s">
         <v>153</v>
       </c>
@@ -4275,10 +4292,10 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="39"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="8" t="s">
         <v>154</v>
       </c>
@@ -4298,10 +4315,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="39"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="8" t="s">
         <v>155</v>
       </c>
@@ -4321,10 +4338,10 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="39"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="8" t="s">
         <v>156</v>
       </c>
@@ -4344,10 +4361,10 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="39"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="8" t="s">
         <v>157</v>
       </c>
@@ -4367,10 +4384,10 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="40"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="50"/>
       <c r="E112" s="8" t="s">
         <v>8</v>
       </c>
@@ -4390,8 +4407,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="18" t="s">
         <v>158</v>
       </c>
@@ -4415,8 +4432,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="18" t="s">
         <v>159</v>
       </c>
@@ -4440,8 +4457,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="18" t="s">
         <v>160</v>
       </c>
@@ -4465,8 +4482,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="18" t="s">
         <v>161</v>
       </c>
@@ -4490,8 +4507,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="18" t="s">
         <v>162</v>
       </c>
@@ -4515,8 +4532,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="18" t="s">
         <v>163</v>
       </c>
@@ -4540,7 +4557,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="2" t="s">
         <v>164</v>
       </c>
@@ -4567,7 +4584,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="33"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="8"/>
@@ -4590,7 +4607,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" s="33"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="8"/>
@@ -4613,7 +4630,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="33"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="8"/>
@@ -4636,7 +4653,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="33"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="2"/>
       <c r="C123" s="13"/>
       <c r="D123" s="8"/>
@@ -4659,7 +4676,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="33"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="2"/>
       <c r="E124" s="8" t="s">
         <v>168</v>
@@ -4680,7 +4697,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="33"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="2"/>
       <c r="E125" s="8" t="s">
         <v>169</v>
@@ -4701,7 +4718,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="33"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="2"/>
       <c r="E126" s="8" t="s">
         <v>170</v>
@@ -4722,7 +4739,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="33"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="2"/>
       <c r="E127" s="8" t="s">
         <v>171</v>
@@ -4743,7 +4760,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="33"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="2"/>
       <c r="E128" s="17" t="s">
         <v>208</v>
@@ -4764,7 +4781,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="33"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="2"/>
       <c r="C129" s="13"/>
       <c r="D129" s="8"/>
@@ -4787,7 +4804,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="33"/>
+      <c r="A130" s="43"/>
       <c r="C130" s="13" t="s">
         <v>167</v>
       </c>
@@ -4810,7 +4827,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="33"/>
+      <c r="A131" s="43"/>
       <c r="C131" s="13"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8" t="s">
@@ -4831,7 +4848,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="33"/>
+      <c r="A132" s="43"/>
       <c r="C132" s="13"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8" t="s">
@@ -4852,7 +4869,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="33"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="2"/>
       <c r="C133" s="13"/>
       <c r="D133" s="8"/>
@@ -4874,7 +4891,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="33"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="2"/>
       <c r="C134" s="13"/>
       <c r="D134" s="8"/>
@@ -4896,7 +4913,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="33"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="2"/>
       <c r="C135" s="13"/>
       <c r="D135" s="8"/>
@@ -4918,7 +4935,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="33"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="2"/>
       <c r="C136" s="13"/>
       <c r="D136" s="8"/>
@@ -4940,7 +4957,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="33"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="2"/>
       <c r="C137" s="13"/>
       <c r="D137" s="8"/>
@@ -4962,7 +4979,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="33"/>
+      <c r="A138" s="43"/>
       <c r="B138" s="2"/>
       <c r="C138" s="13"/>
       <c r="D138" s="8"/>
@@ -4984,7 +5001,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="2" t="s">
         <v>173</v>
       </c>
@@ -5010,7 +5027,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="33"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="2"/>
       <c r="C140" s="13" t="s">
         <v>175</v>
@@ -5034,7 +5051,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="33"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="2"/>
       <c r="C141" s="13" t="s">
         <v>173</v>
@@ -5058,7 +5075,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="33"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="2"/>
       <c r="C142" s="13"/>
       <c r="D142" s="8"/>
@@ -5080,7 +5097,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="33"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="2"/>
       <c r="C143" s="13"/>
       <c r="D143" s="8"/>
@@ -5102,7 +5119,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="33"/>
+      <c r="A144" s="43"/>
       <c r="B144" s="2"/>
       <c r="C144" s="13"/>
       <c r="D144" s="8"/>
@@ -5124,7 +5141,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="33"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="2"/>
       <c r="C145" s="13"/>
       <c r="D145" s="8"/>
@@ -5146,7 +5163,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="33"/>
+      <c r="A146" s="43"/>
       <c r="B146" s="2"/>
       <c r="C146" s="13"/>
       <c r="D146" s="8"/>
@@ -5168,7 +5185,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="33"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="2" t="s">
         <v>177</v>
       </c>
@@ -5194,7 +5211,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="33"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="2"/>
       <c r="C148" s="13" t="s">
         <v>179</v>
@@ -5218,7 +5235,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="33"/>
+      <c r="A149" s="43"/>
       <c r="B149" s="2"/>
       <c r="C149" s="13"/>
       <c r="D149" s="8"/>
@@ -5240,7 +5257,7 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="33"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="2" t="s">
         <v>183</v>
       </c>
@@ -5266,7 +5283,7 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="33"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="2"/>
       <c r="C151" s="13"/>
       <c r="D151" s="8"/>
@@ -5288,7 +5305,7 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="33"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="2"/>
       <c r="C152" s="13"/>
       <c r="D152" s="8"/>
@@ -5311,7 +5328,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="33"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="2"/>
       <c r="C153" s="13"/>
       <c r="D153" s="8"/>
@@ -5334,7 +5351,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="33"/>
+      <c r="A154" s="43"/>
       <c r="B154" s="2"/>
       <c r="C154" s="15" t="s">
         <v>129</v>
@@ -5359,7 +5376,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="33"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="2"/>
       <c r="C155" s="15" t="s">
         <v>95</v>
@@ -5384,7 +5401,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="33"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="2"/>
       <c r="C156" s="13" t="s">
         <v>187</v>
@@ -5409,7 +5426,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="33"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="2"/>
       <c r="C157" s="13"/>
       <c r="D157" s="8"/>
@@ -5432,7 +5449,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="33"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="2"/>
       <c r="C158" s="13"/>
       <c r="D158" s="8"/>
@@ -5455,7 +5472,7 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="33"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="2"/>
       <c r="C159" s="13"/>
       <c r="D159" s="8"/>
@@ -5478,7 +5495,7 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="33"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="2"/>
       <c r="C160" s="13"/>
       <c r="D160" s="8"/>
@@ -5501,7 +5518,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="33"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="2"/>
       <c r="C161" s="13"/>
       <c r="D161" s="8"/>
@@ -5524,7 +5541,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="33"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="2"/>
       <c r="C162" s="15" t="s">
         <v>95</v>
@@ -5549,7 +5566,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A163" s="34"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="2"/>
       <c r="C163" s="15" t="s">
         <v>193</v>
@@ -5962,37 +5979,29 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="2"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="20">
-        <f t="shared" ref="G180:I180" si="3">SUM(G3:G179)</f>
-        <v>270</v>
-      </c>
-      <c r="H180" s="20">
-        <f t="shared" si="3"/>
-        <v>564.75</v>
-      </c>
-      <c r="I180" s="20">
-        <f t="shared" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="J180" s="20">
-        <f>SUM(J3:J179)</f>
-        <v>1131.5</v>
-      </c>
+      <c r="C180" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="2"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
+      <c r="C181" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="2"/>
@@ -6000,10 +6009,22 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
+      <c r="G182" s="20">
+        <f t="shared" ref="G182:I182" si="3">SUM(G3:G179)</f>
+        <v>270</v>
+      </c>
+      <c r="H182" s="20">
+        <f t="shared" si="3"/>
+        <v>564.75</v>
+      </c>
+      <c r="I182" s="20">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="J182" s="20">
+        <f>SUM(J3:J179)</f>
+        <v>1131.5</v>
+      </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="2"/>
@@ -10878,55 +10899,31 @@
       <c r="I625" s="5"/>
       <c r="J625" s="5"/>
     </row>
+    <row r="626" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B626" s="2"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="8"/>
+      <c r="E626" s="8"/>
+      <c r="F626" s="13"/>
+      <c r="G626" s="5"/>
+      <c r="H626" s="5"/>
+      <c r="I626" s="5"/>
+      <c r="J626" s="5"/>
+    </row>
+    <row r="627" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B627" s="2"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="8"/>
+      <c r="E627" s="8"/>
+      <c r="F627" s="13"/>
+      <c r="G627" s="5"/>
+      <c r="H627" s="5"/>
+      <c r="I627" s="5"/>
+      <c r="J627" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:J6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="62">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A29:A56"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
     <mergeCell ref="B102:B118"/>
     <mergeCell ref="A102:A163"/>
     <mergeCell ref="C103:C112"/>
@@ -10943,6 +10940,52 @@
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="A57:A89"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A29:A56"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
